--- a/Session2/Backpropagation.xlsx
+++ b/Session2/Backpropagation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schoolofai\github\NLP\Session2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AC19B-8B6A-441A-A9E0-5A7795C29D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F3507-E51F-44CF-AB84-EC3751475D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E57C9DBC-1BAD-4C15-A330-D688758B67C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>h1 = i1 * w1 + i2 * w2</t>
   </si>
@@ -339,6 +339,12 @@
   <si>
     <t>Learning rate = 2.0</t>
   </si>
+  <si>
+    <t>E = E1 + E2</t>
+  </si>
+  <si>
+    <t>Learning rate = 10</t>
+  </si>
 </sst>
 </file>
 
@@ -438,19 +444,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,172 +570,172 @@
                   <c:v>0.24251985734837728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21490159884256635</c:v>
+                  <c:v>0.1211131324797281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18987932614400227</c:v>
+                  <c:v>6.6034727204985572E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16762535191281996</c:v>
+                  <c:v>4.2960858083357437E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14813949508015645</c:v>
+                  <c:v>3.1226625086115713E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13127531967647857</c:v>
+                  <c:v>2.4266927193910999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11678987307369015</c:v>
+                  <c:v>1.9703003122511026E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10439494052893267</c:v>
+                  <c:v>1.649778179710806E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3796722981055E-2</c:v>
+                  <c:v>1.4132670586527146E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4720552415379E-2</c:v>
+                  <c:v>1.2321166233657836E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6922979976319306E-2</c:v>
+                  <c:v>1.0892696442928396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0195330732966341E-2</c:v>
+                  <c:v>9.7396462569544571E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4362398142722599E-2</c:v>
+                  <c:v>8.7909068649901848E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9278852389163084E-2</c:v>
+                  <c:v>7.9976841329359692E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.482491027939574E-2</c:v>
+                  <c:v>7.3254281250291937E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0902083513451699E-2</c:v>
+                  <c:v>6.749017153099896E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7429372470245534E-2</c:v>
+                  <c:v>6.2497651917972543E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4340023833243224E-2</c:v>
+                  <c:v>5.8134969971746289E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1578846221857452E-2</c:v>
+                  <c:v>5.4292725427189789E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9100024391086813E-2</c:v>
+                  <c:v>5.0885194857465434E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6865355889397926E-2</c:v>
+                  <c:v>4.7844294942069937E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4842835087706754E-2</c:v>
+                  <c:v>4.5115295733965596E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3005517883895677E-2</c:v>
+                  <c:v>4.2653720966040077E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1330610940849574E-2</c:v>
+                  <c:v>4.0423069903139566E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9798739612585584E-2</c:v>
+                  <c:v>3.8393118179406265E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.839335778028651E-2</c:v>
+                  <c:v>3.6538633424908866E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7100270395771342E-2</c:v>
+                  <c:v>3.4838392517927037E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5907245673564741E-2</c:v>
+                  <c:v>3.3274421183776938E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4803698768155375E-2</c:v>
+                  <c:v>3.1831399561629524E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3780432633831283E-2</c:v>
+                  <c:v>3.049619309102582E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.282942479195206E-2</c:v>
+                  <c:v>2.9257479037193617E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1943651098189226E-2</c:v>
+                  <c:v>2.8105446726920517E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1116939452806287E-2</c:v>
+                  <c:v>2.703155511723212E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.034384784460451E-2</c:v>
+                  <c:v>2.6028335340299098E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9619562253565655E-2</c:v>
+                  <c:v>2.5089228813483708E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8939810828479314E-2</c:v>
+                  <c:v>2.4208453683307891E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8300791458201265E-2</c:v>
+                  <c:v>2.3380894000968868E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7699110410552152E-2</c:v>
+                  <c:v>2.2602007255166029E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7131730153587946E-2</c:v>
+                  <c:v>2.1867746821900161E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6595924825031735E-2</c:v>
+                  <c:v>2.1174496606736534E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6089242096366859E-2</c:v>
+                  <c:v>2.0519015707856376E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5609470403423031E-2</c:v>
+                  <c:v>1.9898391358218284E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5154610696864603E-2</c:v>
+                  <c:v>1.9309998741857109E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4722852012876885E-2</c:v>
+                  <c:v>1.8751466544697972E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4312550283620495E-2</c:v>
+                  <c:v>1.8220647310637165E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3922209904242521E-2</c:v>
+                  <c:v>1.7715591841399203E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3550467652764665E-2</c:v>
+                  <c:v>1.7234527013184819E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3196078624468146E-2</c:v>
+                  <c:v>1.6775836491531072E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.285790389619694E-2</c:v>
+                  <c:v>1.6338043913611496E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2534899680483368E-2</c:v>
+                  <c:v>1.59197981786669E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2226107766301538E-2</c:v>
+                  <c:v>1.5519860545678455E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1930647073965173E-2</c:v>
+                  <c:v>1.513709328536543E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1647706177329492E-2</c:v>
+                  <c:v>1.4770449673141271E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1376536667931727E-2</c:v>
+                  <c:v>1.4418965142401811E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1116447253746997E-2</c:v>
+                  <c:v>1.4081749444727911E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0866798500435149E-2</c:v>
+                  <c:v>1.3757979686273055E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0626998135797143E-2</c:v>
+                  <c:v>1.3446894128601493E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,172 +1007,172 @@
                   <c:v>0.24251985734837728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21490159884256635</c:v>
+                  <c:v>0.1211131324797281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18987932614400227</c:v>
+                  <c:v>6.6034727204985572E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16762535191281996</c:v>
+                  <c:v>4.2960858083357437E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14813949508015645</c:v>
+                  <c:v>3.1226625086115713E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13127531967647857</c:v>
+                  <c:v>2.4266927193910999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11678987307369015</c:v>
+                  <c:v>1.9703003122511026E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10439494052893267</c:v>
+                  <c:v>1.649778179710806E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3796722981055E-2</c:v>
+                  <c:v>1.4132670586527146E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4720552415379E-2</c:v>
+                  <c:v>1.2321166233657836E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6922979976319306E-2</c:v>
+                  <c:v>1.0892696442928396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0195330732966341E-2</c:v>
+                  <c:v>9.7396462569544571E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4362398142722599E-2</c:v>
+                  <c:v>8.7909068649901848E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9278852389163084E-2</c:v>
+                  <c:v>7.9976841329359692E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.482491027939574E-2</c:v>
+                  <c:v>7.3254281250291937E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0902083513451699E-2</c:v>
+                  <c:v>6.749017153099896E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7429372470245534E-2</c:v>
+                  <c:v>6.2497651917972543E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4340023833243224E-2</c:v>
+                  <c:v>5.8134969971746289E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1578846221857452E-2</c:v>
+                  <c:v>5.4292725427189789E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9100024391086813E-2</c:v>
+                  <c:v>5.0885194857465434E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6865355889397926E-2</c:v>
+                  <c:v>4.7844294942069937E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4842835087706754E-2</c:v>
+                  <c:v>4.5115295733965596E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3005517883895677E-2</c:v>
+                  <c:v>4.2653720966040077E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1330610940849574E-2</c:v>
+                  <c:v>4.0423069903139566E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9798739612585584E-2</c:v>
+                  <c:v>3.8393118179406265E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.839335778028651E-2</c:v>
+                  <c:v>3.6538633424908866E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7100270395771342E-2</c:v>
+                  <c:v>3.4838392517927037E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5907245673564741E-2</c:v>
+                  <c:v>3.3274421183776938E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4803698768155375E-2</c:v>
+                  <c:v>3.1831399561629524E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3780432633831283E-2</c:v>
+                  <c:v>3.049619309102582E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.282942479195206E-2</c:v>
+                  <c:v>2.9257479037193617E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1943651098189226E-2</c:v>
+                  <c:v>2.8105446726920517E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1116939452806287E-2</c:v>
+                  <c:v>2.703155511723212E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.034384784460451E-2</c:v>
+                  <c:v>2.6028335340299098E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9619562253565655E-2</c:v>
+                  <c:v>2.5089228813483708E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8939810828479314E-2</c:v>
+                  <c:v>2.4208453683307891E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8300791458201265E-2</c:v>
+                  <c:v>2.3380894000968868E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7699110410552152E-2</c:v>
+                  <c:v>2.2602007255166029E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7131730153587946E-2</c:v>
+                  <c:v>2.1867746821900161E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6595924825031735E-2</c:v>
+                  <c:v>2.1174496606736534E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6089242096366859E-2</c:v>
+                  <c:v>2.0519015707856376E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5609470403423031E-2</c:v>
+                  <c:v>1.9898391358218284E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5154610696864603E-2</c:v>
+                  <c:v>1.9309998741857109E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4722852012876885E-2</c:v>
+                  <c:v>1.8751466544697972E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4312550283620495E-2</c:v>
+                  <c:v>1.8220647310637165E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3922209904242521E-2</c:v>
+                  <c:v>1.7715591841399203E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3550467652764665E-2</c:v>
+                  <c:v>1.7234527013184819E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3196078624468146E-2</c:v>
+                  <c:v>1.6775836491531072E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.285790389619694E-2</c:v>
+                  <c:v>1.6338043913611496E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2534899680483368E-2</c:v>
+                  <c:v>1.59197981786669E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2226107766301538E-2</c:v>
+                  <c:v>1.5519860545678455E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1930647073965173E-2</c:v>
+                  <c:v>1.513709328536543E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1647706177329492E-2</c:v>
+                  <c:v>1.4770449673141271E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1376536667931727E-2</c:v>
+                  <c:v>1.4418965142401811E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1116447253746997E-2</c:v>
+                  <c:v>1.4081749444727911E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0866798500435149E-2</c:v>
+                  <c:v>1.3757979686273055E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0626998135797143E-2</c:v>
+                  <c:v>1.3446894128601493E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4767,7 +4773,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>469789</xdr:colOff>
+      <xdr:colOff>307864</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>69581</xdr:rowOff>
     </xdr:to>
@@ -4926,6 +4932,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12589</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>2906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22E48DE-BCC6-4B72-BCA6-6FDAF9F6903C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="25250775"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5228,16 +5278,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE76FDC-CE03-4A51-B2C0-74155D31748D}">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AE132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="AF103" sqref="AF103"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="7.85546875" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="14" customWidth="1"/>
+    <col min="1" max="21" width="7.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" style="11" customWidth="1"/>
     <col min="24" max="24" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5351,7 +5402,9 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
@@ -5377,329 +5430,329 @@
       <c r="W17"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
       <c r="W18"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
       <c r="W19"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
       <c r="W20"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
       <c r="W21"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
       <c r="W22"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
       <c r="W23"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
       <c r="W24"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
       <c r="W25"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
       <c r="W26"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
       <c r="W27"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
       <c r="W28"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
       <c r="W29"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="8"/>
+      <c r="K30" s="12"/>
       <c r="L30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W30"/>
     </row>
@@ -6022,111 +6075,111 @@
       </c>
       <c r="E34">
         <f>E33-$L$30*X33</f>
-        <v>0.14962348866611977</v>
+        <v>0.14811744333059887</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:H34" si="0">F33-$L$30*Y33</f>
-        <v>0.19924697733223956</v>
+        <v>0.19623488666119776</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0.24955037307484776</v>
+        <v>0.24775186537423882</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.29910074614969551</v>
+        <v>0.29550373074847763</v>
       </c>
       <c r="I34">
         <f>C34*E34+ D34*F34</f>
-        <v>2.7405872166529947E-2</v>
+        <v>2.7029360832649722E-2</v>
       </c>
       <c r="J34">
         <f>1/(1+EXP(-I34))</f>
-        <v>0.50685103923940988</v>
+        <v>0.50675692883650847</v>
       </c>
       <c r="K34">
         <f>C34*G34+D34*H34</f>
-        <v>4.2387593268711943E-2</v>
+        <v>4.1937966343559709E-2</v>
       </c>
       <c r="L34">
         <f>1/(1+EXP(-K34))</f>
-        <v>0.51059531197447594</v>
+        <v>0.51048295518522457</v>
       </c>
       <c r="M34">
         <f>M33 - $L$30*AB33</f>
-        <v>0.25568585417572753</v>
+        <v>-0.32157072912136253</v>
       </c>
       <c r="N34">
         <f t="shared" ref="N34:P34" si="1">N33 - $L$30*AC33</f>
-        <v>0.30461850961611048</v>
+        <v>-0.27690745191944782</v>
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>0.5849105001852094</v>
+        <v>0.92455250092604713</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>0.63553849656012762</v>
+        <v>0.9776924828006377</v>
       </c>
       <c r="Q34">
         <f>J34*M34+L34*N34</f>
-        <v>0.28513142385842155</v>
+        <v>-0.30431472946190863</v>
       </c>
       <c r="R34">
         <f>1/(1 + EXP(-Q34))</f>
-        <v>0.57080380930727637</v>
+        <v>0.42450305202710498</v>
       </c>
       <c r="S34">
         <f>J34*O34+L34*P34</f>
-        <v>0.62096547180382422</v>
+        <v>0.96761873379984564</v>
       </c>
       <c r="T34">
         <f>1/(1 + EXP(-S34))</f>
-        <v>0.65043809820361076</v>
+        <v>0.72464460657512286</v>
       </c>
       <c r="U34">
         <f>0.5*(A34-R34)^2</f>
-        <v>0.157250456266776</v>
+        <v>8.5906390069892438E-2</v>
       </c>
       <c r="V34">
         <f>0.5*(B34-T34)^2</f>
-        <v>5.7651142575790341E-2</v>
+        <v>3.5206742409835665E-2</v>
       </c>
       <c r="W34" s="3">
         <f>U34+V34</f>
-        <v>0.21490159884256635</v>
+        <v>0.1211131324797281</v>
       </c>
       <c r="X34">
         <f>((R34-A34)*R34*(1-R34)*M34 + (T34-B34)*T34*(1-T34)*O34)*J34*(1-J34)*C34</f>
-        <v>-1.2534929284452434E-4</v>
+        <v>-1.0187657203380072E-3</v>
       </c>
       <c r="Y34">
         <f>((R34-A34)*R34*(1-R34)*M34 + (T34-B34)*T34*(1-T34)*O34)*J34*(1-J34)*D34</f>
-        <v>-2.5069858568904868E-4</v>
+        <v>-2.0375314406760143E-3</v>
       </c>
       <c r="Z34">
         <f>((R34-A34)*R34*(1-R34)*N34 + (T34-B34)*T34*(1-T34)*P34)*L34*(1-L34)*C34</f>
-        <v>-9.0156474975934867E-5</v>
+        <v>-9.9714943137481707E-4</v>
       </c>
       <c r="AA34">
         <f>((R34-A34)*R34*(1-R34)*N34 + (T34-B34)*T34*(1-T34)*P34)*L34*(1-L34)*D34</f>
-        <v>-1.8031294995186973E-4</v>
+        <v>-1.9942988627496341E-3</v>
       </c>
       <c r="AB34">
         <f>(R34-A34)*R34*(1-R34)*J34</f>
-        <v>6.963603225259983E-2</v>
+        <v>5.1315819624763025E-2</v>
       </c>
       <c r="AC34">
         <f>(R34-A34)*R34*(1-R34)*L34</f>
-        <v>7.0150456169600875E-2</v>
+        <v>5.1693128912801423E-2</v>
       </c>
       <c r="AD34">
         <f>(T34-B34)*T34*(1-T34)*J34</f>
-        <v>-3.9131758387023506E-2</v>
+        <v>-2.6831581181204333E-2</v>
       </c>
       <c r="AE34">
         <f>(T34-B34)*T34*(1-T34)*L34</f>
-        <v>-3.9420837356307255E-2</v>
+        <v>-2.7028865466371229E-2</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -6144,111 +6197,111 @@
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E80" si="2">E34-$L$30*X34</f>
-        <v>0.14987418725180882</v>
+        <v>0.15830510053397895</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F80" si="3">F34-$L$30*Y34</f>
-        <v>0.19974837450361765</v>
+        <v>0.21661020106795792</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G80" si="4">G34-$L$30*Z34</f>
-        <v>0.24973068602479964</v>
+        <v>0.25772335968798699</v>
       </c>
       <c r="H35">
         <f t="shared" ref="H35:H80" si="5">H34-$L$30*AA34</f>
-        <v>0.29946137204959927</v>
+        <v>0.31544671937597396</v>
       </c>
       <c r="I35">
         <f t="shared" ref="I35:I80" si="6">C35*E35+ D35*F35</f>
-        <v>2.7468546812952209E-2</v>
+        <v>2.9576275133494742E-2</v>
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J89" si="7">1/(1+EXP(-I35))</f>
-        <v>0.50686670495254016</v>
+        <v>0.50739352982998487</v>
       </c>
       <c r="K35">
         <f t="shared" ref="K35:K80" si="8">C35*G35+D35*H35</f>
-        <v>4.2432671506199914E-2</v>
+        <v>4.443083992199675E-2</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35:L89" si="9">1/(1+EXP(-K35))</f>
-        <v>0.51060657646795427</v>
+        <v>0.51110588303072968</v>
       </c>
       <c r="M35">
         <f t="shared" ref="M35:M80" si="10">M34 - $L$30*AB34</f>
-        <v>0.11641378967052787</v>
+        <v>-0.83472892536899279</v>
       </c>
       <c r="N35">
         <f t="shared" ref="N35:N80" si="11">N34 - $L$30*AC34</f>
-        <v>0.16431759727690873</v>
+        <v>-0.7938387410474621</v>
       </c>
       <c r="O35">
         <f t="shared" ref="O35:O80" si="12">O34 - $L$30*AD34</f>
-        <v>0.66317401695925637</v>
+        <v>1.1928683127380904</v>
       </c>
       <c r="P35">
         <f t="shared" ref="P35:P80" si="13">P34 - $L$30*AE34</f>
-        <v>0.71438017127274211</v>
+        <v>1.2479811374643499</v>
       </c>
       <c r="Q35">
         <f t="shared" ref="Q35:Q80" si="14">J35*M35+L35*N35</f>
-        <v>0.14290791978034093</v>
+        <v>-0.82927170662122918</v>
       </c>
       <c r="R35">
         <f t="shared" ref="R35:R89" si="15">1/(1 + EXP(-Q35))</f>
-        <v>0.53566630049507913</v>
+        <v>0.30379908599947136</v>
       </c>
       <c r="S35">
         <f t="shared" ref="S35:S80" si="16">J35*O35+L35*P35</f>
-        <v>0.70090804233644399</v>
+        <v>1.243104165091929</v>
       </c>
       <c r="T35">
         <f t="shared" ref="T35:T89" si="17">1/(1 + EXP(-S35))</f>
-        <v>0.66838906608788662</v>
+        <v>0.77610387690318838</v>
       </c>
       <c r="U35">
         <f t="shared" ref="U35:U80" si="18">0.5*(A35-R35)^2</f>
-        <v>0.1381625297380914</v>
+        <v>4.3158951467062383E-2</v>
       </c>
       <c r="V35">
         <f t="shared" ref="V35:V80" si="19">0.5*(B35-T35)^2</f>
-        <v>5.1716796405910877E-2</v>
+        <v>2.2875775737923192E-2</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" ref="W35:W80" si="20">U35+V35</f>
-        <v>0.18987932614400227</v>
+        <v>6.6034727204985572E-2</v>
       </c>
       <c r="X35">
         <f t="shared" ref="X35:X80" si="21">((R35-A35)*R35*(1-R35)*M35 + (T35-B35)*T35*(1-T35)*O35)*J35*(1-J35)*C35</f>
-        <v>-4.0058074685720384E-4</v>
+        <v>-1.202319908633679E-3</v>
       </c>
       <c r="Y35">
         <f t="shared" ref="Y35:Y80" si="22">((R35-A35)*R35*(1-R35)*M35 + (T35-B35)*T35*(1-T35)*O35)*J35*(1-J35)*D35</f>
-        <v>-8.0116149371440768E-4</v>
+        <v>-2.404639817267358E-3</v>
       </c>
       <c r="Z35">
         <f t="shared" ref="Z35:Z80" si="23">((R35-A35)*R35*(1-R35)*N35 + (T35-B35)*T35*(1-T35)*P35)*L35*(1-L35)*C35</f>
-        <v>-3.6782612037413787E-4</v>
+        <v>-1.1958365483202608E-3</v>
       </c>
       <c r="AA35">
         <f t="shared" ref="AA35:AA80" si="24">((R35-A35)*R35*(1-R35)*N35 + (T35-B35)*T35*(1-T35)*P35)*L35*(1-L35)*D35</f>
-        <v>-7.3565224074827575E-4</v>
+        <v>-2.3916730966405215E-3</v>
       </c>
       <c r="AB35">
         <f t="shared" ref="AB35:AB80" si="25">(R35-A35)*R35*(1-R35)*J35</f>
-        <v>6.6271748591446675E-2</v>
+        <v>3.1529451620921453E-2</v>
       </c>
       <c r="AC35">
         <f t="shared" ref="AC35:AC80" si="26">(R35-A35)*R35*(1-R35)*L35</f>
-        <v>6.6760728874452335E-2</v>
+        <v>3.1760137378151893E-2</v>
       </c>
       <c r="AD35">
         <f t="shared" ref="AD35:AD80" si="27">(T35-B35)*T35*(1-T35)*J35</f>
-        <v>-3.6131230136519511E-2</v>
+        <v>-1.8858809099041501E-2</v>
       </c>
       <c r="AE35">
         <f t="shared" ref="AE35:AE80" si="28">(T35-B35)*T35*(1-T35)*L35</f>
-        <v>-3.6397821248313075E-2</v>
+        <v>-1.8996789889503138E-2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -6266,111 +6319,111 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>0.15067534874552321</v>
+        <v>0.17032829962031573</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>0.20135069749104648</v>
+        <v>0.24065659924063149</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>0.25046633826554793</v>
+        <v>0.2696817251711896</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>0.30093267653109584</v>
+        <v>0.33936345034237919</v>
       </c>
       <c r="I36">
         <f t="shared" si="6"/>
-        <v>2.7668837186380808E-2</v>
+        <v>3.2582074905078938E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>0.50691676803285757</v>
+        <v>0.50814479820156833</v>
       </c>
       <c r="K36">
         <f t="shared" si="8"/>
-        <v>4.2616584566386985E-2</v>
+        <v>4.7420431292797396E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="9"/>
-        <v>0.51065253395310206</v>
+        <v>0.51185288677689411</v>
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>-1.6129707512365477E-2</v>
+        <v>-1.1500234415782074</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>3.0796139528004057E-2</v>
+        <v>-1.111440114828981</v>
       </c>
       <c r="O36">
         <f t="shared" si="12"/>
-        <v>0.73543647723229544</v>
+        <v>1.3814564037285053</v>
       </c>
       <c r="P36">
         <f t="shared" si="13"/>
-        <v>0.78717581376936829</v>
+        <v>1.4379490363593812</v>
       </c>
       <c r="Q36">
         <f t="shared" si="14"/>
-        <v>7.5497074844649518E-3</v>
+        <v>-1.1532722609026878</v>
       </c>
       <c r="R36">
         <f t="shared" si="15"/>
-        <v>0.50188741790619118</v>
+        <v>0.23989189888730647</v>
       </c>
       <c r="S36">
         <f t="shared" si="16"/>
-        <v>0.77477840609998849</v>
+        <v>1.4379982507954878</v>
       </c>
       <c r="T36">
         <f t="shared" si="17"/>
-        <v>0.68455365130481594</v>
+        <v>0.80814447769533271</v>
       </c>
       <c r="U36">
         <f t="shared" si="18"/>
-        <v>0.12097661594720997</v>
+        <v>2.6425142587005769E-2</v>
       </c>
       <c r="V36">
         <f t="shared" si="19"/>
-        <v>4.6648735965609985E-2</v>
+        <v>1.6535715496351671E-2</v>
       </c>
       <c r="W36" s="3">
         <f t="shared" si="20"/>
-        <v>0.16762535191281996</v>
+        <v>4.2960858083357437E-2</v>
       </c>
       <c r="X36">
         <f t="shared" si="21"/>
-        <v>-6.3102224322203991E-4</v>
+        <v>-1.0892108324555422E-3</v>
       </c>
       <c r="Y36">
         <f t="shared" si="22"/>
-        <v>-1.2620444864440798E-3</v>
+        <v>-2.1784216649110844E-3</v>
       </c>
       <c r="Z36">
         <f t="shared" si="23"/>
-        <v>-6.0139680312642195E-4</v>
+        <v>-1.0885814261228776E-3</v>
       </c>
       <c r="AA36">
         <f t="shared" si="24"/>
-        <v>-1.2027936062528439E-3</v>
+        <v>-2.1771628522457552E-3</v>
       </c>
       <c r="AB36">
         <f t="shared" si="25"/>
-        <v>6.233560677351567E-2</v>
+        <v>2.1301103129379623E-2</v>
       </c>
       <c r="AC36">
         <f t="shared" si="26"/>
-        <v>6.2794994290535366E-2</v>
+        <v>2.1456543817615414E-2</v>
       </c>
       <c r="AD36">
         <f t="shared" si="27"/>
-        <v>-3.3435251264954738E-2</v>
+        <v>-1.4327726792825171E-2</v>
       </c>
       <c r="AE36">
         <f t="shared" si="28"/>
-        <v>-3.3681655172040192E-2</v>
+        <v>-1.4432280613348173E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -6388,111 +6441,111 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>0.15193739323196728</v>
+        <v>0.18122040794487115</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>0.20387478646393464</v>
+        <v>0.26244081588974233</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>0.25166913187180079</v>
+        <v>0.28056753943241836</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>0.30333826374360151</v>
+        <v>0.36113507886483676</v>
       </c>
       <c r="I37">
         <f t="shared" si="6"/>
-        <v>2.7984348307991833E-2</v>
+        <v>3.5305101986217793E-2</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>0.50699563054592089</v>
+        <v>0.50882535881805624</v>
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
-        <v>4.2917282967950193E-2</v>
+        <v>5.0141884858104592E-2</v>
       </c>
       <c r="L37">
         <f t="shared" si="9"/>
-        <v>0.5107276741900415</v>
+        <v>0.51253284547554412</v>
       </c>
       <c r="M37">
         <f t="shared" si="10"/>
-        <v>-0.14080092105939682</v>
+        <v>-1.3630344728720036</v>
       </c>
       <c r="N37">
         <f t="shared" si="11"/>
-        <v>-9.4793849053066676E-2</v>
+        <v>-1.3260055530051351</v>
       </c>
       <c r="O37">
         <f t="shared" si="12"/>
-        <v>0.80230697976220489</v>
+        <v>1.524733671656757</v>
       </c>
       <c r="P37">
         <f t="shared" si="13"/>
-        <v>0.85453912411344868</v>
+        <v>1.582271842492863</v>
       </c>
       <c r="Q37">
         <f t="shared" si="14"/>
-        <v>-0.11979929380834993</v>
+        <v>-1.3731679039385718</v>
       </c>
       <c r="R37">
         <f t="shared" si="15"/>
-        <v>0.47008594488092142</v>
+        <v>0.2021085060380515</v>
       </c>
       <c r="S37">
         <f t="shared" si="16"/>
-        <v>0.84320291245878931</v>
+        <v>1.5867894473314208</v>
       </c>
       <c r="T37">
         <f t="shared" si="17"/>
-        <v>0.69913935728025589</v>
+        <v>0.83016392121908344</v>
       </c>
       <c r="U37">
         <f t="shared" si="18"/>
-        <v>0.10583953833848513</v>
+        <v>1.8452839046086033E-2</v>
       </c>
       <c r="V37">
         <f t="shared" si="19"/>
-        <v>4.2299956741671314E-2</v>
+        <v>1.277378604002968E-2</v>
       </c>
       <c r="W37" s="3">
         <f t="shared" si="20"/>
-        <v>0.14813949508015645</v>
+        <v>3.1226625086115713E-2</v>
       </c>
       <c r="X37">
         <f t="shared" si="21"/>
-        <v>-8.151257175022244E-4</v>
+        <v>-9.5703843265527869E-4</v>
       </c>
       <c r="Y37">
         <f t="shared" si="22"/>
-        <v>-1.6302514350044488E-3</v>
+        <v>-1.9140768653105574E-3</v>
       </c>
       <c r="Z37">
         <f t="shared" si="23"/>
-        <v>-7.8895616814147356E-4</v>
+        <v>-9.5860298880829319E-4</v>
       </c>
       <c r="AA37">
         <f t="shared" si="24"/>
-        <v>-1.5779123362829471E-3</v>
+        <v>-1.9172059776165864E-3</v>
       </c>
       <c r="AB37">
         <f t="shared" si="25"/>
-        <v>5.8106656660444747E-2</v>
+        <v>1.5763177621075649E-2</v>
       </c>
       <c r="AC37">
         <f t="shared" si="26"/>
-        <v>5.8534385353958746E-2</v>
+        <v>1.5878033867323876E-2</v>
       </c>
       <c r="AD37">
         <f t="shared" si="27"/>
-        <v>-3.1018322409926032E-2</v>
+        <v>-1.1466671564750331E-2</v>
       </c>
       <c r="AE37">
         <f t="shared" si="28"/>
-        <v>-3.1246651267270619E-2</v>
+        <v>-1.1550221904951259E-2</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -6510,111 +6563,111 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>0.15356764466697173</v>
+        <v>0.19079079227142393</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>0.20713528933394354</v>
+        <v>0.28158158454284787</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>0.25324704420808375</v>
+        <v>0.29015356932050129</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>0.30649408841616743</v>
+        <v>0.38030713864100263</v>
       </c>
       <c r="I38">
         <f t="shared" si="6"/>
-        <v>2.8391911166742945E-2</v>
+        <v>3.7697698067855986E-2</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>0.50709750102309337</v>
+        <v>0.50942330857516749</v>
       </c>
       <c r="K38">
         <f t="shared" si="8"/>
-        <v>4.3311761052020933E-2</v>
+        <v>5.2538392330125333E-2</v>
       </c>
       <c r="L38">
         <f t="shared" si="9"/>
-        <v>0.51082624789491471</v>
+        <v>0.51313157764929962</v>
       </c>
       <c r="M38">
         <f t="shared" si="10"/>
-        <v>-0.25701423438028631</v>
+        <v>-1.52066624908276</v>
       </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>-0.21186261976098417</v>
+        <v>-1.4847858916783738</v>
       </c>
       <c r="O38">
         <f t="shared" si="12"/>
-        <v>0.86434362458205694</v>
+        <v>1.6394003873042604</v>
       </c>
       <c r="P38">
         <f t="shared" si="13"/>
-        <v>0.9170324266479899</v>
+        <v>1.6977740615423755</v>
       </c>
       <c r="Q38">
         <f t="shared" si="14"/>
-        <v>-0.23855626310329736</v>
+        <v>-1.5365533589146754</v>
       </c>
       <c r="R38">
         <f t="shared" si="15"/>
-        <v>0.44064216760903946</v>
+        <v>0.17703687368299159</v>
       </c>
       <c r="S38">
         <f t="shared" si="16"/>
-        <v>0.90675072575336513</v>
+        <v>1.7063302520712456</v>
       </c>
       <c r="T38">
         <f t="shared" si="17"/>
-        <v>0.71233480083030731</v>
+        <v>0.84635969500855857</v>
       </c>
       <c r="U38">
         <f t="shared" si="18"/>
-        <v>9.2726338261506017E-2</v>
+        <v>1.3950658584893843E-2</v>
       </c>
       <c r="V38">
         <f t="shared" si="19"/>
-        <v>3.8548981414972552E-2</v>
+        <v>1.0316268609017156E-2</v>
       </c>
       <c r="W38" s="3">
         <f t="shared" si="20"/>
-        <v>0.13127531967647857</v>
+        <v>2.4266927193910999E-2</v>
       </c>
       <c r="X38">
         <f t="shared" si="21"/>
-        <v>-9.5554850240514577E-4</v>
+        <v>-8.4505850909808713E-4</v>
       </c>
       <c r="Y38">
         <f t="shared" si="22"/>
-        <v>-1.9110970048102915E-3</v>
+        <v>-1.6901170181961743E-3</v>
       </c>
       <c r="Z38">
         <f t="shared" si="23"/>
-        <v>-9.3287002991001558E-4</v>
+        <v>-8.4748781241353668E-4</v>
       </c>
       <c r="AA38">
         <f t="shared" si="24"/>
-        <v>-1.8657400598200312E-3</v>
+        <v>-1.6949756248270734E-3</v>
       </c>
       <c r="AB38">
         <f t="shared" si="25"/>
-        <v>5.3824970661756809E-2</v>
+        <v>1.239753301565239E-2</v>
       </c>
       <c r="AC38">
         <f t="shared" si="26"/>
-        <v>5.4220751927836763E-2</v>
+        <v>1.2487778961418125E-2</v>
       </c>
       <c r="AD38">
         <f t="shared" si="27"/>
-        <v>-2.8852563756394407E-2</v>
+        <v>-9.5151417994458528E-3</v>
       </c>
       <c r="AE38">
         <f t="shared" si="28"/>
-        <v>-2.906472001161875E-2</v>
+        <v>-9.5844058191263751E-3</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -6632,111 +6685,111 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>0.15547874167178202</v>
+        <v>0.1992413773624048</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>0.21095748334356412</v>
+        <v>0.29848275472480962</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>0.25511278426790379</v>
+        <v>0.29862844744463668</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>0.31022556853580752</v>
+        <v>0.39725689488927335</v>
       </c>
       <c r="I39">
         <f t="shared" si="6"/>
-        <v>2.8869685417945518E-2</v>
+        <v>3.9810344340601204E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>0.50721692011102293</v>
+        <v>0.50995127183589206</v>
       </c>
       <c r="K39">
         <f t="shared" si="8"/>
-        <v>4.3778196066975944E-2</v>
+        <v>5.4657111861159173E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="9"/>
-        <v>0.51094280138822645</v>
+        <v>0.51366087725935361</v>
       </c>
       <c r="M39">
         <f t="shared" si="10"/>
-        <v>-0.36466417570379994</v>
+        <v>-1.6446415792392839</v>
       </c>
       <c r="N39">
         <f t="shared" si="11"/>
-        <v>-0.32030412361665772</v>
+        <v>-1.6096636812925551</v>
       </c>
       <c r="O39">
         <f t="shared" si="12"/>
-        <v>0.92204875209484571</v>
+        <v>1.734551805298719</v>
       </c>
       <c r="P39">
         <f t="shared" si="13"/>
-        <v>0.9751618666712274</v>
+        <v>1.7936181197336394</v>
       </c>
       <c r="Q39">
         <f t="shared" si="14"/>
-        <v>-0.3486209262922022</v>
+        <v>-1.6655083236725172</v>
       </c>
       <c r="R39">
         <f t="shared" si="15"/>
-        <v>0.41371688276347235</v>
+        <v>0.15902395509329631</v>
       </c>
       <c r="S39">
         <f t="shared" si="16"/>
-        <v>0.96593066419372886</v>
+        <v>1.8058483560279779</v>
       </c>
       <c r="T39">
         <f t="shared" si="17"/>
-        <v>0.72430765024350996</v>
+        <v>0.85885936154885756</v>
       </c>
       <c r="U39">
         <f t="shared" si="18"/>
-        <v>8.1493660714127641E-2</v>
+        <v>1.1104069595824396E-2</v>
       </c>
       <c r="V39">
         <f t="shared" si="19"/>
-        <v>3.5296212359562512E-2</v>
+        <v>8.5989335266866279E-3</v>
       </c>
       <c r="W39" s="3">
         <f t="shared" si="20"/>
-        <v>0.11678987307369015</v>
+        <v>1.9703003122511026E-2</v>
       </c>
       <c r="X39">
         <f t="shared" si="21"/>
-        <v>-1.0576370845181951E-3</v>
+        <v>-7.5409190844093665E-4</v>
       </c>
       <c r="Y39">
         <f t="shared" si="22"/>
-        <v>-2.1152741690363902E-3</v>
+        <v>-1.5081838168818733E-3</v>
       </c>
       <c r="Z39">
         <f t="shared" si="23"/>
-        <v>-1.0382851925057402E-3</v>
+        <v>-7.5684868387590389E-4</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
-        <v>-2.0765703850114804E-3</v>
+        <v>-1.5136973677518078E-3</v>
       </c>
       <c r="AB39">
         <f t="shared" si="25"/>
-        <v>4.9668526479247792E-2</v>
+        <v>1.0163210960029159E-2</v>
       </c>
       <c r="AC39">
         <f t="shared" si="26"/>
-        <v>5.0033378331656046E-2</v>
+        <v>1.023714253855308E-2</v>
       </c>
       <c r="AD39">
         <f t="shared" si="27"/>
-        <v>-2.6910425797589468E-2</v>
+        <v>-8.1066253865356413E-3</v>
       </c>
       <c r="AE39">
         <f t="shared" si="28"/>
-        <v>-2.7108102664557682E-2</v>
+        <v>-8.165596474874335E-3</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -6754,111 +6807,111 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>0.15759401584081842</v>
+        <v>0.20678229644681417</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>0.21518803168163692</v>
+        <v>0.31356459289362837</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>0.25718935465291526</v>
+        <v>0.30619693428339573</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>0.31437870930583045</v>
+        <v>0.41239386856679144</v>
       </c>
       <c r="I40">
         <f t="shared" si="6"/>
-        <v>2.9398503960204617E-2</v>
+        <v>4.1695574111703548E-2</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>0.50734909669611217</v>
+        <v>0.51042238361069736</v>
       </c>
       <c r="K40">
         <f t="shared" si="8"/>
-        <v>4.4297338663228811E-2</v>
+        <v>5.6549233570848935E-2</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
-        <v>0.51107252413275817</v>
+        <v>0.51413354222136032</v>
       </c>
       <c r="M40">
         <f t="shared" si="10"/>
-        <v>-0.46400122866229554</v>
+        <v>-1.7462736888395756</v>
       </c>
       <c r="N40">
         <f t="shared" si="11"/>
-        <v>-0.42037088027996983</v>
+        <v>-1.7120351066780859</v>
       </c>
       <c r="O40">
         <f t="shared" si="12"/>
-        <v>0.97586960369002462</v>
+        <v>1.8156180591640754</v>
       </c>
       <c r="P40">
         <f t="shared" si="13"/>
-        <v>1.0293780720003427</v>
+        <v>1.8752740844823828</v>
       </c>
       <c r="Q40">
         <f t="shared" si="14"/>
-        <v>-0.45025061108429554</v>
+        <v>-1.7715518524978702</v>
       </c>
       <c r="R40">
         <f t="shared" si="15"/>
-        <v>0.38930118267243879</v>
+        <v>0.14534944707013789</v>
       </c>
       <c r="S40">
         <f t="shared" si="16"/>
-        <v>1.0211934114694543</v>
+        <v>1.8908734051760014</v>
       </c>
       <c r="T40">
         <f t="shared" si="17"/>
-        <v>0.73520499635755299</v>
+        <v>0.86885508358984243</v>
       </c>
       <c r="U40">
         <f t="shared" si="18"/>
-        <v>7.1934693588355386E-2</v>
+        <v>9.1597364110960269E-3</v>
       </c>
       <c r="V40">
         <f t="shared" si="19"/>
-        <v>3.2460246940577288E-2</v>
+        <v>7.3380453860120319E-3</v>
       </c>
       <c r="W40" s="3">
         <f t="shared" si="20"/>
-        <v>0.10439494052893267</v>
+        <v>1.649778179710806E-2</v>
       </c>
       <c r="X40">
         <f t="shared" si="21"/>
-        <v>-1.1278631577560489E-3</v>
+        <v>-6.8000104823436145E-4</v>
       </c>
       <c r="Y40">
         <f t="shared" si="22"/>
-        <v>-2.2557263155120978E-3</v>
+        <v>-1.3600020964687229E-3</v>
       </c>
       <c r="Z40">
         <f t="shared" si="23"/>
-        <v>-1.1115580282742628E-3</v>
+        <v>-6.8284832814351768E-4</v>
       </c>
       <c r="AA40">
         <f t="shared" si="24"/>
-        <v>-2.2231160565485257E-3</v>
+        <v>-1.3656966562870354E-3</v>
       </c>
       <c r="AB40">
         <f t="shared" si="25"/>
-        <v>4.5751347565509776E-2</v>
+        <v>8.5819930631329637E-3</v>
       </c>
       <c r="AC40">
         <f t="shared" si="26"/>
-        <v>4.6087116021388159E-2</v>
+        <v>8.6443906743576063E-3</v>
       </c>
       <c r="AD40">
         <f t="shared" si="27"/>
-        <v>-2.5166106783055527E-2</v>
+        <v>-7.0458551886347512E-3</v>
       </c>
       <c r="AE40">
         <f t="shared" si="28"/>
-        <v>-2.5350800464545846E-2</v>
+        <v>-7.0970839101649761E-3</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -6876,111 +6929,111 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>0.15984974215633052</v>
+        <v>0.21358230692915778</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>0.21969948431266112</v>
+        <v>0.32716461385831558</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>0.25941247070946377</v>
+        <v>0.31302541756483093</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>0.31882494141892748</v>
+        <v>0.4260508351296618</v>
       </c>
       <c r="I41">
         <f t="shared" si="6"/>
-        <v>2.9962435539082639E-2</v>
+        <v>4.3395576732289443E-2</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>0.50749004854543112</v>
+        <v>0.51084719197212625</v>
       </c>
       <c r="K41">
         <f t="shared" si="8"/>
-        <v>4.4853117677365939E-2</v>
+        <v>5.8256354391207729E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
-        <v>0.51121139988914677</v>
+        <v>0.51455997102479811</v>
       </c>
       <c r="M41">
         <f t="shared" si="10"/>
-        <v>-0.55550392379331504</v>
+        <v>-1.8320936194709052</v>
       </c>
       <c r="N41">
         <f t="shared" si="11"/>
-        <v>-0.51254511232274613</v>
+        <v>-1.7984790134216619</v>
       </c>
       <c r="O41">
         <f t="shared" si="12"/>
-        <v>1.0262018172561356</v>
+        <v>1.8860766110504228</v>
       </c>
       <c r="P41">
         <f t="shared" si="13"/>
-        <v>1.0800796729294344</v>
+        <v>1.9462449235840324</v>
       </c>
       <c r="Q41">
         <f t="shared" si="14"/>
-        <v>-0.54393161762989783</v>
+        <v>-1.861345189971719</v>
       </c>
       <c r="R41">
         <f t="shared" si="15"/>
-        <v>0.367273462707086</v>
+        <v>0.13454633614412534</v>
       </c>
       <c r="S41">
         <f t="shared" si="16"/>
-        <v>1.072936251646794</v>
+        <v>1.9649566720859726</v>
       </c>
       <c r="T41">
         <f t="shared" si="17"/>
-        <v>0.74515490854951072</v>
+        <v>0.87706837765209944</v>
       </c>
       <c r="U41">
         <f t="shared" si="18"/>
-        <v>6.3822163577355775E-2</v>
+        <v>7.7558949234627318E-3</v>
       </c>
       <c r="V41">
         <f t="shared" si="19"/>
-        <v>2.9974559403699228E-2</v>
+        <v>6.3767756630644153E-3</v>
       </c>
       <c r="W41" s="3">
         <f t="shared" si="20"/>
-        <v>9.3796722981055E-2</v>
+        <v>1.4132670586527146E-2</v>
       </c>
       <c r="X41">
         <f t="shared" si="21"/>
-        <v>-1.1726689939404802E-3</v>
+        <v>-6.1890183425480677E-4</v>
       </c>
       <c r="Y41">
         <f t="shared" si="22"/>
-        <v>-2.3453379878809605E-3</v>
+        <v>-1.2378036685096135E-3</v>
       </c>
       <c r="Z41">
         <f t="shared" si="23"/>
-        <v>-1.1590799262599296E-3</v>
+        <v>-6.2172963401853614E-4</v>
       </c>
       <c r="AA41">
         <f t="shared" si="24"/>
-        <v>-2.3181598525198592E-3</v>
+        <v>-1.2434592680370723E-3</v>
       </c>
       <c r="AB41">
         <f t="shared" si="25"/>
-        <v>4.213411623127044E-2</v>
+        <v>7.4086258630031779E-3</v>
       </c>
       <c r="AC41">
         <f t="shared" si="26"/>
-        <v>4.2443079629671879E-2</v>
+        <v>7.4624709097128447E-3</v>
       </c>
       <c r="AD41">
         <f t="shared" si="27"/>
-        <v>-2.3596183893724823E-2</v>
+        <v>-6.2201898999600328E-3</v>
       </c>
       <c r="AE41">
         <f t="shared" si="28"/>
-        <v>-2.3769211307545359E-2</v>
+        <v>-6.2653975298092987E-3</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -6998,111 +7051,111 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>0.16219508014421147</v>
+        <v>0.21977132527170584</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>0.22439016028842304</v>
+        <v>0.33954265054341171</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>0.26173063056198365</v>
+        <v>0.3192427139050163</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>0.32346126112396717</v>
+        <v>0.43848542781003252</v>
       </c>
       <c r="I42">
         <f t="shared" si="6"/>
-        <v>3.0548770036052879E-2</v>
+        <v>4.4942831317926465E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
-        <v>0.50763659862802479</v>
+        <v>0.5112338170001246</v>
       </c>
       <c r="K42">
         <f t="shared" si="8"/>
-        <v>4.5432657640495901E-2</v>
+        <v>5.981067847625407E-2</v>
       </c>
       <c r="L42">
         <f t="shared" si="9"/>
-        <v>0.51135621108941387</v>
+        <v>0.51494821367616317</v>
       </c>
       <c r="M42">
         <f t="shared" si="10"/>
-        <v>-0.63977215625585593</v>
+        <v>-1.9061798781009369</v>
       </c>
       <c r="N42">
         <f t="shared" si="11"/>
-        <v>-0.59743127158208986</v>
+        <v>-1.8731037225187903</v>
       </c>
       <c r="O42">
         <f t="shared" si="12"/>
-        <v>1.0733941850435853</v>
+        <v>1.9482785100500231</v>
       </c>
       <c r="P42">
         <f t="shared" si="13"/>
-        <v>1.1276180955445252</v>
+        <v>2.0088988988821255</v>
       </c>
       <c r="Q42">
         <f t="shared" si="14"/>
-        <v>-0.63027195272118797</v>
+        <v>-1.939055030911597</v>
       </c>
       <c r="R42">
         <f t="shared" si="15"/>
-        <v>0.34744887591089058</v>
+        <v>0.12575170799591295</v>
       </c>
       <c r="S42">
         <f t="shared" si="16"/>
-        <v>1.1215086899761353</v>
+        <v>2.0305047587075506</v>
       </c>
       <c r="T42">
         <f t="shared" si="17"/>
-        <v>0.75426845570175727</v>
+        <v>0.88396286233896837</v>
       </c>
       <c r="U42">
         <f t="shared" si="18"/>
-        <v>5.6935871926761812E-2</v>
+        <v>6.6992289519855501E-3</v>
       </c>
       <c r="V42">
         <f t="shared" si="19"/>
-        <v>2.7784680488617184E-2</v>
+        <v>5.6219372816722858E-3</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="20"/>
-        <v>8.4720552415379E-2</v>
+        <v>1.2321166233657836E-2</v>
       </c>
       <c r="X42">
         <f t="shared" si="21"/>
-        <v>-1.1978136922222841E-3</v>
+        <v>-5.6780829731561857E-4</v>
       </c>
       <c r="Y42">
         <f t="shared" si="22"/>
-        <v>-2.3956273844445682E-3</v>
+        <v>-1.1356165946312371E-3</v>
       </c>
       <c r="Z42">
         <f t="shared" si="23"/>
-        <v>-1.1866019913383619E-3</v>
+        <v>-5.7056496385535628E-4</v>
       </c>
       <c r="AA42">
         <f t="shared" si="24"/>
-        <v>-2.3732039826767238E-3</v>
+        <v>-1.1411299277107126E-3</v>
       </c>
       <c r="AB42">
         <f t="shared" si="25"/>
-        <v>3.8838850196351117E-2</v>
+        <v>6.5057244797425149E-3</v>
       </c>
       <c r="AC42">
         <f t="shared" si="26"/>
-        <v>3.9123434624595284E-2</v>
+        <v>6.5529921693577593E-3</v>
       </c>
       <c r="AD42">
         <f t="shared" si="27"/>
-        <v>-2.2179792672884283E-2</v>
+        <v>-5.5604328008367777E-3</v>
       </c>
       <c r="AE42">
         <f t="shared" si="28"/>
-        <v>-2.2342310965379461E-2</v>
+        <v>-5.600832423134766E-3</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -7120,111 +7173,111 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>0.16459070752865604</v>
+        <v>0.22544940824486204</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>0.22918141505731218</v>
+        <v>0.3508988164897241</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>0.26410383454466035</v>
+        <v>0.32494836354356987</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>0.32820766908932064</v>
+        <v>0.44989672708713963</v>
       </c>
       <c r="I43">
         <f t="shared" si="6"/>
-        <v>3.1147676882164022E-2</v>
+        <v>4.6362352061215514E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
-        <v>0.50778628972361628</v>
+        <v>0.5115885123285957</v>
       </c>
       <c r="K43">
         <f t="shared" si="8"/>
-        <v>4.6025958636165085E-2</v>
+        <v>6.1237090885892458E-2</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
-        <v>0.51150445882095008</v>
+        <v>0.51530449039096138</v>
       </c>
       <c r="M43">
         <f t="shared" si="10"/>
-        <v>-0.7174498566485582</v>
+        <v>-1.9712371228983621</v>
       </c>
       <c r="N43">
         <f t="shared" si="11"/>
-        <v>-0.67567814083128042</v>
+        <v>-1.9386336442123679</v>
       </c>
       <c r="O43">
         <f t="shared" si="12"/>
-        <v>1.1177537703893539</v>
+        <v>2.0038828380583906</v>
       </c>
       <c r="P43">
         <f t="shared" si="13"/>
-        <v>1.172302717475284</v>
+        <v>2.0649072231134733</v>
       </c>
       <c r="Q43">
         <f t="shared" si="14"/>
-        <v>-0.70992358253336152</v>
+        <v>-2.0074488892361009</v>
       </c>
       <c r="R43">
         <f t="shared" si="15"/>
-        <v>0.32961572587766874</v>
+        <v>0.11842305215270922</v>
       </c>
       <c r="S43">
         <f t="shared" si="16"/>
-        <v>1.1672181069671173</v>
+        <v>2.0892194043141998</v>
       </c>
       <c r="T43">
         <f t="shared" si="17"/>
-        <v>0.7626418074396053</v>
+        <v>0.88985093785887115</v>
       </c>
       <c r="U43">
         <f t="shared" si="18"/>
-        <v>5.1077106114154544E-2</v>
+        <v>5.8777791190545523E-3</v>
       </c>
       <c r="V43">
         <f t="shared" si="19"/>
-        <v>2.5845873862164755E-2</v>
+        <v>5.0149173238738434E-3</v>
       </c>
       <c r="W43" s="3">
         <f t="shared" si="20"/>
-        <v>7.6922979976319306E-2</v>
+        <v>1.0892696442928396E-2</v>
       </c>
       <c r="X43">
         <f t="shared" si="21"/>
-        <v>-1.2081141806337627E-3</v>
+        <v>-5.2451227096979509E-4</v>
       </c>
       <c r="Y43">
         <f t="shared" si="22"/>
-        <v>-2.4162283612675253E-3</v>
+        <v>-1.0490245419395902E-3</v>
       </c>
       <c r="Z43">
         <f t="shared" si="23"/>
-        <v>-1.198958288641E-3</v>
+        <v>-5.2717457886803049E-4</v>
       </c>
       <c r="AA43">
         <f t="shared" si="24"/>
-        <v>-2.3979165772819999E-3</v>
+        <v>-1.054349157736061E-3</v>
       </c>
       <c r="AB43">
         <f t="shared" si="25"/>
-        <v>3.5862523998744872E-2</v>
+        <v>5.7908042976164802E-3</v>
       </c>
       <c r="AC43">
         <f t="shared" si="26"/>
-        <v>3.6125120550056053E-2</v>
+        <v>5.8328664260944045E-3</v>
       </c>
       <c r="AD43">
         <f t="shared" si="27"/>
-        <v>-2.0898562497583709E-2</v>
+        <v>-5.021873130194426E-3</v>
       </c>
       <c r="AE43">
         <f t="shared" si="28"/>
-        <v>-2.1051588270098183E-2</v>
+        <v>-5.0583500446170077E-3</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -7242,111 +7295,111 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0.16700693588992357</v>
+        <v>0.23069453095456</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>0.23401387177984723</v>
+        <v>0.36138906190912001</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>0.26650175112194235</v>
+        <v>0.33022010933225016</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>0.33300350224388464</v>
+        <v>0.46044021866450024</v>
       </c>
       <c r="I44">
         <f t="shared" si="6"/>
-        <v>3.1751733972480906E-2</v>
+        <v>4.7673632738640004E-2</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
-        <v>0.50793726665975425</v>
+        <v>0.51191615137564372</v>
       </c>
       <c r="K44">
         <f t="shared" si="8"/>
-        <v>4.6625437780485585E-2</v>
+        <v>6.2555027333062535E-2</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
-        <v>0.5116542482268871</v>
+        <v>0.51563365911879899</v>
       </c>
       <c r="M44">
         <f t="shared" si="10"/>
-        <v>-0.78917490464604789</v>
+        <v>-2.0291451658745268</v>
       </c>
       <c r="N44">
         <f t="shared" si="11"/>
-        <v>-0.74792838193139255</v>
+        <v>-1.9969623084733119</v>
       </c>
       <c r="O44">
         <f t="shared" si="12"/>
-        <v>1.1595508953845213</v>
+        <v>2.0541015693603351</v>
       </c>
       <c r="P44">
         <f t="shared" si="13"/>
-        <v>1.2144058940154805</v>
+        <v>2.1154907235596432</v>
       </c>
       <c r="Q44">
         <f t="shared" si="14"/>
-        <v>-0.78353207796704449</v>
+        <v>-2.0684531661373979</v>
       </c>
       <c r="R44">
         <f t="shared" si="15"/>
-        <v>0.31355914210655822</v>
+        <v>0.11220102930356736</v>
       </c>
       <c r="S44">
         <f t="shared" si="16"/>
-        <v>1.2103350470992758</v>
+        <v>2.142345992542547</v>
       </c>
       <c r="T44">
         <f t="shared" si="17"/>
-        <v>0.77035822640157203</v>
+        <v>0.89495136969319189</v>
       </c>
       <c r="U44">
         <f t="shared" si="18"/>
-        <v>4.6074076378234803E-2</v>
+        <v>5.2225251953543174E-3</v>
       </c>
       <c r="V44">
         <f t="shared" si="19"/>
-        <v>2.4121254354731541E-2</v>
+        <v>4.5171210616001397E-3</v>
       </c>
       <c r="W44" s="3">
         <f t="shared" si="20"/>
-        <v>7.0195330732966341E-2</v>
+        <v>9.7396462569544571E-3</v>
       </c>
       <c r="X44">
         <f t="shared" si="21"/>
-        <v>-1.2074291102721847E-3</v>
+        <v>-4.8738222207646281E-4</v>
       </c>
       <c r="Y44">
         <f t="shared" si="22"/>
-        <v>-2.4148582205443694E-3</v>
+        <v>-9.7476444415292563E-4</v>
       </c>
       <c r="Z44">
         <f t="shared" si="23"/>
-        <v>-1.2000371719183946E-3</v>
+        <v>-4.8994134770558506E-4</v>
       </c>
       <c r="AA44">
         <f t="shared" si="24"/>
-        <v>-2.4000743438367892E-3</v>
+        <v>-9.7988269541117012E-4</v>
       </c>
       <c r="AB44">
         <f t="shared" si="25"/>
-        <v>3.3187610721778754E-2</v>
+        <v>5.2115340557530873E-3</v>
       </c>
       <c r="AC44">
         <f t="shared" si="26"/>
-        <v>3.3430470904338788E-2</v>
+        <v>5.2493799376497948E-3</v>
       </c>
       <c r="AD44">
         <f t="shared" si="27"/>
-        <v>-1.9736431725103754E-2</v>
+        <v>-4.5744040886984355E-3</v>
       </c>
       <c r="AE44">
         <f t="shared" si="28"/>
-        <v>-1.9880858916685125E-2</v>
+        <v>-4.6076231668118334E-3</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -7364,111 +7417,111 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>0.16942179411046795</v>
+        <v>0.23556835317532462</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>0.23884358822093596</v>
+        <v>0.37113670635064927</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>0.26890182546577912</v>
+        <v>0.33511952280930601</v>
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>0.33780365093155823</v>
+        <v>0.47023904561861196</v>
       </c>
       <c r="I45">
         <f t="shared" si="6"/>
-        <v>3.2355448527616994E-2</v>
+        <v>4.8892088293831154E-2</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
-        <v>0.50808815653677575</v>
+        <v>0.51222058779238622</v>
       </c>
       <c r="K45">
         <f t="shared" si="8"/>
-        <v>4.7225456366444776E-2</v>
+        <v>6.37798807023265E-2</v>
       </c>
       <c r="L45">
         <f t="shared" si="9"/>
-        <v>0.51180417032508341</v>
+        <v>0.51593956719705314</v>
       </c>
       <c r="M45">
         <f t="shared" si="10"/>
-        <v>-0.85555012608960546</v>
+        <v>-2.0812605064320575</v>
       </c>
       <c r="N45">
         <f t="shared" si="11"/>
-        <v>-0.81478932374007007</v>
+        <v>-2.0494561078498097</v>
       </c>
       <c r="O45">
         <f t="shared" si="12"/>
-        <v>1.1990237588347288</v>
+        <v>2.0998456102473195</v>
       </c>
       <c r="P45">
         <f t="shared" si="13"/>
-        <v>1.2541676118488507</v>
+        <v>2.1615669552277614</v>
       </c>
       <c r="Q45">
         <f t="shared" si="14"/>
-        <v>-0.85170746021619603</v>
+        <v>-2.1234599772270961</v>
       </c>
       <c r="R45">
         <f t="shared" si="15"/>
-        <v>0.29907480148612681</v>
+        <v>0.10683745891908004</v>
       </c>
       <c r="S45">
         <f t="shared" si="16"/>
-        <v>1.2510979853010253</v>
+        <v>2.190822072101807</v>
       </c>
       <c r="T45">
         <f t="shared" si="17"/>
-        <v>0.77748986981510371</v>
+        <v>0.89942229700375564</v>
       </c>
       <c r="U45">
         <f t="shared" si="18"/>
-        <v>4.1782120427121809E-2</v>
+        <v>4.6887467249522585E-3</v>
       </c>
       <c r="V45">
         <f t="shared" si="19"/>
-        <v>2.2580277715600783E-2</v>
+        <v>4.1021601400379262E-3</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" si="20"/>
-        <v>6.4362398142722599E-2</v>
+        <v>8.7909068649901848E-3</v>
       </c>
       <c r="X45">
         <f t="shared" si="21"/>
-        <v>-1.1987623549903708E-3</v>
+        <v>-4.551996818414726E-4</v>
       </c>
       <c r="Y45">
         <f t="shared" si="22"/>
-        <v>-2.3975247099807416E-3</v>
+        <v>-9.1039936368294519E-4</v>
       </c>
       <c r="Z45">
         <f t="shared" si="23"/>
-        <v>-1.192876802140828E-3</v>
+        <v>-4.5765423989614466E-4</v>
       </c>
       <c r="AA45">
         <f t="shared" si="24"/>
-        <v>-2.385753604281656E-3</v>
+        <v>-9.1530847979228933E-4</v>
       </c>
       <c r="AB45">
         <f t="shared" si="25"/>
-        <v>3.0789370111832196E-2</v>
+        <v>4.7331957459063132E-3</v>
       </c>
       <c r="AC45">
         <f t="shared" si="26"/>
-        <v>3.1014554899938148E-2</v>
+        <v>4.7675611305019383E-3</v>
       </c>
       <c r="AD45">
         <f t="shared" si="27"/>
-        <v>-1.8679413498947826E-2</v>
+        <v>-4.1970456777338759E-3</v>
       </c>
       <c r="AE45">
         <f t="shared" si="28"/>
-        <v>-1.8816029472429129E-2</v>
+        <v>-4.2275183428471834E-3</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -7486,111 +7539,111 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>0.17181931882044871</v>
+        <v>0.24012034999373935</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>0.24363863764089744</v>
+        <v>0.38024069998747873</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>0.27128757907006079</v>
+        <v>0.33969606520826745</v>
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>0.34257515814012152</v>
+        <v>0.47939213041653483</v>
       </c>
       <c r="I46">
         <f t="shared" si="6"/>
-        <v>3.2954829705112182E-2</v>
+        <v>5.0030087498434843E-2</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
-        <v>0.50823796188994164</v>
+        <v>0.51250491365677842</v>
       </c>
       <c r="K46">
         <f t="shared" si="8"/>
-        <v>4.7821894767515194E-2</v>
+        <v>6.4924016302066859E-2</v>
       </c>
       <c r="L46">
         <f t="shared" si="9"/>
-        <v>0.51195319576493092</v>
+        <v>0.51622530516450127</v>
       </c>
       <c r="M46">
         <f t="shared" si="10"/>
-        <v>-0.91712886631326984</v>
+        <v>-2.1285924638911204</v>
       </c>
       <c r="N46">
         <f t="shared" si="11"/>
-        <v>-0.87681843353994637</v>
+        <v>-2.0971317191548291</v>
       </c>
       <c r="O46">
         <f t="shared" si="12"/>
-        <v>1.2363825858326245</v>
+        <v>2.1418160670246582</v>
       </c>
       <c r="P46">
         <f t="shared" si="13"/>
-        <v>1.2917996707937089</v>
+        <v>2.2038421386562335</v>
       </c>
       <c r="Q46">
         <f t="shared" si="14"/>
-        <v>-0.91500970496186529</v>
+        <v>-2.173506558607845</v>
       </c>
       <c r="R46">
         <f t="shared" si="15"/>
-        <v>0.28597579152711045</v>
+        <v>0.10215496526715449</v>
       </c>
       <c r="S46">
         <f t="shared" si="16"/>
-        <v>1.289717535290714</v>
+        <v>2.2353703390613742</v>
       </c>
       <c r="T46">
         <f t="shared" si="17"/>
-        <v>0.78409937525759899</v>
+        <v>0.90338111844129199</v>
       </c>
       <c r="U46">
         <f t="shared" si="18"/>
-        <v>3.8081318754507563E-2</v>
+        <v>4.2462688116952259E-3</v>
       </c>
       <c r="V46">
         <f t="shared" si="19"/>
-        <v>2.119753363465552E-2</v>
+        <v>3.7514153212407429E-3</v>
       </c>
       <c r="W46" s="3">
         <f t="shared" si="20"/>
-        <v>5.9278852389163084E-2</v>
+        <v>7.9976841329359692E-3</v>
       </c>
       <c r="X46">
         <f t="shared" si="21"/>
-        <v>-1.1844079628182799E-3</v>
+        <v>-4.2704163946128836E-4</v>
       </c>
       <c r="Y46">
         <f t="shared" si="22"/>
-        <v>-2.3688159256365598E-3</v>
+        <v>-8.5408327892257671E-4</v>
       </c>
       <c r="Z46">
         <f t="shared" si="23"/>
-        <v>-1.1798054896329099E-3</v>
+        <v>-4.2939407407042426E-4</v>
       </c>
       <c r="AA46">
         <f t="shared" si="24"/>
-        <v>-2.3596109792658197E-3</v>
+        <v>-8.5878814814084852E-4</v>
       </c>
       <c r="AB46">
         <f t="shared" si="25"/>
-        <v>2.864048021681679E-2</v>
+        <v>4.331892184794758E-3</v>
       </c>
       <c r="AC46">
         <f t="shared" si="26"/>
-        <v>2.8849842937188553E-2</v>
+        <v>4.3633383904158702E-3</v>
       </c>
       <c r="AD46">
         <f t="shared" si="27"/>
-        <v>-1.7715351423743579E-2</v>
+        <v>-3.8747494054023218E-3</v>
       </c>
       <c r="AE46">
         <f t="shared" si="28"/>
-        <v>-1.7844851143662344E-2</v>
+        <v>-3.9028771060316803E-3</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -7608,111 +7661,111 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>0.17418813474608527</v>
+        <v>0.24439076638835222</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>0.24837626949217056</v>
+        <v>0.38878153277670446</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>0.27364719004932664</v>
+        <v>0.34399000594897167</v>
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>0.34729438009865315</v>
+        <v>0.48798001189794332</v>
       </c>
       <c r="I47">
         <f t="shared" si="6"/>
-        <v>3.3547033686521323E-2</v>
+        <v>5.109769159708806E-2</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
-        <v>0.5083859719695526</v>
+        <v>0.51277164415086363</v>
       </c>
       <c r="K47">
         <f t="shared" si="8"/>
-        <v>4.8411797512331649E-2</v>
+        <v>6.5997501487242913E-2</v>
       </c>
       <c r="L47">
         <f t="shared" si="9"/>
-        <v>0.51210058612292975</v>
+        <v>0.51649338915938825</v>
       </c>
       <c r="M47">
         <f t="shared" si="10"/>
-        <v>-0.97440982674690346</v>
+        <v>-2.1719113857390679</v>
       </c>
       <c r="N47">
         <f t="shared" si="11"/>
-        <v>-0.9345181194143235</v>
+        <v>-2.1407651030589876</v>
       </c>
       <c r="O47">
         <f t="shared" si="12"/>
-        <v>1.2718132886801117</v>
+        <v>2.1805635610786815</v>
       </c>
       <c r="P47">
         <f t="shared" si="13"/>
-        <v>1.3274893730810335</v>
+        <v>2.2428709097165505</v>
       </c>
       <c r="Q47">
         <f t="shared" si="14"/>
-        <v>-0.97394356356198097</v>
+        <v>-2.219385595688486</v>
       </c>
       <c r="R47">
         <f t="shared" si="15"/>
-        <v>0.27409516456190375</v>
+        <v>9.8023113183503444E-2</v>
       </c>
       <c r="S47">
         <f t="shared" si="16"/>
-        <v>1.3263801209561894</v>
+        <v>2.2765591599962791</v>
       </c>
       <c r="T47">
         <f t="shared" si="17"/>
-        <v>0.79024123395001544</v>
+        <v>0.9069169825082013</v>
       </c>
       <c r="U47">
         <f t="shared" si="18"/>
-        <v>3.4873127972489509E-2</v>
+        <v>3.8740342272579292E-3</v>
       </c>
       <c r="V47">
         <f t="shared" si="19"/>
-        <v>1.9951782306906231E-2</v>
+        <v>3.4513938977712641E-3</v>
       </c>
       <c r="W47" s="3">
         <f t="shared" si="20"/>
-        <v>5.482491027939574E-2</v>
+        <v>7.3254281250291937E-3</v>
       </c>
       <c r="X47">
         <f t="shared" si="21"/>
-        <v>-1.1660951610639987E-3</v>
+        <v>-4.0219847410239914E-4</v>
       </c>
       <c r="Y47">
         <f t="shared" si="22"/>
-        <v>-2.3321903221279975E-3</v>
+        <v>-8.0439694820479829E-4</v>
       </c>
       <c r="Z47">
         <f t="shared" si="23"/>
-        <v>-1.1625843145117456E-3</v>
+        <v>-4.044531296101337E-4</v>
       </c>
       <c r="AA47">
         <f t="shared" si="24"/>
-        <v>-2.3251686290234911E-3</v>
+        <v>-8.089062592202674E-4</v>
       </c>
       <c r="AB47">
         <f t="shared" si="25"/>
-        <v>2.6713763168624394E-2</v>
+        <v>3.990659062585133E-3</v>
       </c>
       <c r="AC47">
         <f t="shared" si="26"/>
-        <v>2.6908952116052865E-2</v>
+        <v>4.0196236428545716E-3</v>
       </c>
       <c r="AD47">
         <f t="shared" si="27"/>
-        <v>-1.6833685595717771E-2</v>
+        <v>-3.5964518492612786E-3</v>
       </c>
       <c r="AE47">
         <f t="shared" si="28"/>
-        <v>-1.6956683967457066E-2</v>
+        <v>-3.622555236355845E-3</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -7730,111 +7783,111 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>0.17652032506821327</v>
+        <v>0.24841275112937622</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>0.25304065013642657</v>
+        <v>0.39682550225875246</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>0.27597235867835013</v>
+        <v>0.34803453724507299</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>0.35194471735670013</v>
+        <v>0.49606907449014598</v>
       </c>
       <c r="I48">
         <f t="shared" si="6"/>
-        <v>3.4130081267053324E-2</v>
+        <v>5.210318778234406E-2</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
-        <v>0.50853169214552563</v>
+        <v>0.51302285093865185</v>
       </c>
       <c r="K48">
         <f t="shared" si="8"/>
-        <v>4.8993089669587521E-2</v>
+        <v>6.7008634311268245E-2</v>
       </c>
       <c r="L48">
         <f t="shared" si="9"/>
-        <v>0.51224582302133126</v>
+        <v>0.51674589307250285</v>
       </c>
       <c r="M48">
         <f t="shared" si="10"/>
-        <v>-1.0278373530841522</v>
+        <v>-2.2118179763649191</v>
       </c>
       <c r="N48">
         <f t="shared" si="11"/>
-        <v>-0.98833602364642925</v>
+        <v>-2.1809613394875331</v>
       </c>
       <c r="O48">
         <f t="shared" si="12"/>
-        <v>1.3054806598715472</v>
+        <v>2.2165280795712943</v>
       </c>
       <c r="P48">
         <f t="shared" si="13"/>
-        <v>1.3614027410159477</v>
+        <v>2.2790964620801089</v>
       </c>
       <c r="Q48">
         <f t="shared" si="14"/>
-        <v>-1.0289588682686572</v>
+        <v>-2.2617159791221777</v>
       </c>
       <c r="R48">
         <f t="shared" si="15"/>
-        <v>0.26328599905022759</v>
+        <v>9.4343648579760658E-2</v>
       </c>
       <c r="S48">
         <f t="shared" si="16"/>
-        <v>1.3612511565629457</v>
+        <v>2.314843291263208</v>
       </c>
       <c r="T48">
         <f t="shared" si="17"/>
-        <v>0.79596296819413181</v>
+        <v>0.91009891583680713</v>
       </c>
       <c r="U48">
         <f t="shared" si="18"/>
-        <v>3.2076898657435945E-2</v>
+        <v>3.5569255278730815E-3</v>
       </c>
       <c r="V48">
         <f t="shared" si="19"/>
-        <v>1.882518485601575E-2</v>
+        <v>3.1920916252268145E-3</v>
       </c>
       <c r="W48" s="3">
         <f t="shared" si="20"/>
-        <v>5.0902083513451699E-2</v>
+        <v>6.749017153099896E-3</v>
       </c>
       <c r="X48">
         <f t="shared" si="21"/>
-        <v>-1.1451154650781125E-3</v>
+        <v>-3.8011677871723827E-4</v>
       </c>
       <c r="Y48">
         <f t="shared" si="22"/>
-        <v>-2.2902309301562249E-3</v>
+        <v>-7.6023355743447653E-4</v>
       </c>
       <c r="Z48">
         <f t="shared" si="23"/>
-        <v>-1.1425332074774717E-3</v>
+        <v>-3.8227884780193158E-4</v>
       </c>
       <c r="AA48">
         <f t="shared" si="24"/>
-        <v>-2.2850664149549433E-3</v>
+        <v>-7.6455769560386316E-4</v>
       </c>
       <c r="AB48">
         <f t="shared" si="25"/>
-        <v>2.4983650509899227E-2</v>
+        <v>3.6971340619084249E-3</v>
       </c>
       <c r="AC48">
         <f t="shared" si="26"/>
-        <v>2.5166122023833112E-2</v>
+        <v>3.7239644182206172E-3</v>
       </c>
       <c r="AD48">
         <f t="shared" si="27"/>
-        <v>-1.6025238665798143E-2</v>
+        <v>-3.353844386865455E-3</v>
       </c>
       <c r="AE48">
         <f t="shared" si="28"/>
-        <v>-1.6142281191642852E-2</v>
+        <v>-3.3781834663817647E-3</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
@@ -7852,111 +7905,111 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>0.17881055599836951</v>
+        <v>0.2522139189165486</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>0.25762111199673904</v>
+        <v>0.40442783783309721</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>0.27825742509330509</v>
+        <v>0.35185732572309231</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>0.35651485018661</v>
+        <v>0.50371465144618466</v>
       </c>
       <c r="I49">
         <f t="shared" si="6"/>
-        <v>3.4702638999592382E-2</v>
+        <v>5.3053479729137154E-2</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
-        <v>0.50867478919939213</v>
+        <v>0.51326025980500123</v>
       </c>
       <c r="K49">
         <f t="shared" si="8"/>
-        <v>4.9564356273326254E-2</v>
+        <v>6.7964331430773087E-2</v>
       </c>
       <c r="L49">
         <f t="shared" si="9"/>
-        <v>0.51238855300265462</v>
+        <v>0.51698454551351791</v>
       </c>
       <c r="M49">
         <f t="shared" si="10"/>
-        <v>-1.0778046541039508</v>
+        <v>-2.2487893169840034</v>
       </c>
       <c r="N49">
         <f t="shared" si="11"/>
-        <v>-1.0386682676940955</v>
+        <v>-2.2182009836697394</v>
       </c>
       <c r="O49">
         <f t="shared" si="12"/>
-        <v>1.3375311372031435</v>
+        <v>2.2500665234399486</v>
       </c>
       <c r="P49">
         <f t="shared" si="13"/>
-        <v>1.3936873033992334</v>
+        <v>2.3128782967439263</v>
       </c>
       <c r="Q49">
         <f t="shared" si="14"/>
-        <v>-1.0804537859580023</v>
+        <v>-2.3009898164820592</v>
       </c>
       <c r="R49">
         <f t="shared" si="15"/>
-        <v>0.2534201514886199</v>
+        <v>9.1041018012519251E-2</v>
       </c>
       <c r="S49">
         <f t="shared" si="16"/>
-        <v>1.394477789991337</v>
+        <v>2.3505920634695618</v>
       </c>
       <c r="T49">
         <f t="shared" si="17"/>
-        <v>0.80130613473207879</v>
+        <v>0.91298127641223181</v>
       </c>
       <c r="U49">
         <f t="shared" si="18"/>
-        <v>2.9626685075371331E-2</v>
+        <v>3.2838233002527354E-3</v>
       </c>
       <c r="V49">
         <f t="shared" si="19"/>
-        <v>1.78026873948742E-2</v>
+        <v>2.9659418915445194E-3</v>
       </c>
       <c r="W49" s="3">
         <f t="shared" si="20"/>
-        <v>4.7429372470245534E-2</v>
+        <v>6.2497651917972543E-3</v>
       </c>
       <c r="X49">
         <f t="shared" si="21"/>
-        <v>-1.1224267386727843E-3</v>
+        <v>-3.603591739984041E-4</v>
       </c>
       <c r="Y49">
         <f t="shared" si="22"/>
-        <v>-2.2448534773455687E-3</v>
+        <v>-7.207183479968082E-4</v>
       </c>
       <c r="Z49">
         <f t="shared" si="23"/>
-        <v>-1.1206347536051517E-3</v>
+        <v>-3.6243411967540925E-4</v>
       </c>
       <c r="AA49">
         <f t="shared" si="24"/>
-        <v>-2.2412695072103034E-3</v>
+        <v>-7.248682393508185E-4</v>
       </c>
       <c r="AB49">
         <f t="shared" si="25"/>
-        <v>2.3426863750583699E-2</v>
+        <v>3.442103446527141E-3</v>
       </c>
       <c r="AC49">
         <f t="shared" si="26"/>
-        <v>2.3597900020648929E-2</v>
+        <v>3.4670798136396219E-3</v>
       </c>
       <c r="AD49">
         <f t="shared" si="27"/>
-        <v>-1.5282025520463989E-2</v>
+        <v>-3.1405704210500846E-3</v>
       </c>
       <c r="AE49">
         <f t="shared" si="28"/>
-        <v>-1.5393597460775319E-2</v>
+        <v>-3.163358823838469E-3</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -7974,111 +8027,111 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>0.18105540947571508</v>
+        <v>0.25581751065653263</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>0.26211081895143018</v>
+        <v>0.41163502131306529</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>0.28049869460051541</v>
+        <v>0.3554816669198464</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>0.36099738920103058</v>
+        <v>0.51096333383969283</v>
       </c>
       <c r="I50">
         <f t="shared" si="6"/>
-        <v>3.5263852368928775E-2</v>
+        <v>5.3954377664133163E-2</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
-        <v>0.50881504962278967</v>
+        <v>0.51348532317596041</v>
       </c>
       <c r="K50">
         <f t="shared" si="8"/>
-        <v>5.0124673650128834E-2</v>
+        <v>6.8870416729961609E-2</v>
       </c>
       <c r="L50">
         <f t="shared" si="9"/>
-        <v>0.51252854537602532</v>
+        <v>0.51721080195811098</v>
       </c>
       <c r="M50">
         <f t="shared" si="10"/>
-        <v>-1.1246583816051181</v>
+        <v>-2.283210351449275</v>
       </c>
       <c r="N50">
         <f t="shared" si="11"/>
-        <v>-1.0858640677353932</v>
+        <v>-2.2528717818061357</v>
       </c>
       <c r="O50">
         <f t="shared" si="12"/>
-        <v>1.3680951882440715</v>
+        <v>2.2814722276504495</v>
       </c>
       <c r="P50">
         <f t="shared" si="13"/>
-        <v>1.424474498320784</v>
+        <v>2.3445118849823112</v>
       </c>
       <c r="Q50">
         <f t="shared" si="14"/>
-        <v>-1.1287794413576093</v>
+        <v>-2.3376046261693788</v>
       </c>
       <c r="R50">
         <f t="shared" si="15"/>
-        <v>0.24438642101100422</v>
+        <v>8.8056078920158307E-2</v>
       </c>
       <c r="S50">
         <f t="shared" si="16"/>
-        <v>1.4261912636447018</v>
+        <v>2.3841093763640933</v>
       </c>
       <c r="T50">
         <f t="shared" si="17"/>
-        <v>0.80630717675385699</v>
+        <v>0.91560751020459608</v>
       </c>
       <c r="U50">
         <f t="shared" si="18"/>
-        <v>2.7468497177173857E-2</v>
+        <v>3.0463757281949913E-3</v>
       </c>
       <c r="V50">
         <f t="shared" si="19"/>
-        <v>1.6871526656069367E-2</v>
+        <v>2.767121268979638E-3</v>
       </c>
       <c r="W50" s="3">
         <f t="shared" si="20"/>
-        <v>4.4340023833243224E-2</v>
+        <v>5.8134969971746289E-3</v>
       </c>
       <c r="X50">
         <f t="shared" si="21"/>
-        <v>-1.0987351008163375E-3</v>
+        <v>-3.4257570183413976E-4</v>
       </c>
       <c r="Y50">
         <f t="shared" si="22"/>
-        <v>-2.1974702016326749E-3</v>
+        <v>-6.8515140366827952E-4</v>
       </c>
       <c r="Z50">
         <f t="shared" si="23"/>
-        <v>-1.0976162469919335E-3</v>
+        <v>-3.4456894212463868E-4</v>
       </c>
       <c r="AA50">
         <f t="shared" si="24"/>
-        <v>-2.1952324939838669E-3</v>
+        <v>-6.8913788424927735E-4</v>
       </c>
       <c r="AB50">
         <f t="shared" si="25"/>
-        <v>2.202263196644523E-2</v>
+        <v>3.2185646814075794E-3</v>
       </c>
       <c r="AC50">
         <f t="shared" si="26"/>
-        <v>2.2183360212087912E-2</v>
+        <v>3.2419162630173506E-3</v>
       </c>
       <c r="AD50">
         <f t="shared" si="27"/>
-        <v>-1.4597086854925629E-2</v>
+        <v>-2.9516868129253714E-3</v>
       </c>
       <c r="AE50">
         <f t="shared" si="28"/>
-        <v>-1.4703621085950368E-2</v>
+        <v>-2.9731021214001938E-3</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
@@ -8096,111 +8149,111 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>0.18325287967734774</v>
+        <v>0.25924326767487404</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>0.2665057593546955</v>
+        <v>0.41848653534974806</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>0.28269392709449925</v>
+        <v>0.3589273563410928</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>0.36538785418899833</v>
+        <v>0.51785471268218564</v>
       </c>
       <c r="I51">
         <f t="shared" si="6"/>
-        <v>3.581321991933694E-2</v>
+        <v>5.4810816918718509E-2</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
-        <v>0.50895234815338242</v>
+        <v>0.5136992747586715</v>
       </c>
       <c r="K51">
         <f t="shared" si="8"/>
-        <v>5.0673481773624796E-2</v>
+        <v>6.9731839085273209E-2</v>
       </c>
       <c r="L51">
         <f t="shared" si="9"/>
-        <v>0.51266566031732252</v>
+        <v>0.51742589918127213</v>
       </c>
       <c r="M51">
         <f t="shared" si="10"/>
-        <v>-1.1687036455380087</v>
+        <v>-2.3153959982633507</v>
       </c>
       <c r="N51">
         <f t="shared" si="11"/>
-        <v>-1.130230788159569</v>
+        <v>-2.285290944436309</v>
       </c>
       <c r="O51">
         <f t="shared" si="12"/>
-        <v>1.3972893619539228</v>
+        <v>2.3109890957797035</v>
       </c>
       <c r="P51">
         <f t="shared" si="13"/>
-        <v>1.4538817404926847</v>
+        <v>2.3742429061963133</v>
       </c>
       <c r="Q51">
         <f t="shared" si="14"/>
-        <v>-1.174244978014781</v>
+        <v>-2.3718859669027896</v>
       </c>
       <c r="R51">
         <f t="shared" si="15"/>
-        <v>0.23608854184407799</v>
+        <v>8.5341808354818249E-2</v>
       </c>
       <c r="S51">
         <f t="shared" si="16"/>
-        <v>1.4565089443291708</v>
+        <v>2.415648193090616</v>
       </c>
       <c r="T51">
         <f t="shared" si="17"/>
-        <v>0.81099814612542831</v>
+        <v>0.91801279975395766</v>
       </c>
       <c r="U51">
         <f t="shared" si="18"/>
-        <v>2.55580143765907E-2</v>
+        <v>2.8381940430870808E-3</v>
       </c>
       <c r="V51">
         <f t="shared" si="19"/>
-        <v>1.6020831845266755E-2</v>
+        <v>2.5910784996318981E-3</v>
       </c>
       <c r="W51" s="3">
         <f t="shared" si="20"/>
-        <v>4.1578846221857452E-2</v>
+        <v>5.4292725427189789E-3</v>
       </c>
       <c r="X51">
         <f t="shared" si="21"/>
-        <v>-1.0745578923013674E-3</v>
+        <v>-3.2648317479122991E-4</v>
       </c>
       <c r="Y51">
         <f t="shared" si="22"/>
-        <v>-2.1491157846027348E-3</v>
+        <v>-6.5296634958245982E-4</v>
       </c>
       <c r="Z51">
         <f t="shared" si="23"/>
-        <v>-1.0740129926583516E-3</v>
+        <v>-3.2839991572293107E-4</v>
       </c>
       <c r="AA51">
         <f t="shared" si="24"/>
-        <v>-2.1480259853167032E-3</v>
+        <v>-6.5679983144586215E-4</v>
       </c>
       <c r="AB51">
         <f t="shared" si="25"/>
-        <v>2.0752652280076354E-2</v>
+        <v>3.0211039026235074E-3</v>
       </c>
       <c r="AC51">
         <f t="shared" si="26"/>
-        <v>2.0904063461152981E-2</v>
+        <v>3.043020459916721E-3</v>
       </c>
       <c r="AD51">
         <f t="shared" si="27"/>
-        <v>-1.3964345223958606E-2</v>
+        <v>-2.7832936474962264E-3</v>
       </c>
       <c r="AE51">
         <f t="shared" si="28"/>
-        <v>-1.4066228972348263E-2</v>
+        <v>-2.8034850135184998E-3</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
@@ -8218,111 +8271,111 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>0.18540199546195046</v>
+        <v>0.26250809942278636</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>0.27080399092390095</v>
+        <v>0.42501619884557268</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>0.28484195307981597</v>
+        <v>0.36221135549832212</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>0.36968390615963176</v>
+        <v>0.52442271099664428</v>
       </c>
       <c r="I52">
         <f t="shared" si="6"/>
-        <v>3.6350498865487621E-2</v>
+        <v>5.5627024855696594E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="7"/>
-        <v>0.50908662418086192</v>
+        <v>0.51390317127388763</v>
       </c>
       <c r="K52">
         <f t="shared" si="8"/>
-        <v>5.1210488269953981E-2</v>
+        <v>7.055283887458054E-2</v>
       </c>
       <c r="L52">
         <f t="shared" si="9"/>
-        <v>0.51279982487963582</v>
+        <v>0.51763089687784491</v>
       </c>
       <c r="M52">
         <f t="shared" si="10"/>
-        <v>-1.2102089500981614</v>
+        <v>-2.3456070372895859</v>
       </c>
       <c r="N52">
         <f t="shared" si="11"/>
-        <v>-1.1720389150818751</v>
+        <v>-2.3157211490354763</v>
       </c>
       <c r="O52">
         <f t="shared" si="12"/>
-        <v>1.4252180524018401</v>
+        <v>2.3388220322546656</v>
       </c>
       <c r="P52">
         <f t="shared" si="13"/>
-        <v>1.4820141984373811</v>
+        <v>2.4022777563314981</v>
       </c>
       <c r="Q52">
         <f t="shared" si="14"/>
-        <v>-1.2171225393650422</v>
+        <v>-2.4041037103196934</v>
       </c>
       <c r="R52">
         <f t="shared" si="15"/>
-        <v>0.22844322657736862</v>
+        <v>8.2860302867116722E-2</v>
       </c>
       <c r="S52">
         <f t="shared" si="16"/>
-        <v>1.4855360684466983</v>
+        <v>2.4454212489804821</v>
       </c>
       <c r="T52">
         <f t="shared" si="17"/>
-        <v>0.81540731531750243</v>
+        <v>0.92022597017797303</v>
       </c>
       <c r="U52">
         <f t="shared" si="18"/>
-        <v>2.3858721618765802E-2</v>
+        <v>2.6543118669439892E-3</v>
       </c>
       <c r="V52">
         <f t="shared" si="19"/>
-        <v>1.5241302772321009E-2</v>
+        <v>2.4342076188025538E-3</v>
       </c>
       <c r="W52" s="3">
         <f t="shared" si="20"/>
-        <v>3.9100024391086813E-2</v>
+        <v>5.0885194857465434E-3</v>
       </c>
       <c r="X52">
         <f t="shared" si="21"/>
-        <v>-1.0502713991917924E-3</v>
+        <v>-3.1185005794168402E-4</v>
       </c>
       <c r="Y52">
         <f t="shared" si="22"/>
-        <v>-2.1005427983835849E-3</v>
+        <v>-6.2370011588336804E-4</v>
       </c>
       <c r="Z52">
         <f t="shared" si="23"/>
-        <v>-1.0502164302964988E-3</v>
+        <v>-3.1369521126560691E-4</v>
       </c>
       <c r="AA52">
         <f t="shared" si="24"/>
-        <v>-2.1004328605929976E-3</v>
+        <v>-6.2739042253121382E-4</v>
       </c>
       <c r="AB52">
         <f t="shared" si="25"/>
-        <v>1.9600919411470769E-2</v>
+        <v>2.8454717480601859E-3</v>
       </c>
       <c r="AC52">
         <f t="shared" si="26"/>
-        <v>1.9743885547680678E-2</v>
+        <v>2.8661120913845667E-3</v>
       </c>
       <c r="AD52">
         <f t="shared" si="27"/>
-        <v>-1.3378481396499267E-2</v>
+        <v>-2.6322741629122102E-3</v>
       </c>
       <c r="AE52">
         <f t="shared" si="28"/>
-        <v>-1.3476062012666401E-2</v>
+        <v>-2.6513680240561289E-3</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
@@ -8340,111 +8393,111 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>0.18750253826033406</v>
+        <v>0.26562660000220317</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>0.27500507652066813</v>
+        <v>0.43125320000440637</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>0.28694238594040894</v>
+        <v>0.3653483076109782</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>0.37388477188081776</v>
+        <v>0.53069661522195644</v>
       </c>
       <c r="I53">
         <f t="shared" si="6"/>
-        <v>3.6875634565083519E-2</v>
+        <v>5.6406650000550798E-2</v>
       </c>
       <c r="J53">
         <f t="shared" si="7"/>
-        <v>0.5092178641177636</v>
+        <v>0.51409792473913785</v>
       </c>
       <c r="K53">
         <f t="shared" si="8"/>
-        <v>5.1735596485102224E-2</v>
+        <v>7.1337076902744559E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="9"/>
-        <v>0.51293101501726512</v>
+        <v>0.51782670988814472</v>
       </c>
       <c r="M53">
         <f t="shared" si="10"/>
-        <v>-1.249410788921103</v>
+        <v>-2.3740617547701879</v>
       </c>
       <c r="N53">
         <f t="shared" si="11"/>
-        <v>-1.2115266861772365</v>
+        <v>-2.344382269949322</v>
       </c>
       <c r="O53">
         <f t="shared" si="12"/>
-        <v>1.4519750151948385</v>
+        <v>2.3651447738837876</v>
       </c>
       <c r="P53">
         <f t="shared" si="13"/>
-        <v>1.5089663224627139</v>
+        <v>2.4287914365720593</v>
       </c>
       <c r="Q53">
         <f t="shared" si="14"/>
-        <v>-1.2576519062014877</v>
+        <v>-2.4344839788978674</v>
       </c>
       <c r="R53">
         <f t="shared" si="15"/>
-        <v>0.22137836831007368</v>
+        <v>8.0580635503980383E-2</v>
       </c>
       <c r="S53">
         <f t="shared" si="16"/>
-        <v>1.5133672433975427</v>
+        <v>2.4736090985658827</v>
       </c>
       <c r="T53">
         <f t="shared" si="17"/>
-        <v>0.81955969611219681</v>
+        <v>0.92227088602182772</v>
       </c>
       <c r="U53">
         <f t="shared" si="18"/>
-        <v>2.2340407294714579E-2</v>
+        <v>2.4908130540728683E-3</v>
       </c>
       <c r="V53">
         <f t="shared" si="19"/>
-        <v>1.4524948594683347E-2</v>
+        <v>2.2936164401341254E-3</v>
       </c>
       <c r="W53" s="3">
         <f t="shared" si="20"/>
-        <v>3.6865355889397926E-2</v>
+        <v>4.7844294942069937E-3</v>
       </c>
       <c r="X53">
         <f t="shared" si="21"/>
-        <v>-1.0261467237858938E-3</v>
+        <v>-2.9848524960523072E-4</v>
       </c>
       <c r="Y53">
         <f t="shared" si="22"/>
-        <v>-2.0522934475717875E-3</v>
+        <v>-5.9697049921046143E-4</v>
       </c>
       <c r="Z53">
         <f t="shared" si="23"/>
-        <v>-1.0265104059510174E-3</v>
+        <v>-3.0026339903757517E-4</v>
       </c>
       <c r="AA53">
         <f t="shared" si="24"/>
-        <v>-2.0530208119020348E-3</v>
+        <v>-6.0052679807515033E-4</v>
       </c>
       <c r="AB53">
         <f t="shared" si="25"/>
-        <v>1.8553498750307346E-2</v>
+        <v>2.688287729764626E-3</v>
       </c>
       <c r="AC53">
         <f t="shared" si="26"/>
-        <v>1.8688788467004464E-2</v>
+        <v>2.707786052711738E-3</v>
       </c>
       <c r="AD53">
         <f t="shared" si="27"/>
-        <v>-1.2834828600953791E-2</v>
+        <v>-2.4961085131551268E-3</v>
       </c>
       <c r="AE53">
         <f t="shared" si="28"/>
-        <v>-1.2928418513489848E-2</v>
+        <v>-2.5142129479452211E-3</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
@@ -8462,111 +8515,111 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>0.18955483170790585</v>
+        <v>0.26861145249825547</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>0.27910966341581173</v>
+        <v>0.43722290499651101</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>0.288995406752311</v>
+        <v>0.36835094160135395</v>
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>0.37799081350462183</v>
+        <v>0.53670188320270795</v>
       </c>
       <c r="I54">
         <f t="shared" si="6"/>
-        <v>3.7388707926976468E-2</v>
+        <v>5.7152863124563878E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="7"/>
-        <v>0.50934608825365535</v>
+        <v>0.51428432773955723</v>
       </c>
       <c r="K54">
         <f t="shared" si="8"/>
-        <v>5.2248851688077733E-2</v>
+        <v>7.2087735400338498E-2</v>
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
-        <v>0.51305924214216969</v>
+        <v>0.51801413344272917</v>
       </c>
       <c r="M54">
         <f t="shared" si="10"/>
-        <v>-1.2865177864217177</v>
+        <v>-2.400944632067834</v>
       </c>
       <c r="N54">
         <f t="shared" si="11"/>
-        <v>-1.2489042631112455</v>
+        <v>-2.3714601304764393</v>
       </c>
       <c r="O54">
         <f t="shared" si="12"/>
-        <v>1.477644672396746</v>
+        <v>2.390105859015339</v>
       </c>
       <c r="P54">
         <f t="shared" si="13"/>
-        <v>1.5348231594896935</v>
+        <v>2.4539335660515116</v>
       </c>
       <c r="Q54">
         <f t="shared" si="14"/>
-        <v>-1.2960446767226341</v>
+        <v>-2.4632180605256391</v>
       </c>
       <c r="R54">
         <f t="shared" si="15"/>
-        <v>0.21483144396144629</v>
+        <v>7.8477295591066323E-2</v>
       </c>
       <c r="S54">
         <f t="shared" si="16"/>
-        <v>1.5400877407441693</v>
+        <v>2.5003662546742804</v>
       </c>
       <c r="T54">
         <f t="shared" si="17"/>
-        <v>0.8234774797810146</v>
+        <v>0.92416749180437641</v>
       </c>
       <c r="U54">
         <f t="shared" si="18"/>
-        <v>2.0977960217665556E-2</v>
+        <v>2.344570005733136E-3</v>
       </c>
       <c r="V54">
         <f t="shared" si="19"/>
-        <v>1.38648748700412E-2</v>
+        <v>2.1669595676634232E-3</v>
       </c>
       <c r="W54" s="3">
         <f t="shared" si="20"/>
-        <v>3.4842835087706754E-2</v>
+        <v>4.5115295733965596E-3</v>
       </c>
       <c r="X54">
         <f t="shared" si="21"/>
-        <v>-1.0023766257255564E-3</v>
+        <v>-2.8622964764704839E-4</v>
       </c>
       <c r="Y54">
         <f t="shared" si="22"/>
-        <v>-2.0047532514511127E-3</v>
+        <v>-5.7245929529409678E-4</v>
       </c>
       <c r="Z54">
         <f t="shared" si="23"/>
-        <v>-1.0030983830871631E-3</v>
+        <v>-2.8794504268887691E-4</v>
       </c>
       <c r="AA54">
         <f t="shared" si="24"/>
-        <v>-2.0061967661743263E-3</v>
+        <v>-5.7589008537775382E-4</v>
       </c>
       <c r="AB54">
         <f t="shared" si="25"/>
-        <v>1.7598285057986007E-2</v>
+        <v>2.5468300077756052E-3</v>
       </c>
       <c r="AC54">
         <f t="shared" si="26"/>
-        <v>1.7726577278346992E-2</v>
+        <v>2.5653006874670568E-3</v>
       </c>
       <c r="AD54">
         <f t="shared" si="27"/>
-        <v>-1.2329282287633966E-2</v>
+        <v>-2.3727380801254277E-3</v>
       </c>
       <c r="AE54">
         <f t="shared" si="28"/>
-        <v>-1.241916326154285E-2</v>
+        <v>-2.3899461721205366E-3</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
@@ -8584,111 +8637,111 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>0.19155958495935696</v>
+        <v>0.27147374897472593</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>0.28311916991871394</v>
+        <v>0.44294749794945198</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>0.29100160351848531</v>
+        <v>0.37123039202824271</v>
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>0.38200320703697049</v>
+        <v>0.54246078405648546</v>
       </c>
       <c r="I55">
         <f t="shared" si="6"/>
-        <v>3.7889896239839245E-2</v>
+        <v>5.78684372436815E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="7"/>
-        <v>0.50947134096406554</v>
+        <v>0.51446307342747333</v>
       </c>
       <c r="K55">
         <f t="shared" si="8"/>
-        <v>5.2750400879621323E-2</v>
+        <v>7.2807598007060687E-2</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
-        <v>0.51318454308061856</v>
+        <v>0.5181938631540699</v>
       </c>
       <c r="M55">
         <f t="shared" si="10"/>
-        <v>-1.3217143565376896</v>
+        <v>-2.4264129321455901</v>
       </c>
       <c r="N55">
         <f t="shared" si="11"/>
-        <v>-1.2843574176679395</v>
+        <v>-2.3971131373511101</v>
       </c>
       <c r="O55">
         <f t="shared" si="12"/>
-        <v>1.502303236972014</v>
+        <v>2.4138332398165931</v>
       </c>
       <c r="P55">
         <f t="shared" si="13"/>
-        <v>1.5596614860127791</v>
+        <v>2.477833027772717</v>
       </c>
       <c r="Q55">
         <f t="shared" si="14"/>
-        <v>-1.3324879601348385</v>
+        <v>-2.4904691715371321</v>
       </c>
       <c r="R55">
         <f t="shared" si="15"/>
-        <v>0.20874812522038752</v>
+        <v>7.6529033312806319E-2</v>
       </c>
       <c r="S55">
         <f t="shared" si="16"/>
-        <v>1.5657746117346949</v>
+        <v>2.5258259362097295</v>
       </c>
       <c r="T55">
         <f t="shared" si="17"/>
-        <v>0.82718041122404062</v>
+        <v>0.92593259861933275</v>
       </c>
       <c r="U55">
         <f t="shared" si="18"/>
-        <v>1.9750408639309418E-2</v>
+        <v>2.2130561367682466E-3</v>
       </c>
       <c r="V55">
         <f t="shared" si="19"/>
-        <v>1.3255109244586257E-2</v>
+        <v>2.0523159598357615E-3</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" si="20"/>
-        <v>3.3005517883895677E-2</v>
+        <v>4.2653720966040077E-3</v>
       </c>
       <c r="X55">
         <f t="shared" si="21"/>
-        <v>-9.790955660204533E-4</v>
+        <v>-2.7494973266673184E-4</v>
       </c>
       <c r="Y55">
         <f t="shared" si="22"/>
-        <v>-1.9581911320409066E-3</v>
+        <v>-5.4989946533346367E-4</v>
       </c>
       <c r="Z55">
         <f t="shared" si="23"/>
-        <v>-9.8012381335393288E-4</v>
+        <v>-2.7660629772726855E-4</v>
       </c>
       <c r="AA55">
         <f t="shared" si="24"/>
-        <v>-1.9602476267078658E-3</v>
+        <v>-5.5321259545453711E-4</v>
       </c>
       <c r="AB55">
         <f t="shared" si="25"/>
-        <v>1.6724769279845373E-2</v>
+        <v>2.4188831795726971E-3</v>
       </c>
       <c r="AC55">
         <f t="shared" si="26"/>
-        <v>1.6846665142665185E-2</v>
+        <v>2.4364244667559828E-3</v>
       </c>
       <c r="AD55">
         <f t="shared" si="27"/>
-        <v>-1.1858223212233282E-2</v>
+        <v>-2.2604650629912079E-3</v>
       </c>
       <c r="AE55">
         <f t="shared" si="28"/>
-        <v>-1.1944650015842885E-2</v>
+        <v>-2.2768575317026227E-3</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
@@ -8706,111 +8759,111 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>0.19351777609139786</v>
+        <v>0.27422324630139322</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>0.28703555218279575</v>
+        <v>0.44844649260278663</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>0.29296185114519319</v>
+        <v>0.37399645500551537</v>
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>0.38592370229038625</v>
+        <v>0.54799291001103079</v>
       </c>
       <c r="I56">
         <f t="shared" si="6"/>
-        <v>3.8379444022849471E-2</v>
+        <v>5.8555811575348331E-2</v>
       </c>
       <c r="J56">
         <f t="shared" si="7"/>
-        <v>0.50959368342459255</v>
+        <v>0.5146347715113837</v>
       </c>
       <c r="K56">
         <f t="shared" si="8"/>
-        <v>5.3240462786298293E-2</v>
+        <v>7.3499113751378853E-2</v>
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
-        <v>0.51330697257526325</v>
+        <v>0.5183665110078981</v>
       </c>
       <c r="M56">
         <f t="shared" si="10"/>
-        <v>-1.3551638950973803</v>
+        <v>-2.4506017639413171</v>
       </c>
       <c r="N56">
         <f t="shared" si="11"/>
-        <v>-1.3180507479532699</v>
+        <v>-2.4214773820186699</v>
       </c>
       <c r="O56">
         <f t="shared" si="12"/>
-        <v>1.5260196833964805</v>
+        <v>2.4364378904465052</v>
       </c>
       <c r="P56">
         <f t="shared" si="13"/>
-        <v>1.5835507860444649</v>
+        <v>2.5006016030897431</v>
       </c>
       <c r="Q56">
         <f t="shared" si="14"/>
-        <v>-1.3671476000791465</v>
+        <v>-2.5163776608528909</v>
       </c>
       <c r="R56">
         <f t="shared" si="15"/>
-        <v>0.20308108548257278</v>
+        <v>7.4717990880752622E-2</v>
       </c>
       <c r="S56">
         <f t="shared" si="16"/>
-        <v>1.5904976513441058</v>
+        <v>2.550103785466002</v>
       </c>
       <c r="T56">
         <f t="shared" si="17"/>
-        <v>0.83068610760335249</v>
+        <v>0.9275804867290145</v>
       </c>
       <c r="U56">
         <f t="shared" si="18"/>
-        <v>1.8640152785564287E-2</v>
+        <v>2.09420917182059E-3</v>
       </c>
       <c r="V56">
         <f t="shared" si="19"/>
-        <v>1.269045815528529E-2</v>
+        <v>1.948097818493367E-3</v>
       </c>
       <c r="W56" s="3">
         <f t="shared" si="20"/>
-        <v>3.1330610940849574E-2</v>
+        <v>4.0423069903139566E-3</v>
       </c>
       <c r="X56">
         <f t="shared" si="21"/>
-        <v>-9.5639466920480339E-4</v>
+        <v>-2.6453263033573711E-4</v>
       </c>
       <c r="Y56">
         <f t="shared" si="22"/>
-        <v>-1.9127893384096068E-3</v>
+        <v>-5.2906526067147421E-4</v>
       </c>
       <c r="Z56">
         <f t="shared" si="23"/>
-        <v>-9.5768537977246521E-4</v>
+        <v>-2.6613398191687723E-4</v>
       </c>
       <c r="AA56">
         <f t="shared" si="24"/>
-        <v>-1.9153707595449304E-3</v>
+        <v>-5.3226796383375446E-4</v>
       </c>
       <c r="AB56">
         <f t="shared" si="25"/>
-        <v>1.5923824359994388E-2</v>
+        <v>2.3026262752254096E-3</v>
       </c>
       <c r="AC56">
         <f t="shared" si="26"/>
-        <v>1.6039857517697181E-2</v>
+        <v>2.3193231676482341E-3</v>
       </c>
       <c r="AD56">
         <f t="shared" si="27"/>
-        <v>-1.1418451879504358E-2</v>
+        <v>-2.157877116588209E-3</v>
       </c>
       <c r="AE56">
         <f t="shared" si="28"/>
-        <v>-1.1501655449055457E-2</v>
+        <v>-2.1735243983312356E-3</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
@@ -8828,111 +8881,111 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>0.19543056542980747</v>
+        <v>0.27686857260475062</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>0.29086113085961496</v>
+        <v>0.45373714520950137</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>0.29487722190473814</v>
+        <v>0.37665779482468414</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>0.3897544438094761</v>
+        <v>0.55331558964936833</v>
       </c>
       <c r="I57">
         <f t="shared" si="6"/>
-        <v>3.8857641357451872E-2</v>
+        <v>5.9217143151187673E-2</v>
       </c>
       <c r="J57">
         <f t="shared" si="7"/>
-        <v>0.50971318819502642</v>
+        <v>0.51479996115883853</v>
       </c>
       <c r="K57">
         <f t="shared" si="8"/>
-        <v>5.3719305476184517E-2</v>
+        <v>7.4164448706171046E-2</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
-        <v>0.51342659769188626</v>
+        <v>0.51853261827406438</v>
       </c>
       <c r="M57">
         <f t="shared" si="10"/>
-        <v>-1.3870115438173691</v>
+        <v>-2.4736280266935711</v>
       </c>
       <c r="N57">
         <f t="shared" si="11"/>
-        <v>-1.3501304629886643</v>
+        <v>-2.4446706136951524</v>
       </c>
       <c r="O57">
         <f t="shared" si="12"/>
-        <v>1.5488565871554894</v>
+        <v>2.4580166616123873</v>
       </c>
       <c r="P57">
         <f t="shared" si="13"/>
-        <v>1.6065540969425758</v>
+        <v>2.5223368470730554</v>
       </c>
       <c r="Q57">
         <f t="shared" si="14"/>
-        <v>-1.400170966114898</v>
+        <v>-2.5410650662002761</v>
       </c>
       <c r="R57">
         <f t="shared" si="15"/>
-        <v>0.19778898310260346</v>
+        <v>7.3029040118547758E-2</v>
       </c>
       <c r="S57">
         <f t="shared" si="16"/>
-        <v>1.6143202330970798</v>
+        <v>2.5733008114077744</v>
       </c>
       <c r="T57">
         <f t="shared" si="17"/>
-        <v>0.83401033030850635</v>
+        <v>0.9291233728134044</v>
       </c>
       <c r="U57">
         <f t="shared" si="18"/>
-        <v>1.763235108735494E-2</v>
+        <v>1.9863299491327518E-3</v>
       </c>
       <c r="V57">
         <f t="shared" si="19"/>
-        <v>1.2166388525230644E-2</v>
+        <v>1.8529818688078747E-3</v>
       </c>
       <c r="W57" s="3">
         <f t="shared" si="20"/>
-        <v>2.9798739612585584E-2</v>
+        <v>3.8393118179406265E-3</v>
       </c>
       <c r="X57">
         <f t="shared" si="21"/>
-        <v>-9.3433289868948867E-4</v>
+        <v>-2.548822717466374E-4</v>
       </c>
       <c r="Y57">
         <f t="shared" si="22"/>
-        <v>-1.8686657973789773E-3</v>
+        <v>-5.0976454349327481E-4</v>
       </c>
       <c r="Z57">
         <f t="shared" si="23"/>
-        <v>-9.3584840987056747E-4</v>
+        <v>-2.5643173941228411E-4</v>
       </c>
       <c r="AA57">
         <f t="shared" si="24"/>
-        <v>-1.8716968197411349E-3</v>
+        <v>-5.1286347882456822E-4</v>
       </c>
       <c r="AB57">
         <f t="shared" si="25"/>
-        <v>1.5187514315694119E-2</v>
+        <v>2.196549121565887E-3</v>
       </c>
       <c r="AC57">
         <f t="shared" si="26"/>
-        <v>1.5298159794759132E-2</v>
+        <v>2.2124756276384588E-3</v>
       </c>
       <c r="AD57">
         <f t="shared" si="27"/>
-        <v>-1.1007132634812566E-2</v>
+        <v>-2.0637900580714494E-3</v>
       </c>
       <c r="AE57">
         <f t="shared" si="28"/>
-        <v>-1.1087322811966996E-2</v>
+        <v>-2.0787539687664928E-3</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
@@ -8950,111 +9003,111 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>0.19729923122718646</v>
+        <v>0.27941739532221699</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>0.29459846245437293</v>
+        <v>0.45883479064443411</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>0.29674891872447928</v>
+        <v>0.37922211221880697</v>
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>0.39349783744895839</v>
+        <v>0.55844422443761399</v>
       </c>
       <c r="I58">
         <f t="shared" si="6"/>
-        <v>3.9324807806796619E-2</v>
+        <v>5.9854348830554266E-2</v>
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
-        <v>0.50982993520018183</v>
+        <v>0.51495912149951495</v>
       </c>
       <c r="K58">
         <f t="shared" si="8"/>
-        <v>5.4187229681119803E-2</v>
+        <v>7.4805528054701753E-2</v>
       </c>
       <c r="L58">
         <f t="shared" si="9"/>
-        <v>0.51354349365222707</v>
+        <v>0.51869266602041531</v>
       </c>
       <c r="M58">
         <f t="shared" si="10"/>
-        <v>-1.4173865724487573</v>
+        <v>-2.4955935179092301</v>
       </c>
       <c r="N58">
         <f t="shared" si="11"/>
-        <v>-1.3807267825781826</v>
+        <v>-2.4667953699715368</v>
       </c>
       <c r="O58">
         <f t="shared" si="12"/>
-        <v>1.5708708524251145</v>
+        <v>2.478654562193102</v>
       </c>
       <c r="P58">
         <f t="shared" si="13"/>
-        <v>1.6287287425665098</v>
+        <v>2.5431243867607205</v>
       </c>
       <c r="Q58">
         <f t="shared" si="14"/>
-        <v>-1.4316893600895564</v>
+        <v>-2.5646373125797743</v>
       </c>
       <c r="R58">
         <f t="shared" si="15"/>
-        <v>0.19283559882807824</v>
+        <v>7.1449271051039459E-2</v>
       </c>
       <c r="S58">
         <f t="shared" si="16"/>
-        <v>1.6373000335691548</v>
+        <v>2.5955057440381766</v>
       </c>
       <c r="T58">
         <f t="shared" si="17"/>
-        <v>0.83716721764702751</v>
+        <v>0.9305717762988186</v>
       </c>
       <c r="U58">
         <f t="shared" si="18"/>
-        <v>1.6714428099410983E-2</v>
+        <v>1.8880064563520579E-3</v>
       </c>
       <c r="V58">
         <f t="shared" si="19"/>
-        <v>1.1678929680875529E-2</v>
+        <v>1.7658568861388289E-3</v>
       </c>
       <c r="W58" s="3">
         <f t="shared" si="20"/>
-        <v>2.839335778028651E-2</v>
+        <v>3.6538633424908866E-3</v>
       </c>
       <c r="X58">
         <f t="shared" si="21"/>
-        <v>-9.1294541335361259E-4</v>
+        <v>-2.4591637820645427E-4</v>
       </c>
       <c r="Y58">
         <f t="shared" si="22"/>
-        <v>-1.8258908267072252E-3</v>
+        <v>-4.9183275641290854E-4</v>
       </c>
       <c r="Z58">
         <f t="shared" si="23"/>
-        <v>-9.1465343140645177E-4</v>
+        <v>-2.4741702683033477E-4</v>
       </c>
       <c r="AA58">
         <f t="shared" si="24"/>
-        <v>-1.8293068628129035E-3</v>
+        <v>-4.9483405366066953E-4</v>
       </c>
       <c r="AB58">
         <f t="shared" si="25"/>
-        <v>1.4508927180204511E-2</v>
+        <v>2.0993890526335517E-3</v>
       </c>
       <c r="AC58">
         <f t="shared" si="26"/>
-        <v>1.4614608987882206E-2</v>
+        <v>2.114609993806269E-3</v>
       </c>
       <c r="AD58">
         <f t="shared" si="27"/>
-        <v>-1.0621745929662585E-2</v>
+        <v>-1.9772037947625087E-3</v>
       </c>
       <c r="AE58">
         <f t="shared" si="28"/>
-        <v>-1.069911383540764E-2</v>
+        <v>-1.9915388712500237E-3</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9072,111 +9125,111 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>0.19912512205389368</v>
+        <v>0.28187655910428155</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>0.29825024410778739</v>
+        <v>0.46375311820856319</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>0.29857822558729219</v>
+        <v>0.38169628248711029</v>
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>0.3971564511745842</v>
+        <v>0.56339256497422063</v>
       </c>
       <c r="I59">
         <f t="shared" si="6"/>
-        <v>3.9781280513473426E-2</v>
+        <v>6.0469139776070401E-2</v>
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
-        <v>0.50994400875513712</v>
+        <v>0.51511268024378043</v>
       </c>
       <c r="K59">
         <f t="shared" si="8"/>
-        <v>5.4644556396823037E-2</v>
+        <v>7.5424070621777584E-2</v>
       </c>
       <c r="L59">
         <f t="shared" si="9"/>
-        <v>0.51365774073582693</v>
+        <v>0.51884708374332777</v>
       </c>
       <c r="M59">
         <f t="shared" si="10"/>
-        <v>-1.4464044268091663</v>
+        <v>-2.5165874084355657</v>
       </c>
       <c r="N59">
         <f t="shared" si="11"/>
-        <v>-1.4099560005539471</v>
+        <v>-2.4879414699095994</v>
       </c>
       <c r="O59">
         <f t="shared" si="12"/>
-        <v>1.5921143442844397</v>
+        <v>2.4984266001407271</v>
       </c>
       <c r="P59">
         <f t="shared" si="13"/>
-        <v>1.6501269702373251</v>
+        <v>2.5630397754732206</v>
       </c>
       <c r="Q59">
         <f t="shared" si="14"/>
-        <v>-1.4618200854697054</v>
+        <v>-2.5871872612136775</v>
       </c>
       <c r="R59">
         <f t="shared" si="15"/>
-        <v>0.18818910571876363</v>
+        <v>6.996759253501475E-2</v>
       </c>
       <c r="S59">
         <f t="shared" si="16"/>
-        <v>1.6594896625803233</v>
+        <v>2.6167969354132801</v>
       </c>
       <c r="T59">
         <f t="shared" si="17"/>
-        <v>0.8401694844342783</v>
+        <v>0.93193480948847363</v>
       </c>
       <c r="U59">
         <f t="shared" si="18"/>
-        <v>1.5875678698426359E-2</v>
+        <v>1.7980560772227782E-3</v>
       </c>
       <c r="V59">
         <f t="shared" si="19"/>
-        <v>1.1224591697344985E-2</v>
+        <v>1.6857831745699257E-3</v>
       </c>
       <c r="W59" s="3">
         <f t="shared" si="20"/>
-        <v>2.7100270395771342E-2</v>
+        <v>3.4838392517927037E-3</v>
       </c>
       <c r="X59">
         <f t="shared" si="21"/>
-        <v>-8.922498250348665E-4</v>
+        <v>-2.3756407173670046E-4</v>
       </c>
       <c r="Y59">
         <f t="shared" si="22"/>
-        <v>-1.784499650069733E-3</v>
+        <v>-4.7512814347340092E-4</v>
       </c>
       <c r="Z59">
         <f t="shared" si="23"/>
-        <v>-8.9412259557569815E-4</v>
+        <v>-2.3901872358780653E-4</v>
       </c>
       <c r="AA59">
         <f t="shared" si="24"/>
-        <v>-1.7882451911513963E-3</v>
+        <v>-4.7803744717561306E-4</v>
       </c>
       <c r="AB59">
         <f t="shared" si="25"/>
-        <v>1.3882030541549802E-2</v>
+        <v>2.0100824308443271E-3</v>
       </c>
       <c r="AC59">
         <f t="shared" si="26"/>
-        <v>1.3983128191279856E-2</v>
+        <v>2.0246548907196524E-3</v>
       </c>
       <c r="AD59">
         <f t="shared" si="27"/>
-        <v>-1.0260047504511717E-2</v>
+        <v>-1.8972680543799048E-3</v>
       </c>
       <c r="AE59">
         <f t="shared" si="28"/>
-        <v>-1.033476760296707E-2</v>
+        <v>-1.9110226458190101E-3</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
@@ -9194,111 +9247,111 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>0.20090962170396343</v>
+        <v>0.28425219982164857</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>0.30181924340792687</v>
+        <v>0.46850439964329721</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>0.30036647077844358</v>
+        <v>0.38408646972298838</v>
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>0.40073294155688699</v>
+        <v>0.5681729394459768</v>
       </c>
       <c r="I60">
         <f t="shared" si="6"/>
-        <v>4.0227405425990861E-2</v>
+        <v>6.1063049955412146E-2</v>
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
-        <v>0.51005549537252459</v>
+        <v>0.51526102080782421</v>
       </c>
       <c r="K60">
         <f t="shared" si="8"/>
-        <v>5.5091617694610878E-2</v>
+        <v>7.6021617430747104E-2</v>
       </c>
       <c r="L60">
         <f t="shared" si="9"/>
-        <v>0.51376942198442588</v>
+        <v>0.51899625650501058</v>
       </c>
       <c r="M60">
         <f t="shared" si="10"/>
-        <v>-1.4741684878922658</v>
+        <v>-2.5366882327440088</v>
       </c>
       <c r="N60">
         <f t="shared" si="11"/>
-        <v>-1.4379222569365069</v>
+        <v>-2.5081880188167958</v>
       </c>
       <c r="O60">
         <f t="shared" si="12"/>
-        <v>1.6126344392934631</v>
+        <v>2.517399280684526</v>
       </c>
       <c r="P60">
         <f t="shared" si="13"/>
-        <v>1.6707965054432592</v>
+        <v>2.5821500019314105</v>
       </c>
       <c r="Q60">
         <f t="shared" si="14"/>
-        <v>-1.4906682251592653</v>
+        <v>-2.6087967606515097</v>
       </c>
       <c r="R60">
         <f t="shared" si="15"/>
-        <v>0.18382145166434802</v>
+        <v>6.8574417103865887E-2</v>
       </c>
       <c r="S60">
         <f t="shared" si="16"/>
-        <v>1.6809372126438027</v>
+        <v>2.6372439078831995</v>
       </c>
       <c r="T60">
         <f t="shared" si="17"/>
-        <v>0.8430285936366253</v>
+        <v>0.93322040949691754</v>
       </c>
       <c r="U60">
         <f t="shared" si="18"/>
-        <v>1.5106948529350635E-2</v>
+        <v>1.7154811695288281E-3</v>
       </c>
       <c r="V60">
         <f t="shared" si="19"/>
-        <v>1.0800297144214108E-2</v>
+        <v>1.6119609488488658E-3</v>
       </c>
       <c r="W60" s="3">
         <f t="shared" si="20"/>
-        <v>2.5907245673564741E-2</v>
+        <v>3.3274421183776938E-3</v>
       </c>
       <c r="X60">
         <f t="shared" si="21"/>
-        <v>-8.7225089062098211E-4</v>
+        <v>-2.2976396524606601E-4</v>
       </c>
       <c r="Y60">
         <f t="shared" si="22"/>
-        <v>-1.7445017812419642E-3</v>
+        <v>-4.5952793049213201E-4</v>
       </c>
       <c r="Z60">
         <f t="shared" si="23"/>
-        <v>-8.7426450651157956E-4</v>
+        <v>-2.3117522111515979E-4</v>
       </c>
       <c r="AA60">
         <f t="shared" si="24"/>
-        <v>-1.7485290130231591E-3</v>
+        <v>-4.6235044223031957E-4</v>
       </c>
       <c r="AB60">
         <f t="shared" si="25"/>
-        <v>1.330154754450818E-2</v>
+        <v>1.9277270968253125E-3</v>
       </c>
       <c r="AC60">
         <f t="shared" si="26"/>
-        <v>1.3398401655194585E-2</v>
+        <v>1.9417015966918198E-3</v>
       </c>
       <c r="AD60">
         <f t="shared" si="27"/>
-        <v>-9.9200334240426881E-3</v>
+        <v>-1.8232554712195818E-3</v>
       </c>
       <c r="AE60">
         <f t="shared" si="28"/>
-        <v>-9.9922653212749565E-3</v>
+        <v>-1.8364726342615535E-3</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -9316,111 +9369,111 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>0.2026541234852054</v>
+        <v>0.28654983947410922</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>0.30530824697041081</v>
+        <v>0.47309967894821853</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>0.30211499979146672</v>
+        <v>0.38639822193413997</v>
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>0.40422999958293332</v>
+        <v>0.57279644386827999</v>
       </c>
       <c r="I61">
         <f t="shared" si="6"/>
-        <v>4.0663530871301354E-2</v>
+        <v>6.1637459868527318E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="7"/>
-        <v>0.51016448215622123</v>
+        <v>0.51540448824515683</v>
       </c>
       <c r="K61">
         <f t="shared" si="8"/>
-        <v>5.5528749947866669E-2</v>
+        <v>7.6599555483535003E-2</v>
       </c>
       <c r="L61">
         <f t="shared" si="9"/>
-        <v>0.51387862150976671</v>
+        <v>0.51914053087682077</v>
       </c>
       <c r="M61">
         <f t="shared" si="10"/>
-        <v>-1.5007715829812822</v>
+        <v>-2.5559655037122617</v>
       </c>
       <c r="N61">
         <f t="shared" si="11"/>
-        <v>-1.464719060246896</v>
+        <v>-2.527605034783714</v>
       </c>
       <c r="O61">
         <f t="shared" si="12"/>
-        <v>1.6324745061415484</v>
+        <v>2.535631835396722</v>
       </c>
       <c r="P61">
         <f t="shared" si="13"/>
-        <v>1.6907810360858091</v>
+        <v>2.600514728274026</v>
       </c>
       <c r="Q61">
         <f t="shared" si="14"/>
-        <v>-1.5183281690451742</v>
+        <v>-2.629538312017635</v>
       </c>
       <c r="R61">
         <f t="shared" si="15"/>
-        <v>0.17970783695322826</v>
+        <v>6.7261409864832616E-2</v>
       </c>
       <c r="S61">
         <f t="shared" si="16"/>
-        <v>1.7016867391575667</v>
+        <v>2.6569086250899443</v>
       </c>
       <c r="T61">
         <f t="shared" si="17"/>
-        <v>0.84575490437118062</v>
+        <v>0.93443552526463014</v>
       </c>
       <c r="U61">
         <f t="shared" si="18"/>
-        <v>1.4400374961671751E-2</v>
+        <v>1.639434529854175E-3</v>
       </c>
       <c r="V61">
         <f t="shared" si="19"/>
-        <v>1.0403323806483624E-2</v>
+        <v>1.5437054263087772E-3</v>
       </c>
       <c r="W61" s="3">
         <f t="shared" si="20"/>
-        <v>2.4803698768155375E-2</v>
+        <v>3.1831399561629524E-3</v>
       </c>
       <c r="X61">
         <f t="shared" si="21"/>
-        <v>-8.5294403437432111E-4</v>
+        <v>-2.2246262390441553E-4</v>
       </c>
       <c r="Y61">
         <f t="shared" si="22"/>
-        <v>-1.7058880687486422E-3</v>
+        <v>-4.4492524780883106E-4</v>
       </c>
       <c r="Z61">
         <f t="shared" si="23"/>
-        <v>-8.5507785734389584E-4</v>
+        <v>-2.2383288286451856E-4</v>
       </c>
       <c r="AA61">
         <f t="shared" si="24"/>
-        <v>-1.7101557146877917E-3</v>
+        <v>-4.4766576572903712E-4</v>
       </c>
       <c r="AB61">
         <f t="shared" si="25"/>
-        <v>1.2762850936090952E-2</v>
+        <v>1.851552984574674E-3</v>
       </c>
       <c r="AC61">
         <f t="shared" si="26"/>
-        <v>1.2855768041422981E-2</v>
+        <v>1.8649744448896747E-3</v>
       </c>
       <c r="AD61">
         <f t="shared" si="27"/>
-        <v>-9.5999100662054956E-3</v>
+        <v>-1.7545402542765924E-3</v>
       </c>
       <c r="AE61">
         <f t="shared" si="28"/>
-        <v>-9.6698000821013354E-3</v>
+        <v>-1.767258492744531E-3</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
@@ -9438,111 +9491,111 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>0.20436001155395403</v>
+        <v>0.28877446571315341</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>0.30872002310790808</v>
+        <v>0.47754893142630683</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>0.30382515550615452</v>
+        <v>0.38863655076278514</v>
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>0.40765031101230892</v>
+        <v>0.57727310152557032</v>
       </c>
       <c r="I62">
         <f t="shared" si="6"/>
-        <v>4.1090002888488512E-2</v>
+        <v>6.2193616428288356E-2</v>
       </c>
       <c r="J62">
         <f t="shared" si="7"/>
-        <v>0.51027105563524056</v>
+        <v>0.51554339421648365</v>
       </c>
       <c r="K62">
         <f t="shared" si="8"/>
-        <v>5.5956288876538619E-2</v>
+        <v>7.7159137690696294E-2</v>
       </c>
       <c r="L62">
         <f t="shared" si="9"/>
-        <v>0.51398542325568763</v>
+        <v>0.5192802199203046</v>
       </c>
       <c r="M62">
         <f t="shared" si="10"/>
-        <v>-1.5262972848534642</v>
+        <v>-2.5744810335580084</v>
       </c>
       <c r="N62">
         <f t="shared" si="11"/>
-        <v>-1.490430596329742</v>
+        <v>-2.5462547792326107</v>
       </c>
       <c r="O62">
         <f t="shared" si="12"/>
-        <v>1.6516743262739595</v>
+        <v>2.5531772379394879</v>
       </c>
       <c r="P62">
         <f t="shared" si="13"/>
-        <v>1.7101206362500119</v>
+        <v>2.6181873132014712</v>
       </c>
       <c r="Q62">
         <f t="shared" si="14"/>
-        <v>-1.544884927643148</v>
+        <v>-2.6494764321194935</v>
       </c>
       <c r="R62">
         <f t="shared" si="15"/>
-        <v>0.17582627176252114</v>
+        <v>6.602128664860589E-2</v>
       </c>
       <c r="S62">
         <f t="shared" si="16"/>
-        <v>1.7217786810746862</v>
+        <v>2.6758465430754015</v>
       </c>
       <c r="T62">
         <f t="shared" si="17"/>
-        <v>0.84835779985821647</v>
+        <v>0.93558626955960567</v>
       </c>
       <c r="U62">
         <f t="shared" si="18"/>
-        <v>1.3749176203328755E-2</v>
+        <v>1.5691922788826341E-3</v>
       </c>
       <c r="V62">
         <f t="shared" si="19"/>
-        <v>1.003125643050253E-2</v>
+        <v>1.4804270302199479E-3</v>
       </c>
       <c r="W62" s="3">
         <f t="shared" si="20"/>
-        <v>2.3780432633831283E-2</v>
+        <v>3.049619309102582E-3</v>
       </c>
       <c r="X62">
         <f t="shared" si="21"/>
-        <v>-8.3431799405060702E-4</v>
+        <v>-2.1561331632381461E-4</v>
       </c>
       <c r="Y62">
         <f t="shared" si="22"/>
-        <v>-1.668635988101214E-3</v>
+        <v>-4.3122663264762921E-4</v>
       </c>
       <c r="Z62">
         <f t="shared" si="23"/>
-        <v>-8.3655417041170329E-4</v>
+        <v>-2.1694479395146181E-4</v>
       </c>
       <c r="AA62">
         <f t="shared" si="24"/>
-        <v>-1.6731083408234066E-3</v>
+        <v>-4.3388958790292363E-4</v>
       </c>
       <c r="AB62">
         <f t="shared" si="25"/>
-        <v>1.2261872755189052E-2</v>
+        <v>1.7808989078080689E-3</v>
       </c>
       <c r="AC62">
         <f t="shared" si="26"/>
-        <v>1.2351129440679898E-2</v>
+        <v>1.7938074406091105E-3</v>
       </c>
       <c r="AD62">
         <f t="shared" si="27"/>
-        <v>-9.2980683083399747E-3</v>
+        <v>-1.690581135032977E-3</v>
       </c>
       <c r="AE62">
         <f t="shared" si="28"/>
-        <v>-9.3657508536769997E-3</v>
+        <v>-1.7028350153283245E-3</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -9560,111 +9613,111 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>0.20602864754205524</v>
+        <v>0.29093059887639156</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>0.31205729508411051</v>
+        <v>0.48186119775278313</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>0.30549826384697792</v>
+        <v>0.39080599870229976</v>
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>0.41099652769395573</v>
+        <v>0.58161199740459957</v>
       </c>
       <c r="I63">
         <f t="shared" si="6"/>
-        <v>4.1507161885513816E-2</v>
+        <v>6.2732649719097894E-2</v>
       </c>
       <c r="J63">
         <f t="shared" si="7"/>
-        <v>0.51037530092831429</v>
+        <v>0.51567802117908501</v>
       </c>
       <c r="K63">
         <f t="shared" si="8"/>
-        <v>5.637456596174447E-2</v>
+        <v>7.770149967557495E-2</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
-        <v>0.51408991010256211</v>
+        <v>0.51941560738694936</v>
       </c>
       <c r="M63">
         <f t="shared" si="10"/>
-        <v>-1.5508210303638423</v>
+        <v>-2.5922900226360892</v>
       </c>
       <c r="N63">
         <f t="shared" si="11"/>
-        <v>-1.5151328552111019</v>
+        <v>-2.5641928536387018</v>
       </c>
       <c r="O63">
         <f t="shared" si="12"/>
-        <v>1.6702704628906395</v>
+        <v>2.5700830492898179</v>
       </c>
       <c r="P63">
         <f t="shared" si="13"/>
-        <v>1.7288521379573658</v>
+        <v>2.6352156633547543</v>
       </c>
       <c r="Q63">
         <f t="shared" si="14"/>
-        <v>-1.570415263386818</v>
+        <v>-2.6686687777252853</v>
       </c>
       <c r="R63">
         <f t="shared" si="15"/>
-        <v>0.17215720071267851</v>
+        <v>6.4847650414286528E-2</v>
       </c>
       <c r="S63">
         <f t="shared" si="16"/>
-        <v>1.7412502303126094</v>
+        <v>2.6941074855006946</v>
       </c>
       <c r="T63">
         <f t="shared" si="17"/>
-        <v>0.85084579833532792</v>
+        <v>0.93667804343920846</v>
       </c>
       <c r="U63">
         <f t="shared" si="18"/>
-        <v>1.314747887148595E-2</v>
+        <v>1.5041323779838925E-3</v>
       </c>
       <c r="V63">
         <f t="shared" si="19"/>
-        <v>9.6819459204661121E-3</v>
+        <v>1.4216155257354693E-3</v>
       </c>
       <c r="W63" s="3">
         <f t="shared" si="20"/>
-        <v>2.282942479195206E-2</v>
+        <v>2.9257479037193617E-3</v>
       </c>
       <c r="X63">
         <f t="shared" si="21"/>
-        <v>-8.1635680904320576E-4</v>
+        <v>-2.0917499388210532E-4</v>
       </c>
       <c r="Y63">
         <f t="shared" si="22"/>
-        <v>-1.6327136180864115E-3</v>
+        <v>-4.1834998776421064E-4</v>
       </c>
       <c r="Z63">
         <f t="shared" si="23"/>
-        <v>-8.1867986328853387E-4</v>
+        <v>-2.1046973890437209E-4</v>
       </c>
       <c r="AA63">
         <f t="shared" si="24"/>
-        <v>-1.6373597265770677E-3</v>
+        <v>-4.2093947780874418E-4</v>
       </c>
       <c r="AB63">
         <f t="shared" si="25"/>
-        <v>1.1795027440105601E-2</v>
+        <v>1.7151940601415894E-3</v>
       </c>
       <c r="AC63">
         <f t="shared" si="26"/>
-        <v>1.188087390849823E-2</v>
+        <v>1.7276256267387815E-3</v>
       </c>
       <c r="AD63">
         <f t="shared" si="27"/>
-        <v>-9.0130612740071201E-3</v>
+        <v>-1.6309076280088268E-3</v>
       </c>
       <c r="AE63">
         <f t="shared" si="28"/>
-        <v>-9.0786600599115086E-3</v>
+        <v>-1.6427282944060661E-3</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -9682,111 +9735,111 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>0.20766136116014167</v>
+        <v>0.29302234881521261</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>0.31532272232028336</v>
+        <v>0.48604469763042524</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>0.30713562357355501</v>
+        <v>0.39291069609134349</v>
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>0.41427124714710989</v>
+        <v>0.58582139218268703</v>
       </c>
       <c r="I64">
         <f t="shared" si="6"/>
-        <v>4.1915340290035422E-2</v>
+        <v>6.3255587203803157E-2</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
-        <v>0.51047730115693291</v>
+        <v>0.5158086259382898</v>
       </c>
       <c r="K64">
         <f t="shared" si="8"/>
-        <v>5.6783905893388747E-2</v>
+        <v>7.8227674022835883E-2</v>
       </c>
       <c r="L64">
         <f t="shared" si="9"/>
-        <v>0.51419216322985217</v>
+        <v>0.51954695127918671</v>
       </c>
       <c r="M64">
         <f t="shared" si="10"/>
-        <v>-1.5744110852440536</v>
+        <v>-2.6094419632375052</v>
       </c>
       <c r="N64">
         <f t="shared" si="11"/>
-        <v>-1.5388946030280983</v>
+        <v>-2.5814691099060894</v>
       </c>
       <c r="O64">
         <f t="shared" si="12"/>
-        <v>1.6882965854386538</v>
+        <v>2.5863921255699061</v>
       </c>
       <c r="P64">
         <f t="shared" si="13"/>
-        <v>1.7470094580771889</v>
+        <v>2.6516429462988151</v>
       </c>
       <c r="Q64">
         <f t="shared" si="14"/>
-        <v>-1.5949886666207047</v>
+        <v>-2.6871670793963554</v>
       </c>
       <c r="R64">
         <f t="shared" si="15"/>
-        <v>0.16868318366219218</v>
+        <v>6.373485764660658E-2</v>
       </c>
       <c r="S64">
         <f t="shared" si="16"/>
-        <v>1.7601356569189108</v>
+        <v>2.7117363770583358</v>
       </c>
       <c r="T64">
         <f t="shared" si="17"/>
-        <v>0.85322664945535098</v>
+        <v>0.93771563886702802</v>
       </c>
       <c r="U64">
         <f t="shared" si="18"/>
-        <v>1.2590176388584506E-2</v>
+        <v>1.4437174631505368E-3</v>
       </c>
       <c r="V64">
         <f t="shared" si="19"/>
-        <v>9.3534747096047192E-3</v>
+        <v>1.3668272095415149E-3</v>
       </c>
       <c r="W64" s="3">
         <f t="shared" si="20"/>
-        <v>2.1943651098189226E-2</v>
+        <v>2.8105446726920517E-3</v>
       </c>
       <c r="X64">
         <f t="shared" si="21"/>
-        <v>-7.990413131857794E-4</v>
+        <v>-2.0311145104821436E-4</v>
       </c>
       <c r="Y64">
         <f t="shared" si="22"/>
-        <v>-1.5980826263715588E-3</v>
+        <v>-4.0622290209642873E-4</v>
       </c>
       <c r="Z64">
         <f t="shared" si="23"/>
-        <v>-8.0143780611918996E-4</v>
+        <v>-2.0437136045979164E-4</v>
       </c>
       <c r="AA64">
         <f t="shared" si="24"/>
-        <v>-1.6028756122383799E-3</v>
+        <v>-4.0874272091958328E-4</v>
       </c>
       <c r="AB64">
         <f t="shared" si="25"/>
-        <v>1.1359146365135174E-2</v>
+        <v>1.6539431515289551E-3</v>
       </c>
       <c r="AC64">
         <f t="shared" si="26"/>
-        <v>1.1441809515713944E-2</v>
+        <v>1.6659301119728918E-3</v>
       </c>
       <c r="AD64">
         <f t="shared" si="27"/>
-        <v>-8.7435851055137417E-3</v>
+        <v>-1.5751088785610488E-3</v>
       </c>
       <c r="AE64">
         <f t="shared" si="28"/>
-        <v>-8.8072142083478952E-3</v>
+        <v>-1.5865244872563964E-3</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -9804,111 +9857,111 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>0.20925944378651323</v>
+        <v>0.29505346332569476</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>0.31851888757302649</v>
+        <v>0.49010692665138955</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>0.30873849918579338</v>
+        <v>0.39495440969594142</v>
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>0.41747699837158664</v>
+        <v>0.58990881939188289</v>
       </c>
       <c r="I65">
         <f t="shared" si="6"/>
-        <v>4.2314860946628313E-2</v>
+        <v>6.3763365831423696E-2</v>
       </c>
       <c r="J65">
         <f t="shared" si="7"/>
-        <v>0.51057713704493379</v>
+        <v>0.5159354426741718</v>
       </c>
       <c r="K65">
         <f t="shared" si="8"/>
-        <v>5.7184624796448341E-2</v>
+        <v>7.8738602423985365E-2</v>
       </c>
       <c r="L65">
         <f t="shared" si="9"/>
-        <v>0.5142922616732124</v>
+        <v>0.51967448688577789</v>
       </c>
       <c r="M65">
         <f t="shared" si="10"/>
-        <v>-1.5971293779743239</v>
+        <v>-2.6259813947527948</v>
       </c>
       <c r="N65">
         <f t="shared" si="11"/>
-        <v>-1.5617782220595262</v>
+        <v>-2.5981284110258183</v>
       </c>
       <c r="O65">
         <f t="shared" si="12"/>
-        <v>1.7057837556496813</v>
+        <v>2.6021432143555163</v>
       </c>
       <c r="P65">
         <f t="shared" si="13"/>
-        <v>1.7646238864938846</v>
+        <v>2.6675081911713789</v>
       </c>
       <c r="Q65">
         <f t="shared" si="14"/>
-        <v>-1.6186681993514485</v>
+        <v>-2.7050179222191257</v>
       </c>
       <c r="R65">
         <f t="shared" si="15"/>
-        <v>0.16538862368097434</v>
+        <v>6.267790847178227E-2</v>
       </c>
       <c r="S65">
         <f t="shared" si="16"/>
-        <v>1.7784665959648831</v>
+        <v>2.7287738617107014</v>
       </c>
       <c r="T65">
         <f t="shared" si="17"/>
-        <v>0.855507418285821</v>
+        <v>0.93870332386513766</v>
       </c>
       <c r="U65">
         <f t="shared" si="18"/>
-        <v>1.2072812184733729E-2</v>
+        <v>1.387481020480735E-3</v>
       </c>
       <c r="V65">
         <f t="shared" si="19"/>
-        <v>9.0441272680725562E-3</v>
+        <v>1.3156744912424772E-3</v>
       </c>
       <c r="W65" s="3">
         <f t="shared" si="20"/>
-        <v>2.1116939452806287E-2</v>
+        <v>2.703155511723212E-3</v>
       </c>
       <c r="X65">
         <f t="shared" si="21"/>
-        <v>-7.8235025375671422E-4</v>
+        <v>-1.9739063036342973E-4</v>
       </c>
       <c r="Y65">
         <f t="shared" si="22"/>
-        <v>-1.5647005075134284E-3</v>
+        <v>-3.9478126072685945E-4</v>
       </c>
       <c r="Z65">
         <f t="shared" si="23"/>
-        <v>-7.8480849418481331E-4</v>
+        <v>-1.9861746310097353E-4</v>
       </c>
       <c r="AA65">
         <f t="shared" si="24"/>
-        <v>-1.5696169883696266E-3</v>
+        <v>-3.9723492620194706E-4</v>
       </c>
       <c r="AB65">
         <f t="shared" si="25"/>
-        <v>1.0951422070545128E-2</v>
+        <v>1.5967143754823502E-3</v>
       </c>
       <c r="AC65">
         <f t="shared" si="26"/>
-        <v>1.1031108164764766E-2</v>
+        <v>1.6082859504303537E-3</v>
       </c>
       <c r="AD65">
         <f t="shared" si="27"/>
-        <v>-8.4884623121793314E-3</v>
+        <v>-1.5228245481607918E-3</v>
       </c>
       <c r="AE65">
         <f t="shared" si="28"/>
-        <v>-8.5502271134289751E-3</v>
+        <v>-1.5338606349288957E-3</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -9926,111 +9979,111 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>0.21082414429402666</v>
+        <v>0.29702736962932907</v>
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
-        <v>0.32164828858805333</v>
+        <v>0.49405473925865817</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>0.31030811617416298</v>
+        <v>0.39694058432695117</v>
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>0.4206162323483259</v>
+        <v>0.59388116865390239</v>
       </c>
       <c r="I66">
         <f t="shared" si="6"/>
-        <v>4.2706036073506662E-2</v>
+        <v>6.4256842407332274E-2</v>
       </c>
       <c r="J66">
         <f t="shared" si="7"/>
-        <v>0.51067488665792538</v>
+        <v>0.51605868553387557</v>
       </c>
       <c r="K66">
         <f t="shared" si="8"/>
-        <v>5.7577029043540742E-2</v>
+        <v>7.9235146081737803E-2</v>
       </c>
       <c r="L66">
         <f t="shared" si="9"/>
-        <v>0.51439028202807324</v>
+        <v>0.51979842938202792</v>
       </c>
       <c r="M66">
         <f t="shared" si="10"/>
-        <v>-1.6190322221154141</v>
+        <v>-2.6419485385076182</v>
       </c>
       <c r="N66">
         <f t="shared" si="11"/>
-        <v>-1.5838404383890556</v>
+        <v>-2.6142112705301219</v>
       </c>
       <c r="O66">
         <f t="shared" si="12"/>
-        <v>1.7227606802740401</v>
+        <v>2.6173714598371243</v>
       </c>
       <c r="P66">
         <f t="shared" si="13"/>
-        <v>1.7817243407207426</v>
+        <v>2.6828467975206678</v>
       </c>
       <c r="Q66">
         <f t="shared" si="14"/>
-        <v>-1.6415112263147318</v>
+        <v>-2.7222634025247379</v>
       </c>
       <c r="R66">
         <f t="shared" si="15"/>
-        <v>0.16225953464236142</v>
+        <v>6.1672355682638243E-2</v>
       </c>
       <c r="S66">
         <f t="shared" si="16"/>
-        <v>1.7962723012573014</v>
+        <v>2.745256826741274</v>
       </c>
       <c r="T66">
         <f t="shared" si="17"/>
-        <v>0.85769455869201539</v>
+        <v>0.93964491360084124</v>
       </c>
       <c r="U66">
         <f t="shared" si="18"/>
-        <v>1.1591482944754228E-2</v>
+        <v>1.3350161708965383E-3</v>
       </c>
       <c r="V66">
         <f t="shared" si="19"/>
-        <v>8.7523648998502797E-3</v>
+        <v>1.2678173631333715E-3</v>
       </c>
       <c r="W66" s="3">
         <f t="shared" si="20"/>
-        <v>2.034384784460451E-2</v>
+        <v>2.6028335340299098E-3</v>
       </c>
       <c r="X66">
         <f t="shared" si="21"/>
-        <v>-7.6626112779699137E-4</v>
+        <v>-1.9198404383025526E-4</v>
       </c>
       <c r="Y66">
         <f t="shared" si="22"/>
-        <v>-1.5325222555939827E-3</v>
+        <v>-3.8396808766051052E-4</v>
       </c>
       <c r="Z66">
         <f t="shared" si="23"/>
-        <v>-7.6877092876064879E-4</v>
+        <v>-1.931794331119448E-4</v>
       </c>
       <c r="AA66">
         <f t="shared" si="24"/>
-        <v>-1.5375418575212976E-3</v>
+        <v>-3.863588662238896E-4</v>
       </c>
       <c r="AB66">
         <f t="shared" si="25"/>
-        <v>1.0569360693846596E-2</v>
+        <v>1.5431295988937927E-3</v>
       </c>
       <c r="AC66">
         <f t="shared" si="26"/>
-        <v>1.0646257668444929E-2</v>
+        <v>1.5543122600641878E-3</v>
       </c>
       <c r="AD66">
         <f t="shared" si="27"/>
-        <v>-8.2466273156250255E-3</v>
+        <v>-1.4737373167129147E-3</v>
       </c>
       <c r="AE66">
         <f t="shared" si="28"/>
-        <v>-8.3066253334408736E-3</v>
+        <v>-1.484417109958266E-3</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -10048,111 +10101,111 @@
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>0.21235666654962063</v>
+        <v>0.29894721006763164</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
-        <v>0.32471333309924127</v>
+        <v>0.49789442013526325</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>0.31184565803168429</v>
+        <v>0.39887237865807063</v>
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>0.42369131606336852</v>
+        <v>0.5977447573161413</v>
       </c>
       <c r="I67">
         <f t="shared" si="6"/>
-        <v>4.3089166637405155E-2</v>
+        <v>6.4736802516907915E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="7"/>
-        <v>0.51077062524721428</v>
+        <v>0.51617855086232711</v>
       </c>
       <c r="K67">
         <f t="shared" si="8"/>
-        <v>5.7961414507921069E-2</v>
+        <v>7.9718094664517666E-2</v>
       </c>
       <c r="L67">
         <f t="shared" si="9"/>
-        <v>0.5144862982632552</v>
+        <v>0.51991897606763193</v>
       </c>
       <c r="M67">
         <f t="shared" si="10"/>
-        <v>-1.6401709435031073</v>
+        <v>-2.657379834496556</v>
       </c>
       <c r="N67">
         <f t="shared" si="11"/>
-        <v>-1.6051329537259456</v>
+        <v>-2.6297543931307636</v>
       </c>
       <c r="O67">
         <f t="shared" si="12"/>
-        <v>1.73925393490529</v>
+        <v>2.6321088330042532</v>
       </c>
       <c r="P67">
         <f t="shared" si="13"/>
-        <v>1.7983375913876243</v>
+        <v>2.6976909686202504</v>
       </c>
       <c r="Q67">
         <f t="shared" si="14"/>
-        <v>-1.663570049908222</v>
+        <v>-2.7389416834471065</v>
       </c>
       <c r="R67">
         <f t="shared" si="15"/>
-        <v>0.15928334213694068</v>
+        <v>6.0714228952823669E-2</v>
       </c>
       <c r="S67">
         <f t="shared" si="16"/>
-        <v>1.8135798702159298</v>
+        <v>2.7612188492840053</v>
       </c>
       <c r="T67">
         <f t="shared" si="17"/>
-        <v>0.85979397760642395</v>
+        <v>0.94054383006724718</v>
       </c>
       <c r="U67">
         <f t="shared" si="18"/>
-        <v>1.1142758119787443E-2</v>
+        <v>1.2859665091397091E-3</v>
       </c>
       <c r="V67">
         <f t="shared" si="19"/>
-        <v>8.4768041337782117E-3</v>
+        <v>1.2229563722086618E-3</v>
       </c>
       <c r="W67" s="3">
         <f t="shared" si="20"/>
-        <v>1.9619562253565655E-2</v>
+        <v>2.5089228813483708E-3</v>
       </c>
       <c r="X67">
         <f t="shared" si="21"/>
-        <v>-7.5075080425383986E-4</v>
+        <v>-1.8686628858692836E-4</v>
       </c>
       <c r="Y67">
         <f t="shared" si="22"/>
-        <v>-1.5015016085076797E-3</v>
+        <v>-3.7373257717385671E-4</v>
       </c>
       <c r="Z67">
         <f t="shared" si="23"/>
-        <v>-7.5330327637945793E-4</v>
+        <v>-1.8803175303243154E-4</v>
       </c>
       <c r="AA67">
         <f t="shared" si="24"/>
-        <v>-1.5066065527589159E-3</v>
+        <v>-3.7606350606486308E-4</v>
       </c>
       <c r="AB67">
         <f t="shared" si="25"/>
-        <v>1.0210741332100282E-2</v>
+        <v>1.4928563108924575E-3</v>
       </c>
       <c r="AC67">
         <f t="shared" si="26"/>
-        <v>1.0285020811314842E-2</v>
+        <v>1.5036741129181947E-3</v>
       </c>
       <c r="AD67">
         <f t="shared" si="27"/>
-        <v>-8.0171138729414008E-3</v>
+        <v>-1.4275666776125734E-3</v>
       </c>
       <c r="AE67">
         <f t="shared" si="28"/>
-        <v>-8.0754354995419865E-3</v>
+        <v>-1.4379113662368386E-3</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -10170,111 +10223,111 @@
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>0.2138581681581283</v>
+        <v>0.30081587295350093</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
-        <v>0.32771633631625663</v>
+        <v>0.50163174590700177</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
-        <v>0.31335226458444321</v>
+        <v>0.40075269618839493</v>
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>0.42670452916888635</v>
+        <v>0.6015053923767899</v>
       </c>
       <c r="I68">
         <f t="shared" si="6"/>
-        <v>4.3464542039532081E-2</v>
+        <v>6.5203968238375223E-2</v>
       </c>
       <c r="J68">
         <f t="shared" si="7"/>
-        <v>0.51086442517147179</v>
+        <v>0.51629521913025667</v>
       </c>
       <c r="K68">
         <f t="shared" si="8"/>
-        <v>5.8338066146110798E-2</v>
+        <v>8.0188174047098743E-2</v>
       </c>
       <c r="L68">
         <f t="shared" si="9"/>
-        <v>0.51458038161692954</v>
+        <v>0.52003630830114433</v>
       </c>
       <c r="M68">
         <f t="shared" si="10"/>
-        <v>-1.660592426167308</v>
+        <v>-2.6723083976054807</v>
       </c>
       <c r="N68">
         <f t="shared" si="11"/>
-        <v>-1.6257029953485753</v>
+        <v>-2.6447911342599455</v>
       </c>
       <c r="O68">
         <f t="shared" si="12"/>
-        <v>1.7552881626511727</v>
+        <v>2.6463844997803792</v>
       </c>
       <c r="P68">
         <f t="shared" si="13"/>
-        <v>1.8144884623867084</v>
+        <v>2.7120700822826187</v>
       </c>
       <c r="Q68">
         <f t="shared" si="14"/>
-        <v>-1.6848924629803168</v>
+        <v>-2.7550874674134849</v>
       </c>
       <c r="R68">
         <f t="shared" si="15"/>
-        <v>0.15644871246614497</v>
+        <v>5.9799971338153811E-2</v>
       </c>
       <c r="S68">
         <f t="shared" si="16"/>
-        <v>1.8304144436375482</v>
+        <v>2.7766905786612597</v>
       </c>
       <c r="T68">
         <f t="shared" si="17"/>
-        <v>0.86181109145496626</v>
+        <v>0.94140315245429351</v>
       </c>
       <c r="U68">
         <f t="shared" si="18"/>
-        <v>1.0723612691495802E-2</v>
+        <v>1.2400185726404705E-3</v>
       </c>
       <c r="V68">
         <f t="shared" si="19"/>
-        <v>8.2161981369835105E-3</v>
+        <v>1.1808267956903188E-3</v>
       </c>
       <c r="W68" s="3">
         <f t="shared" si="20"/>
-        <v>1.8939810828479314E-2</v>
+        <v>2.4208453683307891E-3</v>
       </c>
       <c r="X68">
         <f t="shared" si="21"/>
-        <v>-7.3579598362805382E-4</v>
+        <v>-1.8201463941917831E-4</v>
       </c>
       <c r="Y68">
         <f t="shared" si="22"/>
-        <v>-1.4715919672561076E-3</v>
+        <v>-3.6402927883835663E-4</v>
       </c>
       <c r="Z68">
         <f t="shared" si="23"/>
-        <v>-7.3838335948771911E-4</v>
+        <v>-1.8315159306455699E-4</v>
       </c>
       <c r="AA68">
         <f t="shared" si="24"/>
-        <v>-1.4767667189754382E-3</v>
+        <v>-3.6630318612911397E-4</v>
       </c>
       <c r="AB68">
         <f t="shared" si="25"/>
-        <v>9.8735812607103311E-3</v>
+        <v>1.445600974277275E-3</v>
       </c>
       <c r="AC68">
         <f t="shared" si="26"/>
-        <v>9.9454003111622644E-3</v>
+        <v>1.4560758381727877E-3</v>
       </c>
       <c r="AD68">
         <f t="shared" si="27"/>
-        <v>-7.7990441084018767E-3</v>
+        <v>-1.3840637733621979E-3</v>
       </c>
       <c r="AE68">
         <f t="shared" si="28"/>
-        <v>-7.8557732654836159E-3</v>
+        <v>-1.3940927370296628E-3</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
@@ -10292,111 +10345,111 @@
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
-        <v>0.21532976012538441</v>
+        <v>0.30263601934769269</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
-        <v>0.33065952025076883</v>
+        <v>0.50527203869538528</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
-        <v>0.31482903130341866</v>
+        <v>0.4025842121190405</v>
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>0.4296580626068372</v>
+        <v>0.60516842423808104</v>
       </c>
       <c r="I69">
         <f t="shared" si="6"/>
-        <v>4.3832440031346107E-2</v>
+        <v>6.5659004836923163E-2</v>
       </c>
       <c r="J69">
         <f t="shared" si="7"/>
-        <v>0.51095635587583177</v>
+        <v>0.51640885660755598</v>
       </c>
       <c r="K69">
         <f t="shared" si="8"/>
-        <v>5.8707257825854654E-2</v>
+        <v>8.0646053029760134E-2</v>
       </c>
       <c r="L69">
         <f t="shared" si="9"/>
-        <v>0.51467260055386088</v>
+        <v>0.52015059317915124</v>
       </c>
       <c r="M69">
         <f t="shared" si="10"/>
-        <v>-1.6803395886887287</v>
+        <v>-2.6867644073482535</v>
       </c>
       <c r="N69">
         <f t="shared" si="11"/>
-        <v>-1.6455937959708999</v>
+        <v>-2.6593518926416735</v>
       </c>
       <c r="O69">
         <f t="shared" si="12"/>
-        <v>1.7708862508679766</v>
+        <v>2.6602251375140011</v>
       </c>
       <c r="P69">
         <f t="shared" si="13"/>
-        <v>1.8302000089176755</v>
+        <v>2.7260110096529155</v>
       </c>
       <c r="Q69">
         <f t="shared" si="14"/>
-        <v>-1.7055222312979295</v>
+        <v>-2.7707324000022542</v>
       </c>
       <c r="R69">
         <f t="shared" si="15"/>
-        <v>0.15374540535001166</v>
+        <v>5.8926385783467525E-2</v>
       </c>
       <c r="S69">
         <f t="shared" si="16"/>
-        <v>1.8467993835374747</v>
+        <v>2.7917000652661446</v>
       </c>
       <c r="T69">
         <f t="shared" si="17"/>
-        <v>0.86375087581625221</v>
+        <v>0.94222565987518947</v>
       </c>
       <c r="U69">
         <f t="shared" si="18"/>
-        <v>1.0331370779619578E-2</v>
+        <v>1.1968956129163465E-3</v>
       </c>
       <c r="V69">
         <f t="shared" si="19"/>
-        <v>7.9694206785816853E-3</v>
+        <v>1.1411937871805404E-3</v>
       </c>
       <c r="W69" s="3">
         <f t="shared" si="20"/>
-        <v>1.8300791458201265E-2</v>
+        <v>2.3380894000968868E-3</v>
       </c>
       <c r="X69">
         <f t="shared" si="21"/>
-        <v>-7.2137353422170385E-4</v>
+        <v>-1.7740870425353913E-4</v>
       </c>
       <c r="Y69">
         <f t="shared" si="22"/>
-        <v>-1.4427470684434077E-3</v>
+        <v>-3.5481740850707826E-4</v>
       </c>
       <c r="Z69">
         <f t="shared" si="23"/>
-        <v>-7.2398901866142676E-4</v>
+        <v>-1.7851846557046883E-4</v>
       </c>
       <c r="AA69">
         <f t="shared" si="24"/>
-        <v>-1.4479780373228535E-3</v>
+        <v>-3.5703693114093766E-4</v>
       </c>
       <c r="AB69">
         <f t="shared" si="25"/>
-        <v>9.5561061033292687E-3</v>
+        <v>1.4011035031502343E-3</v>
       </c>
       <c r="AC69">
         <f t="shared" si="26"/>
-        <v>9.6256087683627752E-3</v>
+        <v>1.411255459591817E-3</v>
       </c>
       <c r="AD69">
         <f t="shared" si="27"/>
-        <v>-7.591618926046333E-3</v>
+        <v>-1.343007074167139E-3</v>
       </c>
       <c r="AE69">
         <f t="shared" si="28"/>
-        <v>-7.6468336486094487E-3</v>
+        <v>-1.3527380821098266E-3</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -10414,111 +10467,111 @@
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>0.21677250719382782</v>
+        <v>0.30441010639022809</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>0.33354501438765566</v>
+        <v>0.50882021278045608</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
-        <v>0.31627700934074149</v>
+        <v>0.4043693967747452</v>
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>0.43255401868148291</v>
+        <v>0.60873879354949045</v>
       </c>
       <c r="I70">
         <f t="shared" si="6"/>
-        <v>4.419312679845696E-2</v>
+        <v>6.6102526597557026E-2</v>
       </c>
       <c r="J70">
         <f t="shared" si="7"/>
-        <v>0.51104648391299823</v>
+        <v>0.51651961682133185</v>
       </c>
       <c r="K70">
         <f t="shared" si="8"/>
-        <v>5.9069252335185368E-2</v>
+        <v>8.1092349193686311E-2</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
-        <v>0.51476302076788527</v>
+        <v>0.52026198499956933</v>
       </c>
       <c r="M70">
         <f t="shared" si="10"/>
-        <v>-1.6994518008953872</v>
+        <v>-2.7007754423797556</v>
       </c>
       <c r="N70">
         <f t="shared" si="11"/>
-        <v>-1.6648450135076256</v>
+        <v>-2.6734644472375915</v>
       </c>
       <c r="O70">
         <f t="shared" si="12"/>
-        <v>1.7860694887200692</v>
+        <v>2.6736552082556724</v>
       </c>
       <c r="P70">
         <f t="shared" si="13"/>
-        <v>1.8454936762148944</v>
+        <v>2.7395383904740136</v>
       </c>
       <c r="Q70">
         <f t="shared" si="14"/>
-        <v>-1.7254995156907365</v>
+        <v>-2.7859054167640602</v>
       </c>
       <c r="R70">
         <f t="shared" si="15"/>
-        <v>0.1511641467097469</v>
+        <v>5.8090589827826083E-2</v>
       </c>
       <c r="S70">
         <f t="shared" si="16"/>
-        <v>1.8627564318110865</v>
+        <v>2.8062730446911139</v>
       </c>
       <c r="T70">
         <f t="shared" si="17"/>
-        <v>0.86561790922800275</v>
+        <v>0.94301386777947138</v>
       </c>
       <c r="U70">
         <f t="shared" si="18"/>
-        <v>9.9636581581454726E-3</v>
+        <v>1.1563524149941046E-3</v>
       </c>
       <c r="V70">
         <f t="shared" si="19"/>
-        <v>7.7354522524066809E-3</v>
+        <v>1.1038483105224983E-3</v>
       </c>
       <c r="W70" s="3">
         <f t="shared" si="20"/>
-        <v>1.7699110410552152E-2</v>
+        <v>2.2602007255166029E-3</v>
       </c>
       <c r="X70">
         <f t="shared" si="21"/>
-        <v>-7.0746073464839001E-4</v>
+        <v>-1.7303013155881019E-4</v>
       </c>
       <c r="Y70">
         <f t="shared" si="22"/>
-        <v>-1.41492146929678E-3</v>
+        <v>-3.4606026311762039E-4</v>
       </c>
       <c r="Z70">
         <f t="shared" si="23"/>
-        <v>-7.1009837691832158E-4</v>
+        <v>-1.7411393157999331E-4</v>
       </c>
       <c r="AA70">
         <f t="shared" si="24"/>
-        <v>-1.4201967538366432E-3</v>
+        <v>-3.4822786315998663E-4</v>
       </c>
       <c r="AB70">
         <f t="shared" si="25"/>
-        <v>9.2567241917959949E-3</v>
+        <v>1.3591326508015325E-3</v>
       </c>
       <c r="AC70">
         <f t="shared" si="26"/>
-        <v>9.3240428363758707E-3</v>
+        <v>1.3689800498483777E-3</v>
       </c>
       <c r="AD70">
         <f t="shared" si="27"/>
-        <v>-7.3941096103203032E-3</v>
+        <v>-1.3041987435956383E-3</v>
       </c>
       <c r="AE70">
         <f t="shared" si="28"/>
-        <v>-7.4478825678513209E-3</v>
+        <v>-1.3136481269630427E-3</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
@@ -10536,111 +10589,111 @@
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
-        <v>0.2181874286631246</v>
+        <v>0.30614040770581619</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>0.33637485732624922</v>
+        <v>0.51228081541163228</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
-        <v>0.31769720609457813</v>
+        <v>0.40611053609054515</v>
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>0.4353944121891562</v>
+        <v>0.61222107218109034</v>
       </c>
       <c r="I71">
         <f t="shared" si="6"/>
-        <v>4.4546857165781148E-2</v>
+        <v>6.6535101926454038E-2</v>
       </c>
       <c r="J71">
         <f t="shared" si="7"/>
-        <v>0.51113487299464955</v>
+        <v>0.51662764183109755</v>
       </c>
       <c r="K71">
         <f t="shared" si="8"/>
-        <v>5.9424301523644529E-2</v>
+        <v>8.1527634022636297E-2</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
-        <v>0.5148517052173921</v>
+        <v>0.52037062654157018</v>
       </c>
       <c r="M71">
         <f t="shared" si="10"/>
-        <v>-1.7179652492789792</v>
+        <v>-2.7143667688877708</v>
       </c>
       <c r="N71">
         <f t="shared" si="11"/>
-        <v>-1.6834930991803774</v>
+        <v>-2.6871542477360753</v>
       </c>
       <c r="O71">
         <f t="shared" si="12"/>
-        <v>1.8008577079407098</v>
+        <v>2.6866971956916288</v>
       </c>
       <c r="P71">
         <f t="shared" si="13"/>
-        <v>1.860389441350597</v>
+        <v>2.7526748717436442</v>
       </c>
       <c r="Q71">
         <f t="shared" si="14"/>
-        <v>-1.7448612423341618</v>
+        <v>-2.8006330423834482</v>
       </c>
       <c r="R71">
         <f t="shared" si="15"/>
-        <v>0.14869651848670795</v>
+        <v>5.7289977066674644E-2</v>
       </c>
       <c r="S71">
         <f t="shared" si="16"/>
-        <v>1.8783058520774967</v>
+        <v>2.8204331841988655</v>
       </c>
       <c r="T71">
         <f t="shared" si="17"/>
-        <v>0.86741641191887808</v>
+        <v>0.94377005912383816</v>
       </c>
       <c r="U71">
         <f t="shared" si="18"/>
-        <v>9.6183621201668592E-3</v>
+        <v>1.1181709654833067E-3</v>
       </c>
       <c r="V71">
         <f t="shared" si="19"/>
-        <v>7.5133680334210865E-3</v>
+        <v>1.0686037167067094E-3</v>
       </c>
       <c r="W71" s="3">
         <f t="shared" si="20"/>
-        <v>1.7131730153587946E-2</v>
+        <v>2.1867746821900161E-3</v>
       </c>
       <c r="X71">
         <f t="shared" si="21"/>
-        <v>-6.9403544516917861E-4</v>
+        <v>-1.6886236075200665E-4</v>
       </c>
       <c r="Y71">
         <f t="shared" si="22"/>
-        <v>-1.3880708903383572E-3</v>
+        <v>-3.3772472150401329E-4</v>
       </c>
       <c r="Z71">
         <f t="shared" si="23"/>
-        <v>-6.9669002940520594E-4</v>
+        <v>-1.6992135039613918E-4</v>
       </c>
       <c r="AA71">
         <f t="shared" si="24"/>
-        <v>-1.3933800588104119E-3</v>
+        <v>-3.3984270079227835E-4</v>
       </c>
       <c r="AB71">
         <f t="shared" si="25"/>
-        <v>8.9740044770406542E-3</v>
+        <v>1.3194821378769333E-3</v>
       </c>
       <c r="AC71">
         <f t="shared" si="26"/>
-        <v>9.0392609695430746E-3</v>
+        <v>1.3290418305219305E-3</v>
       </c>
       <c r="AD71">
         <f t="shared" si="27"/>
-        <v>-7.2058504511620788E-3</v>
+        <v>-1.2674615674393847E-3</v>
       </c>
       <c r="AE71">
         <f t="shared" si="28"/>
-        <v>-7.2582494138707402E-3</v>
+        <v>-1.2766443692949392E-3</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -10658,111 +10711,111 @@
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
-        <v>0.21957549955346295</v>
+        <v>0.30782903131333628</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
-        <v>0.33915099910692592</v>
+        <v>0.51565806262667246</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>0.31909058615338853</v>
+        <v>0.40780974959450655</v>
       </c>
       <c r="H72">
         <f t="shared" si="5"/>
-        <v>0.438181172306777</v>
+        <v>0.61561949918901315</v>
       </c>
       <c r="I72">
         <f t="shared" si="6"/>
-        <v>4.4893874888365742E-2</v>
+        <v>6.695725782833406E-2</v>
       </c>
       <c r="J72">
         <f t="shared" si="7"/>
-        <v>0.51122158406424423</v>
+        <v>0.51673306334798097</v>
       </c>
       <c r="K72">
         <f t="shared" si="8"/>
-        <v>5.9772646538347129E-2</v>
+        <v>8.1952437398626649E-2</v>
       </c>
       <c r="L72">
         <f t="shared" si="9"/>
-        <v>0.51493871418448911</v>
+        <v>0.5204766501890572</v>
       </c>
       <c r="M72">
         <f t="shared" si="10"/>
-        <v>-1.7359132582330605</v>
+        <v>-2.7275615902665402</v>
       </c>
       <c r="N72">
         <f t="shared" si="11"/>
-        <v>-1.7015716211194636</v>
+        <v>-2.7004446660412946</v>
       </c>
       <c r="O72">
         <f t="shared" si="12"/>
-        <v>1.8152694088430339</v>
+        <v>2.6993718113660226</v>
       </c>
       <c r="P72">
         <f t="shared" si="13"/>
-        <v>1.8749059401783386</v>
+        <v>2.7654413154365938</v>
       </c>
       <c r="Q72">
         <f t="shared" si="14"/>
-        <v>-1.763641428344102</v>
+        <v>-2.8149396498108001</v>
       </c>
       <c r="R72">
         <f t="shared" si="15"/>
-        <v>0.14633486295654599</v>
+        <v>5.6522184213790606E-2</v>
       </c>
       <c r="S72">
         <f t="shared" si="16"/>
-        <v>1.8934665567443942</v>
+        <v>2.834202297355211</v>
       </c>
       <c r="T72">
         <f t="shared" si="17"/>
-        <v>0.86915028012989315</v>
+        <v>0.94449631116793453</v>
       </c>
       <c r="U72">
         <f t="shared" si="18"/>
-        <v>9.2935974286900876E-3</v>
+        <v>1.0821568120109339E-3</v>
       </c>
       <c r="V72">
         <f t="shared" si="19"/>
-        <v>7.3023273963416478E-3</v>
+        <v>1.0352928486627195E-3</v>
       </c>
       <c r="W72" s="3">
         <f t="shared" si="20"/>
-        <v>1.6595924825031735E-2</v>
+        <v>2.1174496606736534E-3</v>
       </c>
       <c r="X72">
         <f t="shared" si="21"/>
-        <v>-6.8107622505762723E-4</v>
+        <v>-1.6489040840836578E-4</v>
       </c>
       <c r="Y72">
         <f t="shared" si="22"/>
-        <v>-1.3621524501152545E-3</v>
+        <v>-3.2978081681673155E-4</v>
       </c>
       <c r="Z72">
         <f t="shared" si="23"/>
-        <v>-6.8374317624980533E-4</v>
+        <v>-1.6592566508927888E-4</v>
       </c>
       <c r="AA72">
         <f t="shared" si="24"/>
-        <v>-1.3674863524996107E-3</v>
+        <v>-3.3185133017855776E-4</v>
       </c>
       <c r="AB72">
         <f t="shared" si="25"/>
-        <v>8.7066574544631299E-3</v>
+        <v>1.281967386124431E-3</v>
       </c>
       <c r="AC72">
         <f t="shared" si="26"/>
-        <v>8.7699642076978918E-3</v>
+        <v>1.2912548820827696E-3</v>
       </c>
       <c r="AD72">
         <f t="shared" si="27"/>
-        <v>-7.0262322544316098E-3</v>
+        <v>-1.2326363467451799E-3</v>
       </c>
       <c r="AE72">
         <f t="shared" si="28"/>
-        <v>-7.0773205111854592E-3</v>
+        <v>-1.2415664530898557E-3</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -10780,111 +10833,111 @@
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
-        <v>0.22093765200357821</v>
+        <v>0.30947793539741991</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
-        <v>0.34187530400715643</v>
+        <v>0.51895587079483974</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
-        <v>0.32045807250588815</v>
+        <v>0.40946900624539934</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>0.44091614501177623</v>
+        <v>0.61893801249079872</v>
       </c>
       <c r="I73">
         <f t="shared" si="6"/>
-        <v>4.5234413000894549E-2</v>
+        <v>6.7369483849354969E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="7"/>
-        <v>0.51130667538448427</v>
+        <v>0.51683600372032268</v>
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>6.0114518126472033E-2</v>
+        <v>8.2367251561349844E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="9"/>
-        <v>0.51502410535075049</v>
+        <v>0.52058017892012109</v>
       </c>
       <c r="M73">
         <f t="shared" si="10"/>
-        <v>-1.7533265731419867</v>
+        <v>-2.7403812641277847</v>
       </c>
       <c r="N73">
         <f t="shared" si="11"/>
-        <v>-1.7191115495348595</v>
+        <v>-2.7133572148621221</v>
       </c>
       <c r="O73">
         <f t="shared" si="12"/>
-        <v>1.8293218733518972</v>
+        <v>2.7116981748334745</v>
       </c>
       <c r="P73">
         <f t="shared" si="13"/>
-        <v>1.8890605812007095</v>
+        <v>2.7778569799674924</v>
       </c>
       <c r="Q73">
         <f t="shared" si="14"/>
-        <v>-1.7818714687738333</v>
+        <v>-2.8288476856089755</v>
       </c>
       <c r="R73">
         <f t="shared" si="15"/>
-        <v>0.14407219940866936</v>
+        <v>5.5785062828249486E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="16"/>
-        <v>1.9082562210579392</v>
+        <v>2.8476005316226103</v>
       </c>
       <c r="T73">
         <f t="shared" si="17"/>
-        <v>0.8708231165936291</v>
+        <v>0.94519451860112957</v>
       </c>
       <c r="U73">
         <f t="shared" si="18"/>
-        <v>8.9876773271389994E-3</v>
+        <v>1.0481359890933764E-3</v>
       </c>
       <c r="V73">
         <f t="shared" si="19"/>
-        <v>7.1015647692278605E-3</v>
+        <v>1.0037655816922614E-3</v>
       </c>
       <c r="W73" s="3">
         <f t="shared" si="20"/>
-        <v>1.6089242096366859E-2</v>
+        <v>2.0519015707856376E-3</v>
       </c>
       <c r="X73">
         <f t="shared" si="21"/>
-        <v>-6.6856240913739458E-4</v>
+        <v>-1.6110068442044617E-4</v>
       </c>
       <c r="Y73">
         <f t="shared" si="22"/>
-        <v>-1.3371248182747892E-3</v>
+        <v>-3.2220136884089233E-4</v>
       </c>
       <c r="Z73">
         <f t="shared" si="23"/>
-        <v>-6.712377122014663E-4</v>
+        <v>-1.6211321801654622E-4</v>
       </c>
       <c r="AA73">
         <f t="shared" si="24"/>
-        <v>-1.3424754244029326E-3</v>
+        <v>-3.2422643603309244E-4</v>
       </c>
       <c r="AB73">
         <f t="shared" si="25"/>
-        <v>8.4535186532097347E-3</v>
+        <v>1.2464227502714839E-3</v>
       </c>
       <c r="AC73">
         <f t="shared" si="26"/>
-        <v>8.5149795436590958E-3</v>
+        <v>1.2554523556326392E-3</v>
       </c>
       <c r="AD73">
         <f t="shared" si="27"/>
-        <v>-6.8546966191605947E-3</v>
+        <v>-1.1995796753658716E-3</v>
       </c>
       <c r="AE73">
         <f t="shared" si="28"/>
-        <v>-6.9045333528636506E-3</v>
+        <v>-1.2082699299889176E-3</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -10902,111 +10955,111 @@
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
-        <v>0.22227477682185298</v>
+        <v>0.31108894224162437</v>
       </c>
       <c r="F74">
         <f t="shared" si="3"/>
-        <v>0.34454955364370599</v>
+        <v>0.52217788448324864</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
-        <v>0.32180054793029106</v>
+        <v>0.4110901384255648</v>
       </c>
       <c r="H74">
         <f t="shared" si="5"/>
-        <v>0.44360109586058211</v>
+        <v>0.62218027685112964</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
-        <v>4.556869420546325E-2</v>
+        <v>6.7772235560406083E-2</v>
       </c>
       <c r="J74">
         <f t="shared" si="7"/>
-        <v>0.51139020263433543</v>
+        <v>0.51693657680438321</v>
       </c>
       <c r="K74">
         <f t="shared" si="8"/>
-        <v>6.0450136982572761E-2</v>
+        <v>8.277253460639121E-2</v>
       </c>
       <c r="L74">
         <f t="shared" si="9"/>
-        <v>0.5151079338841501</v>
+        <v>0.52068132718123317</v>
       </c>
       <c r="M74">
         <f t="shared" si="10"/>
-        <v>-1.7702336104484062</v>
+        <v>-2.7528454916304996</v>
       </c>
       <c r="N74">
         <f t="shared" si="11"/>
-        <v>-1.7361415086221776</v>
+        <v>-2.7259117384184486</v>
       </c>
       <c r="O74">
         <f t="shared" si="12"/>
-        <v>1.8430312665902184</v>
+        <v>2.7236939715871333</v>
       </c>
       <c r="P74">
         <f t="shared" si="13"/>
-        <v>1.9028696479064369</v>
+        <v>2.7899396792673814</v>
       </c>
       <c r="Q74">
         <f t="shared" si="14"/>
-        <v>-1.7995803901942029</v>
+        <v>-2.8423778666534703</v>
       </c>
       <c r="R74">
         <f t="shared" si="15"/>
-        <v>0.14190215140199863</v>
+        <v>5.5076654946875067E-2</v>
       </c>
       <c r="S74">
         <f t="shared" si="16"/>
-        <v>1.9226913856669325</v>
+        <v>2.8606465328915118</v>
       </c>
       <c r="T74">
         <f t="shared" si="17"/>
-        <v>0.87243825765849548</v>
+        <v>0.94586641357827328</v>
       </c>
       <c r="U74">
         <f t="shared" si="18"/>
-        <v>8.6990887722378837E-3</v>
+        <v>1.0159524105998181E-3</v>
       </c>
       <c r="V74">
         <f t="shared" si="19"/>
-        <v>6.9103816311851477E-3</v>
+        <v>9.7388672522201014E-4</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" si="20"/>
-        <v>1.5609470403423031E-2</v>
+        <v>1.9898391358218284E-3</v>
       </c>
       <c r="X74">
         <f t="shared" si="21"/>
-        <v>-6.5647415355098116E-4</v>
+        <v>-1.5748083332059383E-4</v>
       </c>
       <c r="Y74">
         <f t="shared" si="22"/>
-        <v>-1.3129483071019623E-3</v>
+        <v>-3.1496166664118767E-4</v>
       </c>
       <c r="Z74">
         <f t="shared" si="23"/>
-        <v>-6.591542835144411E-4</v>
+        <v>-1.5847159157273029E-4</v>
       </c>
       <c r="AA74">
         <f t="shared" si="24"/>
-        <v>-1.3183085670288822E-3</v>
+        <v>-3.1694318314546058E-4</v>
       </c>
       <c r="AB74">
         <f t="shared" si="25"/>
-        <v>8.2135343105838223E-3</v>
+        <v>1.2126991617962459E-3</v>
       </c>
       <c r="AC74">
         <f t="shared" si="26"/>
-        <v>8.2732454920272352E-3</v>
+        <v>1.2214840995369942E-3</v>
       </c>
       <c r="AD74">
         <f t="shared" si="27"/>
-        <v>-6.6907308804302927E-3</v>
+        <v>-1.1681620375987684E-3</v>
       </c>
       <c r="AE74">
         <f t="shared" si="28"/>
-        <v>-6.7393715058277678E-3</v>
+        <v>-1.1766243430861498E-3</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -11024,111 +11077,111 @@
       </c>
       <c r="E75">
         <f t="shared" si="2"/>
-        <v>0.22358772512895494</v>
+        <v>0.31266375057483031</v>
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
-        <v>0.34717545025790991</v>
+        <v>0.52532750114966054</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
-        <v>0.32311885649731992</v>
+        <v>0.41267485434129209</v>
       </c>
       <c r="H75">
         <f t="shared" si="5"/>
-        <v>0.44623771299463988</v>
+        <v>0.62534970868258422</v>
       </c>
       <c r="I75">
         <f t="shared" si="6"/>
-        <v>4.5896931282238734E-2</v>
+        <v>6.8165937643707569E-2</v>
       </c>
       <c r="J75">
         <f t="shared" si="7"/>
-        <v>0.51147221901175899</v>
+        <v>0.5170348887358871</v>
       </c>
       <c r="K75">
         <f t="shared" si="8"/>
-        <v>6.0779714124329989E-2</v>
+        <v>8.3168713585323018E-2</v>
       </c>
       <c r="L75">
         <f t="shared" si="9"/>
-        <v>0.51519025253308814</v>
+        <v>0.52078020166194328</v>
       </c>
       <c r="M75">
         <f t="shared" si="10"/>
-        <v>-1.7866606790695738</v>
+        <v>-2.7649724832484619</v>
       </c>
       <c r="N75">
         <f t="shared" si="11"/>
-        <v>-1.7526879996062321</v>
+        <v>-2.7381265794138185</v>
       </c>
       <c r="O75">
         <f t="shared" si="12"/>
-        <v>1.856412728351079</v>
+        <v>2.7353755919631211</v>
       </c>
       <c r="P75">
         <f t="shared" si="13"/>
-        <v>1.9163483909180925</v>
+        <v>2.8017059226982428</v>
       </c>
       <c r="Q75">
         <f t="shared" si="14"/>
-        <v>-1.8167950752736188</v>
+        <v>-2.8555493524372135</v>
       </c>
       <c r="R75">
         <f t="shared" si="15"/>
-        <v>0.1398188830907173</v>
+        <v>5.439517200160298E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="16"/>
-        <v>1.9367875490298694</v>
+        <v>2.8733575902617652</v>
       </c>
       <c r="T75">
         <f t="shared" si="17"/>
-        <v>0.87399879747688869</v>
+        <v>0.94651358314002509</v>
       </c>
       <c r="U75">
         <f t="shared" si="18"/>
-        <v>8.4264712034606611E-3</v>
+        <v>9.854656485259565E-4</v>
       </c>
       <c r="V75">
         <f t="shared" si="19"/>
-        <v>6.728139493403942E-3</v>
+        <v>9.4553422565975449E-4</v>
       </c>
       <c r="W75" s="3">
         <f t="shared" si="20"/>
-        <v>1.5154610696864603E-2</v>
+        <v>1.9309998741857109E-3</v>
       </c>
       <c r="X75">
         <f t="shared" si="21"/>
-        <v>-6.447924584668999E-4</v>
+        <v>-1.5401959683557486E-4</v>
       </c>
       <c r="Y75">
         <f t="shared" si="22"/>
-        <v>-1.2895849169337998E-3</v>
+        <v>-3.0803919367114972E-4</v>
       </c>
       <c r="Z75">
         <f t="shared" si="23"/>
-        <v>-6.4747432010656407E-4</v>
+        <v>-1.5498947023409525E-4</v>
       </c>
       <c r="AA75">
         <f t="shared" si="24"/>
-        <v>-1.2949486402131281E-3</v>
+        <v>-3.099789404681905E-4</v>
       </c>
       <c r="AB75">
         <f t="shared" si="25"/>
-        <v>7.9857489127844027E-3</v>
+        <v>1.1806621149772463E-3</v>
       </c>
       <c r="AC75">
         <f t="shared" si="26"/>
-        <v>8.0437995381106783E-3</v>
+        <v>1.1892146308264968E-3</v>
       </c>
       <c r="AD75">
         <f t="shared" si="27"/>
-        <v>-6.5338636312909136E-3</v>
+        <v>-1.1382661735085057E-3</v>
       </c>
       <c r="AE75">
         <f t="shared" si="28"/>
-        <v>-6.5813600995289559E-3</v>
+        <v>-1.1465115803578521E-3</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -11146,111 +11199,111 @@
       </c>
       <c r="E76">
         <f t="shared" si="2"/>
-        <v>0.22487731004588873</v>
+        <v>0.31420394654318606</v>
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
-        <v>0.34975462009177749</v>
+        <v>0.52840789308637204</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
-        <v>0.32441380513753304</v>
+        <v>0.41422474904363304</v>
       </c>
       <c r="H76">
         <f t="shared" si="5"/>
-        <v>0.44882761027506612</v>
+        <v>0.62844949808726613</v>
       </c>
       <c r="I76">
         <f t="shared" si="6"/>
-        <v>4.6219327511472189E-2</v>
+        <v>6.8550986635796507E-2</v>
       </c>
       <c r="J76">
         <f t="shared" si="7"/>
-        <v>0.51155277533927301</v>
+        <v>0.51713103861566967</v>
       </c>
       <c r="K76">
         <f t="shared" si="8"/>
-        <v>6.110345128438327E-2</v>
+        <v>8.3556187260908271E-2</v>
       </c>
       <c r="L76">
         <f t="shared" si="9"/>
-        <v>0.51527111172442475</v>
+        <v>0.52087690198338465</v>
       </c>
       <c r="M76">
         <f t="shared" si="10"/>
-        <v>-1.8026321768951425</v>
+        <v>-2.7767791043982344</v>
       </c>
       <c r="N76">
         <f t="shared" si="11"/>
-        <v>-1.7687755986824534</v>
+        <v>-2.7500187257220836</v>
       </c>
       <c r="O76">
         <f t="shared" si="12"/>
-        <v>1.8694804556136608</v>
+        <v>2.7467582536982063</v>
       </c>
       <c r="P76">
         <f t="shared" si="13"/>
-        <v>1.9295111111171503</v>
+        <v>2.8131710385018214</v>
       </c>
       <c r="Q76">
         <f t="shared" si="14"/>
-        <v>-1.8335404621307283</v>
+        <v>-2.868379896514162</v>
       </c>
       <c r="R76">
         <f t="shared" si="15"/>
-        <v>0.13781704334866499</v>
+        <v>5.3738976512062164E-2</v>
       </c>
       <c r="S76">
         <f t="shared" si="16"/>
-        <v>1.9505592508216609</v>
+        <v>2.8857497638453262</v>
       </c>
       <c r="T76">
         <f t="shared" si="17"/>
-        <v>0.87550760961810925</v>
+        <v>0.94713748441100465</v>
       </c>
       <c r="U76">
         <f t="shared" si="18"/>
-        <v>8.1685982851972504E-3</v>
+        <v>9.5654903316136277E-4</v>
       </c>
       <c r="V76">
         <f t="shared" si="19"/>
-        <v>6.5542537276796339E-3</v>
+        <v>9.1859762130843433E-4</v>
       </c>
       <c r="W76" s="3">
         <f t="shared" si="20"/>
-        <v>1.4722852012876885E-2</v>
+        <v>1.8751466544697972E-3</v>
       </c>
       <c r="X76">
         <f t="shared" si="21"/>
-        <v>-6.3349917363562491E-4</v>
+        <v>-1.5070669442887374E-4</v>
       </c>
       <c r="Y76">
         <f t="shared" si="22"/>
-        <v>-1.2669983472712498E-3</v>
+        <v>-3.0141338885774748E-4</v>
       </c>
       <c r="Z76">
         <f t="shared" si="23"/>
-        <v>-6.3618004917239757E-4</v>
+        <v>-1.5165652064393068E-4</v>
       </c>
       <c r="AA76">
         <f t="shared" si="24"/>
-        <v>-1.2723600983447951E-3</v>
+        <v>-3.0331304128786136E-4</v>
       </c>
       <c r="AB76">
         <f t="shared" si="25"/>
-        <v>7.7692943332153212E-3</v>
+        <v>1.1501899387128497E-3</v>
       </c>
       <c r="AC76">
         <f t="shared" si="26"/>
-        <v>7.8257671962292854E-3</v>
+        <v>1.1585213944476907E-3</v>
       </c>
       <c r="AD76">
         <f t="shared" si="27"/>
-        <v>-6.3836607494787657E-3</v>
+        <v>-1.1097856690952619E-3</v>
       </c>
       <c r="AE76">
         <f t="shared" si="28"/>
-        <v>-6.4300618231891158E-3</v>
+        <v>-1.1178244545740979E-3</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -11268,111 +11321,111 @@
       </c>
       <c r="E77">
         <f t="shared" si="2"/>
-        <v>0.22614430839315999</v>
+        <v>0.31571101348747482</v>
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
-        <v>0.35228861678632001</v>
+        <v>0.53142202697494956</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
-        <v>0.32568616523587784</v>
+        <v>0.41574131425007232</v>
       </c>
       <c r="H77">
         <f t="shared" si="5"/>
-        <v>0.45137233047175573</v>
+        <v>0.63148262850014469</v>
       </c>
       <c r="I77">
         <f t="shared" si="6"/>
-        <v>4.6536077098290003E-2</v>
+        <v>6.8927753371868697E-2</v>
       </c>
       <c r="J77">
         <f t="shared" si="7"/>
-        <v>0.51163192017020198</v>
+        <v>0.51722511912067104</v>
       </c>
       <c r="K77">
         <f t="shared" si="8"/>
-        <v>6.1421541308969471E-2</v>
+        <v>8.3935328562518091E-2</v>
       </c>
       <c r="L77">
         <f t="shared" si="9"/>
-        <v>0.51535055966320231</v>
+        <v>0.5209715213118592</v>
       </c>
       <c r="M77">
         <f t="shared" si="10"/>
-        <v>-1.8181707655615731</v>
+        <v>-2.7882810037853627</v>
       </c>
       <c r="N77">
         <f t="shared" si="11"/>
-        <v>-1.784427133074912</v>
+        <v>-2.7616039396665606</v>
       </c>
       <c r="O77">
         <f t="shared" si="12"/>
-        <v>1.8822477771126183</v>
+        <v>2.757856110389159</v>
       </c>
       <c r="P77">
         <f t="shared" si="13"/>
-        <v>1.9423712347635287</v>
+        <v>2.8243492830475625</v>
       </c>
       <c r="Q77">
         <f t="shared" si="14"/>
-        <v>-1.8498397216899534</v>
+        <v>-2.8808859800337006</v>
       </c>
       <c r="R77">
         <f t="shared" si="15"/>
-        <v>0.13589171661664354</v>
+        <v>5.3106566132651668E-2</v>
       </c>
       <c r="S77">
         <f t="shared" si="16"/>
-        <v>1.9640201473493131</v>
+        <v>2.8978379979190505</v>
       </c>
       <c r="T77">
         <f t="shared" si="17"/>
-        <v>0.87696736641767692</v>
+        <v>0.9477394579024504</v>
       </c>
       <c r="U77">
         <f t="shared" si="18"/>
-        <v>7.924362156342641E-3</v>
+        <v>9.2908802187433579E-4</v>
       </c>
       <c r="V77">
         <f t="shared" si="19"/>
-        <v>6.3881881272778544E-3</v>
+        <v>8.9297670918938058E-4</v>
       </c>
       <c r="W77" s="3">
         <f t="shared" si="20"/>
-        <v>1.4312550283620495E-2</v>
+        <v>1.8220647310637165E-3</v>
       </c>
       <c r="X77">
         <f t="shared" si="21"/>
-        <v>-6.2257699132771123E-4</v>
+        <v>-1.4753271914078958E-4</v>
       </c>
       <c r="Y77">
         <f t="shared" si="22"/>
-        <v>-1.2451539826554225E-3</v>
+        <v>-2.9506543828157917E-4</v>
       </c>
       <c r="Z77">
         <f t="shared" si="23"/>
-        <v>-6.2525449500658867E-4</v>
+        <v>-1.4846328704393782E-4</v>
       </c>
       <c r="AA77">
         <f t="shared" si="24"/>
-        <v>-1.2505089900131773E-3</v>
+        <v>-2.9692657408787564E-4</v>
       </c>
       <c r="AB77">
         <f t="shared" si="25"/>
-        <v>7.5633803414006081E-3</v>
+        <v>1.1211723080000516E-3</v>
       </c>
       <c r="AC77">
         <f t="shared" si="26"/>
-        <v>7.6183524487483242E-3</v>
+        <v>1.1292932639167556E-3</v>
       </c>
       <c r="AD77">
         <f t="shared" si="27"/>
-        <v>-6.2397218651324875E-3</v>
+        <v>-1.0826237361156797E-3</v>
       </c>
       <c r="AE77">
         <f t="shared" si="28"/>
-        <v>-6.2850733673321555E-3</v>
+        <v>-1.0904654742433862E-3</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
@@ -11390,111 +11443,111 @@
       </c>
       <c r="E78">
         <f t="shared" si="2"/>
-        <v>0.22738946237581542</v>
+        <v>0.31718634067888274</v>
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
-        <v>0.35477892475163086</v>
+        <v>0.53437268135776539</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
-        <v>0.32693667422589101</v>
+        <v>0.4172259471205117</v>
       </c>
       <c r="H78">
         <f t="shared" si="5"/>
-        <v>0.45387334845178207</v>
+        <v>0.63445189424102344</v>
       </c>
       <c r="I78">
         <f t="shared" si="6"/>
-        <v>4.684736559395386E-2</v>
+        <v>6.9296585169720676E-2</v>
       </c>
       <c r="J78">
         <f t="shared" si="7"/>
-        <v>0.51170969989403736</v>
+        <v>0.51731721704983757</v>
       </c>
       <c r="K78">
         <f t="shared" si="8"/>
-        <v>6.1734168556472763E-2</v>
+        <v>8.4306486780127934E-2</v>
       </c>
       <c r="L78">
         <f t="shared" si="9"/>
-        <v>0.51542864243233755</v>
+        <v>0.5210641469070928</v>
       </c>
       <c r="M78">
         <f t="shared" si="10"/>
-        <v>-1.8332975262443743</v>
+        <v>-2.7994927268653633</v>
       </c>
       <c r="N78">
         <f t="shared" si="11"/>
-        <v>-1.7996638379724086</v>
+        <v>-2.7728968723057283</v>
       </c>
       <c r="O78">
         <f t="shared" si="12"/>
-        <v>1.8947272208428831</v>
+        <v>2.7686823477503157</v>
       </c>
       <c r="P78">
         <f t="shared" si="13"/>
-        <v>1.9549413814981931</v>
+        <v>2.8352539377899966</v>
       </c>
       <c r="Q78">
         <f t="shared" si="14"/>
-        <v>-1.8657144158116785</v>
+        <v>-2.8930829298425813</v>
       </c>
       <c r="R78">
         <f t="shared" si="15"/>
-        <v>0.13403837956013046</v>
+        <v>5.2496559705186747E-2</v>
       </c>
       <c r="S78">
         <f t="shared" si="16"/>
-        <v>1.9771830798589871</v>
+        <v>2.909636221392724</v>
       </c>
       <c r="T78">
         <f t="shared" si="17"/>
-        <v>0.87838055633276946</v>
+        <v>0.94832073919197535</v>
       </c>
       <c r="U78">
         <f t="shared" si="18"/>
-        <v>7.6927598019514952E-3</v>
+        <v>9.0297879338825085E-4</v>
       </c>
       <c r="V78">
         <f t="shared" si="19"/>
-        <v>6.2294501022910256E-3</v>
+        <v>8.685803907516695E-4</v>
       </c>
       <c r="W78" s="3">
         <f t="shared" si="20"/>
-        <v>1.3922209904242521E-2</v>
+        <v>1.7715591841399203E-3</v>
       </c>
       <c r="X78">
         <f t="shared" si="21"/>
-        <v>-6.1200943012998084E-4</v>
+        <v>-1.444890464866863E-4</v>
       </c>
       <c r="Y78">
         <f t="shared" si="22"/>
-        <v>-1.2240188602599617E-3</v>
+        <v>-2.8897809297337261E-4</v>
       </c>
       <c r="Z78">
         <f t="shared" si="23"/>
-        <v>-6.1468146869775612E-4</v>
+        <v>-1.4540109980642067E-4</v>
       </c>
       <c r="AA78">
         <f t="shared" si="24"/>
-        <v>-1.2293629373955122E-3</v>
+        <v>-2.9080219961284134E-4</v>
       </c>
       <c r="AB78">
         <f t="shared" si="25"/>
-        <v>7.3672862904689725E-3</v>
+        <v>1.0935089572592265E-3</v>
       </c>
       <c r="AC78">
         <f t="shared" si="26"/>
-        <v>7.4208293723826719E-3</v>
+        <v>1.1014292452877147E-3</v>
       </c>
       <c r="AD78">
         <f t="shared" si="27"/>
-        <v>-6.1016772145701522E-3</v>
+        <v>-1.0566921525105681E-3</v>
       </c>
       <c r="AE78">
         <f t="shared" si="28"/>
-        <v>-6.1460222542536695E-3</v>
+        <v>-1.0643457763330046E-3</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
@@ -11512,111 +11565,111 @@
       </c>
       <c r="E79">
         <f t="shared" si="2"/>
-        <v>0.22861348123607539</v>
+        <v>0.31863123114374958</v>
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
-        <v>0.3572269624721508</v>
+        <v>0.53726246228749908</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
-        <v>0.32816603716328652</v>
+        <v>0.41867995811857589</v>
       </c>
       <c r="H79">
         <f t="shared" si="5"/>
-        <v>0.45633207432657308</v>
+        <v>0.63735991623715182</v>
       </c>
       <c r="I79">
         <f t="shared" si="6"/>
-        <v>4.7153370309018852E-2</v>
+        <v>6.9657807785937387E-2</v>
       </c>
       <c r="J79">
         <f t="shared" si="7"/>
-        <v>0.51178615883976708</v>
+        <v>0.51740741381308897</v>
       </c>
       <c r="K79">
         <f t="shared" si="8"/>
-        <v>6.2041509290821639E-2</v>
+        <v>8.4669989529643983E-2</v>
       </c>
       <c r="L79">
         <f t="shared" si="9"/>
-        <v>0.51550540409101553</v>
+        <v>0.52115486061334293</v>
       </c>
       <c r="M79">
         <f t="shared" si="10"/>
-        <v>-1.8480320988253123</v>
+        <v>-2.8104278164379557</v>
       </c>
       <c r="N79">
         <f t="shared" si="11"/>
-        <v>-1.8145054967171739</v>
+        <v>-2.7839111647586057</v>
       </c>
       <c r="O79">
         <f t="shared" si="12"/>
-        <v>1.9069305752720234</v>
+        <v>2.7792492692754216</v>
       </c>
       <c r="P79">
         <f t="shared" si="13"/>
-        <v>1.9672334260067004</v>
+        <v>2.8458973955533264</v>
       </c>
       <c r="Q79">
         <f t="shared" si="14"/>
-        <v>-1.881184638580955</v>
+        <v>-2.9049850232412298</v>
       </c>
       <c r="R79">
         <f t="shared" si="15"/>
-        <v>0.13225286276139259</v>
+        <v>5.1907685026425836E-2</v>
       </c>
       <c r="S79">
         <f t="shared" si="16"/>
-        <v>1.990060136507513</v>
+        <v>2.9211574372571825</v>
       </c>
       <c r="T79">
         <f t="shared" si="17"/>
-        <v>0.87974949953776427</v>
+        <v>0.94888246920882957</v>
       </c>
       <c r="U79">
         <f t="shared" si="18"/>
-        <v>7.4728812266779453E-3</v>
+        <v>8.7812703213705802E-4</v>
       </c>
       <c r="V79">
         <f t="shared" si="19"/>
-        <v>6.07758642608672E-3</v>
+        <v>8.4532566918142378E-4</v>
       </c>
       <c r="W79" s="3">
         <f t="shared" si="20"/>
-        <v>1.3550467652764665E-2</v>
+        <v>1.7234527013184819E-3</v>
       </c>
       <c r="X79">
         <f t="shared" si="21"/>
-        <v>-6.0178081226175243E-4</v>
+        <v>-1.4156775454094765E-4</v>
       </c>
       <c r="Y79">
         <f t="shared" si="22"/>
-        <v>-1.2035616245235049E-3</v>
+        <v>-2.831355090818953E-4</v>
       </c>
       <c r="Z79">
         <f t="shared" si="23"/>
-        <v>-6.0444555050823026E-4</v>
+        <v>-1.424619951900413E-4</v>
       </c>
       <c r="AA79">
         <f t="shared" si="24"/>
-        <v>-1.2088911010164605E-3</v>
+        <v>-2.849239903800826E-4</v>
       </c>
       <c r="AB79">
         <f t="shared" si="25"/>
-        <v>7.1803538203946277E-3</v>
+        <v>1.0671085643481272E-3</v>
       </c>
       <c r="AC79">
         <f t="shared" si="26"/>
-        <v>7.232534787752808E-3</v>
+        <v>1.0748373530516354E-3</v>
       </c>
       <c r="AD79">
         <f t="shared" si="27"/>
-        <v>-5.9691848327181173E-3</v>
+        <v>-1.0319103393599885E-3</v>
       </c>
       <c r="AE79">
         <f t="shared" si="28"/>
-        <v>-6.0125640096642882E-3</v>
+        <v>-1.0393841965103626E-3</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -11634,111 +11687,111 @@
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
-        <v>0.2298170428605989</v>
+        <v>0.32004690868915908</v>
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
-        <v>0.35963408572119782</v>
+        <v>0.54009381737831808</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
-        <v>0.32937492826430298</v>
+        <v>0.4201045780704763</v>
       </c>
       <c r="H80">
         <f t="shared" si="5"/>
-        <v>0.458749856528606</v>
+        <v>0.64020915614095264</v>
       </c>
       <c r="I80">
         <f t="shared" si="6"/>
-        <v>4.7454260715149729E-2</v>
+        <v>7.0011727172289762E-2</v>
       </c>
       <c r="J80">
         <f t="shared" si="7"/>
-        <v>0.51186133937636513</v>
+        <v>0.51749578587034595</v>
       </c>
       <c r="K80">
         <f t="shared" si="8"/>
-        <v>6.2343732066075755E-2</v>
+        <v>8.5026144517619084E-2</v>
       </c>
       <c r="L80">
         <f t="shared" si="9"/>
-        <v>0.51558088677087521</v>
+        <v>0.52124373930037393</v>
       </c>
       <c r="M80">
         <f t="shared" si="10"/>
-        <v>-1.8623928064661015</v>
+        <v>-2.8210989020814368</v>
       </c>
       <c r="N80">
         <f t="shared" si="11"/>
-        <v>-1.8289705662926794</v>
+        <v>-2.7946595382891219</v>
       </c>
       <c r="O80">
         <f t="shared" si="12"/>
-        <v>1.9188689449374596</v>
+        <v>2.7895683726690215</v>
       </c>
       <c r="P80">
         <f t="shared" si="13"/>
-        <v>1.979258554026029</v>
+        <v>2.8562912375184299</v>
       </c>
       <c r="Q80">
         <f t="shared" si="14"/>
-        <v>-1.8962691428096559</v>
+        <v>-2.9166055811598817</v>
       </c>
       <c r="R80">
         <f t="shared" si="15"/>
-        <v>0.13053131678440733</v>
+        <v>5.1338768087264265E-2</v>
       </c>
       <c r="S80">
         <f t="shared" si="16"/>
-        <v>2.002662708676981</v>
+        <v>2.9324138024284161</v>
       </c>
       <c r="T80">
         <f t="shared" si="17"/>
-        <v>0.88107636196328576</v>
+        <v>0.94942570331683374</v>
       </c>
       <c r="U80">
         <f t="shared" si="18"/>
-        <v>7.263899162891576E-3</v>
+        <v>8.5444687348630913E-4</v>
       </c>
       <c r="V80">
         <f t="shared" si="19"/>
-        <v>5.9321794615765696E-3</v>
+        <v>8.2313677566679807E-4</v>
       </c>
       <c r="W80" s="3">
         <f t="shared" si="20"/>
-        <v>1.3196078624468146E-2</v>
+        <v>1.6775836491531072E-3</v>
       </c>
       <c r="X80">
         <f t="shared" si="21"/>
-        <v>-5.9187623644565545E-4</v>
+        <v>-1.3876155363500773E-4</v>
       </c>
       <c r="Y80">
         <f t="shared" si="22"/>
-        <v>-1.1837524728913109E-3</v>
+        <v>-2.7752310727001547E-4</v>
       </c>
       <c r="Z80">
         <f t="shared" si="23"/>
-        <v>-5.9453206710199295E-4</v>
+        <v>-1.3963864474325895E-4</v>
       </c>
       <c r="AA80">
         <f t="shared" si="24"/>
-        <v>-1.1890641342039859E-3</v>
+        <v>-2.792772894865179E-4</v>
       </c>
       <c r="AB80">
         <f t="shared" si="25"/>
-        <v>7.0019804386693895E-3</v>
+        <v>1.0418877794769145E-3</v>
       </c>
       <c r="AC80">
         <f t="shared" si="26"/>
-        <v>7.0528617928439291E-3</v>
+        <v>1.0494336319909156E-3</v>
       </c>
       <c r="AD80">
         <f t="shared" si="27"/>
-        <v>-5.8419280431954755E-3</v>
+        <v>-1.0082045543187328E-3</v>
       </c>
       <c r="AE80">
         <f t="shared" si="28"/>
-        <v>-5.8843796342034176E-3</v>
+        <v>-1.0155064567123409E-3</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -11756,111 +11809,111 @@
       </c>
       <c r="E81">
         <f t="shared" ref="E81:E89" si="29">E80-$L$30*X80</f>
-        <v>0.23100079533349022</v>
+        <v>0.32143452422550917</v>
       </c>
       <c r="F81">
         <f t="shared" ref="F81:F89" si="30">F80-$L$30*Y80</f>
-        <v>0.36200159066698046</v>
+        <v>0.54286904845101824</v>
       </c>
       <c r="G81">
         <f t="shared" ref="G81:G89" si="31">G80-$L$30*Z80</f>
-        <v>0.33056399239850698</v>
+        <v>0.42150096451790886</v>
       </c>
       <c r="H81">
         <f t="shared" ref="H81:H89" si="32">H80-$L$30*AA80</f>
-        <v>0.461127984797014</v>
+        <v>0.64300192903581777</v>
       </c>
       <c r="I81">
         <f t="shared" ref="I81:I89" si="33">C81*E81+ D81*F81</f>
-        <v>4.7750198833372559E-2</v>
+        <v>7.0358631056377283E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="7"/>
-        <v>0.51193528200988636</v>
+        <v>0.51758240512662179</v>
       </c>
       <c r="K81">
         <f t="shared" ref="K81:K89" si="34">C81*G81+D81*H81</f>
-        <v>6.2640998099626755E-2</v>
+        <v>8.5375241129477225E-2</v>
       </c>
       <c r="L81">
         <f t="shared" si="9"/>
-        <v>0.51565513076934155</v>
+        <v>0.52133085526032652</v>
       </c>
       <c r="M81">
         <f t="shared" ref="M81:M89" si="35">M80 - $L$30*AB80</f>
-        <v>-1.8763967673434403</v>
+        <v>-2.8315177798762061</v>
       </c>
       <c r="N81">
         <f t="shared" ref="N81:N89" si="36">N80 - $L$30*AC80</f>
-        <v>-1.8430762898783672</v>
+        <v>-2.8051538746090312</v>
       </c>
       <c r="O81">
         <f t="shared" ref="O81:O89" si="37">O80 - $L$30*AD80</f>
-        <v>1.9305528010238506</v>
+        <v>2.7996504182122086</v>
       </c>
       <c r="P81">
         <f t="shared" ref="P81:P89" si="38">P80 - $L$30*AE80</f>
-        <v>1.9910273132944358</v>
+        <v>2.8664463020855533</v>
       </c>
       <c r="Q81">
         <f t="shared" ref="Q81:Q89" si="39">J81*M81+L81*N81</f>
-        <v>-1.9109854535275055</v>
+        <v>-2.9279570512538644</v>
       </c>
       <c r="R81">
         <f t="shared" si="15"/>
-        <v>0.12887018204712877</v>
+        <v>5.0788723579268107E-2</v>
       </c>
       <c r="S81">
         <f t="shared" ref="S81:S89" si="40">J81*O81+L81*P81</f>
-        <v>2.0150015422292942</v>
+        <v>2.9434166991960895</v>
       </c>
       <c r="T81">
         <f t="shared" si="17"/>
-        <v>0.88236316795596248</v>
+        <v>0.94995141935728111</v>
       </c>
       <c r="U81">
         <f t="shared" ref="U81:U89" si="41">0.5*(A81-R81)^2</f>
-        <v>7.0650600899587685E-3</v>
+        <v>8.3185998561297091E-4</v>
       </c>
       <c r="V81">
         <f t="shared" ref="V81:V89" si="42">0.5*(B81-T81)^2</f>
-        <v>5.7928438062381706E-3</v>
+        <v>8.0194440574817862E-4</v>
       </c>
       <c r="W81" s="3">
         <f t="shared" ref="W81:W89" si="43">U81+V81</f>
-        <v>1.285790389619694E-2</v>
+        <v>1.6338043913611496E-3</v>
       </c>
       <c r="X81">
         <f t="shared" ref="X81:X89" si="44">((R81-A81)*R81*(1-R81)*M81 + (T81-B81)*T81*(1-T81)*O81)*J81*(1-J81)*C81</f>
-        <v>-5.8228154788311586E-4</v>
+        <v>-1.3606372434533365E-4</v>
       </c>
       <c r="Y81">
         <f t="shared" ref="Y81:Y89" si="45">((R81-A81)*R81*(1-R81)*M81 + (T81-B81)*T81*(1-T81)*O81)*J81*(1-J81)*D81</f>
-        <v>-1.1645630957662317E-3</v>
+        <v>-2.7212744869066729E-4</v>
       </c>
       <c r="Z81">
         <f t="shared" ref="Z81:Z89" si="46">((R81-A81)*R81*(1-R81)*N81 + (T81-B81)*T81*(1-T81)*P81)*L81*(1-L81)*C81</f>
-        <v>-5.8492706527769238E-4</v>
+        <v>-1.3692429302757025E-4</v>
       </c>
       <c r="AA81">
         <f t="shared" ref="AA81:AA89" si="47">((R81-A81)*R81*(1-R81)*N81 + (T81-B81)*T81*(1-T81)*P81)*L81*(1-L81)*D81</f>
-        <v>-1.1698541305553848E-3</v>
+        <v>-2.7384858605514049E-4</v>
       </c>
       <c r="AB81">
         <f t="shared" ref="AB81:AB89" si="48">(R81-A81)*R81*(1-R81)*J81</f>
-        <v>6.831613860633092E-3</v>
+        <v>1.0177703775872177E-3</v>
       </c>
       <c r="AC81">
         <f t="shared" ref="AC81:AC89" si="49">(R81-A81)*R81*(1-R81)*L81</f>
-        <v>6.8812540617241005E-3</v>
+        <v>1.0251413033956678E-3</v>
       </c>
       <c r="AD81">
         <f t="shared" ref="AD81:AD89" si="50">(T81-B81)*T81*(1-T81)*J81</f>
-        <v>-5.7196132105299816E-3</v>
+        <v>-9.8550718477432089E-4</v>
       </c>
       <c r="AE81">
         <f t="shared" ref="AE81:AE89" si="51">(T81-B81)*T81*(1-T81)*L81</f>
-        <v>-5.7611733390333783E-3</v>
+        <v>-9.9264445316278268E-4</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
@@ -11878,111 +11931,111 @@
       </c>
       <c r="E82">
         <f t="shared" si="29"/>
-        <v>0.23216535842925645</v>
+        <v>0.32279516146896248</v>
       </c>
       <c r="F82">
         <f t="shared" si="30"/>
-        <v>0.36433071685851293</v>
+        <v>0.54559032293792487</v>
       </c>
       <c r="G82">
         <f t="shared" si="31"/>
-        <v>0.33173384652906235</v>
+        <v>0.42287020744818454</v>
       </c>
       <c r="H82">
         <f t="shared" si="32"/>
-        <v>0.4634676930581248</v>
+        <v>0.64574041489636913</v>
       </c>
       <c r="I82">
         <f t="shared" si="33"/>
-        <v>4.8041339607314118E-2</v>
+        <v>7.069879036724061E-2</v>
       </c>
       <c r="J82">
         <f t="shared" si="7"/>
-        <v>0.51200802547680369</v>
+        <v>0.5176673392883635</v>
       </c>
       <c r="K82">
         <f t="shared" si="34"/>
-        <v>6.2933461632265597E-2</v>
+        <v>8.5717551862046146E-2</v>
       </c>
       <c r="L82">
         <f t="shared" si="9"/>
-        <v>0.51572817463967047</v>
+        <v>0.52141627656568001</v>
       </c>
       <c r="M82">
         <f t="shared" si="35"/>
-        <v>-1.8900599950647066</v>
+        <v>-2.8416954836520785</v>
       </c>
       <c r="N82">
         <f t="shared" si="36"/>
-        <v>-1.8568387980018155</v>
+        <v>-2.8154052876429878</v>
       </c>
       <c r="O82">
         <f t="shared" si="37"/>
-        <v>1.9419920274449105</v>
+        <v>2.8095054900599519</v>
       </c>
       <c r="P82">
         <f t="shared" si="38"/>
-        <v>2.0025496599725026</v>
+        <v>2.8763727466171809</v>
       </c>
       <c r="Q82">
         <f t="shared" si="39"/>
-        <v>-1.9253499699993739</v>
+        <v>-2.9390510821960651</v>
       </c>
       <c r="R82">
         <f t="shared" si="15"/>
-        <v>0.12726616201660165</v>
+        <v>5.0256546496216879E-2</v>
       </c>
       <c r="S82">
         <f t="shared" si="40"/>
-        <v>2.0270867842266749</v>
+        <v>2.9541767993115138</v>
       </c>
       <c r="T82">
         <f t="shared" si="17"/>
-        <v>0.88361181171359826</v>
+        <v>0.95046052478937904</v>
       </c>
       <c r="U82">
         <f t="shared" si="41"/>
-        <v>6.8756763770519346E-3</v>
+        <v>8.1029476790103565E-4</v>
       </c>
       <c r="V82">
         <f t="shared" si="42"/>
-        <v>5.6592233034314333E-3</v>
+        <v>7.8168504996565451E-4</v>
       </c>
       <c r="W82" s="3">
         <f t="shared" si="43"/>
-        <v>1.2534899680483368E-2</v>
+        <v>1.59197981786669E-3</v>
       </c>
       <c r="X82">
         <f t="shared" si="44"/>
-        <v>-5.7298330651019927E-4</v>
+        <v>-1.3346806265175301E-4</v>
       </c>
       <c r="Y82">
         <f t="shared" si="45"/>
-        <v>-1.1459666130203985E-3</v>
+        <v>-2.6693612530350602E-4</v>
       </c>
       <c r="Z82">
         <f t="shared" si="46"/>
-        <v>-5.7561728347186182E-4</v>
+        <v>-1.3431270253761853E-4</v>
       </c>
       <c r="AA82">
         <f t="shared" si="47"/>
-        <v>-1.1512345669437236E-3</v>
+        <v>-2.6862540507523706E-4</v>
       </c>
       <c r="AB82">
         <f t="shared" si="48"/>
-        <v>6.6687470089699654E-3</v>
+        <v>9.9468651630163214E-4</v>
       </c>
       <c r="AC82">
         <f t="shared" si="49"/>
-        <v>6.7172008072862851E-3</v>
+        <v>1.0018900176183921E-3</v>
       </c>
       <c r="AD82">
         <f t="shared" si="50"/>
-        <v>-5.6019677236604877E-3</v>
+        <v>-9.6375612666503119E-4</v>
       </c>
       <c r="AE82">
         <f t="shared" si="51"/>
-        <v>-5.6426705144383763E-3</v>
+        <v>-9.7073563067326862E-4</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -12000,111 +12053,111 @@
       </c>
       <c r="E83">
         <f t="shared" si="29"/>
-        <v>0.23331132504227686</v>
+        <v>0.32412984209548001</v>
       </c>
       <c r="F83">
         <f t="shared" si="30"/>
-        <v>0.36662265008455375</v>
+        <v>0.54825968419095994</v>
       </c>
       <c r="G83">
         <f t="shared" si="31"/>
-        <v>0.33288508109600606</v>
+        <v>0.42421333447356074</v>
       </c>
       <c r="H83">
         <f t="shared" si="32"/>
-        <v>0.46577016219201223</v>
+        <v>0.64842666894712153</v>
       </c>
       <c r="I83">
         <f t="shared" si="33"/>
-        <v>4.8327831260569221E-2</v>
+        <v>7.1032460523869995E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="7"/>
-        <v>0.51207960683337561</v>
+        <v>0.51775065218551952</v>
       </c>
       <c r="K83">
         <f t="shared" si="34"/>
-        <v>6.3221270274001526E-2</v>
+        <v>8.6053333618390196E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="9"/>
-        <v>0.51580005527742567</v>
+        <v>0.52150006739280241</v>
       </c>
       <c r="M83">
         <f t="shared" si="35"/>
-        <v>-1.9033974890826464</v>
+        <v>-2.8516423488150946</v>
       </c>
       <c r="N83">
         <f t="shared" si="36"/>
-        <v>-1.8702731996163882</v>
+        <v>-2.8254241878191717</v>
       </c>
       <c r="O83">
         <f t="shared" si="37"/>
-        <v>1.9531959628922315</v>
+        <v>2.819143051326602</v>
       </c>
       <c r="P83">
         <f t="shared" si="38"/>
-        <v>2.0138350010013792</v>
+        <v>2.8860801029239136</v>
       </c>
       <c r="Q83">
         <f t="shared" si="39"/>
-        <v>-1.9393780576030966</v>
+        <v>-2.949898590259814</v>
       </c>
       <c r="R83">
         <f t="shared" si="15"/>
-        <v>0.12571619931078246</v>
+        <v>4.9741304684765446E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="40"/>
-        <v>2.0389280255825164</v>
+        <v>2.9647041216044707</v>
       </c>
       <c r="T83">
         <f t="shared" si="17"/>
-        <v>0.88482406763108612</v>
+        <v>0.95095386304525975</v>
       </c>
       <c r="U83">
         <f t="shared" si="41"/>
-        <v>6.6951193914663656E-3</v>
+        <v>7.8968564902367989E-4</v>
       </c>
       <c r="V83">
         <f t="shared" si="42"/>
-        <v>5.5309883748351722E-3</v>
+        <v>7.6230040554416568E-4</v>
       </c>
       <c r="W83" s="3">
         <f t="shared" si="43"/>
-        <v>1.2226107766301538E-2</v>
+        <v>1.5519860545678455E-3</v>
       </c>
       <c r="X83">
         <f t="shared" si="44"/>
-        <v>-5.6396875441998848E-4</v>
+        <v>-1.3096883131614401E-4</v>
       </c>
       <c r="Y83">
         <f t="shared" si="45"/>
-        <v>-1.127937508839977E-3</v>
+        <v>-2.6193766263228803E-4</v>
       </c>
       <c r="Z83">
         <f t="shared" si="46"/>
-        <v>-5.6659012199361558E-4</v>
+        <v>-1.3179810486525803E-4</v>
       </c>
       <c r="AA83">
         <f t="shared" si="47"/>
-        <v>-1.1331802439872312E-3</v>
+        <v>-2.6359620973051605E-4</v>
       </c>
       <c r="AB83">
         <f t="shared" si="48"/>
-        <v>6.5129135864357068E-3</v>
+        <v>9.7257208444876124E-4</v>
       </c>
       <c r="AC83">
         <f t="shared" si="49"/>
-        <v>6.5602323214439756E-3</v>
+        <v>9.796151978629466E-4</v>
       </c>
       <c r="AD83">
         <f t="shared" si="50"/>
-        <v>-5.4887381838911011E-3</v>
+        <v>-9.4289423711309099E-4</v>
       </c>
       <c r="AE83">
         <f t="shared" si="51"/>
-        <v>-5.5286159043930637E-3</v>
+        <v>-9.4972243129607867E-4</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -12122,111 +12175,111 @@
       </c>
       <c r="E84">
         <f t="shared" si="29"/>
-        <v>0.23443926255111683</v>
+        <v>0.32543953040864143</v>
       </c>
       <c r="F84">
         <f t="shared" si="30"/>
-        <v>0.36887852510223368</v>
+        <v>0.55087906081728277</v>
       </c>
       <c r="G84">
         <f t="shared" si="31"/>
-        <v>0.33401826133999329</v>
+        <v>0.42553131552221335</v>
       </c>
       <c r="H84">
         <f t="shared" si="32"/>
-        <v>0.46803652267998669</v>
+        <v>0.65106263104442674</v>
       </c>
       <c r="I84">
         <f t="shared" si="33"/>
-        <v>4.8609815637779212E-2</v>
+        <v>7.1359882602160363E-2</v>
       </c>
       <c r="J84">
         <f t="shared" si="7"/>
-        <v>0.51215006154093767</v>
+        <v>0.51783240406322417</v>
       </c>
       <c r="K84">
         <f t="shared" si="34"/>
-        <v>6.3504565334998334E-2</v>
+        <v>8.6382828880553347E-2</v>
       </c>
       <c r="L84">
         <f t="shared" si="9"/>
-        <v>0.51587080800323304</v>
+        <v>0.52158228831499265</v>
       </c>
       <c r="M84">
         <f t="shared" si="35"/>
-        <v>-1.9164233162555178</v>
+        <v>-2.8613680696595822</v>
       </c>
       <c r="N84">
         <f t="shared" si="36"/>
-        <v>-1.8833936642592761</v>
+        <v>-2.8352203397978011</v>
       </c>
       <c r="O84">
         <f t="shared" si="37"/>
-        <v>1.9641734392600136</v>
+        <v>2.8285719936977332</v>
       </c>
       <c r="P84">
         <f t="shared" si="38"/>
-        <v>2.0248922328101653</v>
+        <v>2.8955773272368743</v>
       </c>
       <c r="Q84">
         <f t="shared" si="39"/>
-        <v>-1.953084130728354</v>
+        <v>-2.9605098191305168</v>
       </c>
       <c r="R84">
         <f t="shared" si="15"/>
-        <v>0.1242174543487771</v>
+        <v>4.9242132220276111E-2</v>
       </c>
       <c r="S84">
         <f t="shared" si="40"/>
-        <v>2.0505343400533418</v>
+        <v>2.9750080838956237</v>
       </c>
       <c r="T84">
         <f t="shared" si="17"/>
-        <v>0.88600159967569037</v>
+        <v>0.95143221919944765</v>
       </c>
       <c r="U84">
         <f t="shared" si="41"/>
-        <v>6.5228134389574907E-3</v>
+        <v>7.6997247059681613E-4</v>
       </c>
       <c r="V84">
         <f t="shared" si="42"/>
-        <v>5.4078336350076826E-3</v>
+        <v>7.4373685793972691E-4</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" si="43"/>
-        <v>1.1930647073965173E-2</v>
+        <v>1.513709328536543E-3</v>
       </c>
       <c r="X84">
         <f t="shared" si="44"/>
-        <v>-5.552257831136976E-4</v>
+        <v>-1.2856071667276804E-4</v>
       </c>
       <c r="Y84">
         <f t="shared" si="45"/>
-        <v>-1.1104515662273952E-3</v>
+        <v>-2.5712143334553607E-4</v>
       </c>
       <c r="Z84">
         <f t="shared" si="46"/>
-        <v>-5.5783361271623038E-4</v>
+        <v>-1.293751572962611E-4</v>
       </c>
       <c r="AA84">
         <f t="shared" si="47"/>
-        <v>-1.1156672254324608E-3</v>
+        <v>-2.587503145925222E-4</v>
       </c>
       <c r="AB84">
         <f t="shared" si="48"/>
-        <v>6.3636841481668786E-3</v>
+        <v>9.5136812855053921E-4</v>
       </c>
       <c r="AC84">
         <f t="shared" si="49"/>
-        <v>6.409916018588248E-3</v>
+        <v>9.5825746250278554E-4</v>
       </c>
       <c r="AD84">
         <f t="shared" si="50"/>
-        <v>-5.379688773904474E-3</v>
+        <v>-9.2286885086073156E-4</v>
       </c>
       <c r="AE84">
         <f t="shared" si="51"/>
-        <v>-5.4187719635335647E-3</v>
+        <v>-9.2955180724417919E-4</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -12244,111 +12297,111 @@
       </c>
       <c r="E85">
         <f t="shared" si="29"/>
-        <v>0.23554971411734421</v>
+        <v>0.32672513757536908</v>
       </c>
       <c r="F85">
         <f t="shared" si="30"/>
-        <v>0.37109942823468844</v>
+        <v>0.55345027515073808</v>
       </c>
       <c r="G85">
         <f t="shared" si="31"/>
-        <v>0.33513392856542573</v>
+        <v>0.42682506709517598</v>
       </c>
       <c r="H85">
         <f t="shared" si="32"/>
-        <v>0.47026785713085162</v>
+        <v>0.65365013419035201</v>
       </c>
       <c r="I85">
         <f t="shared" si="33"/>
-        <v>4.8887428529336058E-2</v>
+        <v>7.1681284393842262E-2</v>
       </c>
       <c r="J85">
         <f t="shared" si="7"/>
-        <v>0.51221942354709815</v>
+        <v>0.51791265184647906</v>
       </c>
       <c r="K85">
         <f t="shared" si="34"/>
-        <v>6.3783482141356457E-2</v>
+        <v>8.6706266773794005E-2</v>
       </c>
       <c r="L85">
         <f t="shared" si="9"/>
-        <v>0.5159404666417422</v>
+        <v>0.52166299656840476</v>
       </c>
       <c r="M85">
         <f t="shared" si="35"/>
-        <v>-1.9291506845518516</v>
+        <v>-2.8708817509450877</v>
       </c>
       <c r="N85">
         <f t="shared" si="36"/>
-        <v>-1.8962134962964525</v>
+        <v>-2.8448029144228291</v>
       </c>
       <c r="O85">
         <f t="shared" si="37"/>
-        <v>1.9749328168078226</v>
+        <v>2.8378006822063404</v>
       </c>
       <c r="P85">
         <f t="shared" si="38"/>
-        <v>2.0357297767372322</v>
+        <v>2.904872845309316</v>
       </c>
       <c r="Q85">
         <f t="shared" si="39"/>
-        <v>-1.9664817277082003</v>
+        <v>-2.9708943937539773</v>
       </c>
       <c r="R85">
         <f t="shared" si="15"/>
-        <v>0.12276728624028722</v>
+        <v>4.8758223502153107E-2</v>
       </c>
       <c r="S85">
         <f t="shared" si="40"/>
-        <v>2.061914319935847</v>
+        <v>2.9850975498674792</v>
       </c>
       <c r="T85">
         <f t="shared" si="17"/>
-        <v>0.88714596989587569</v>
+        <v>0.95189632503831945</v>
       </c>
       <c r="U85">
         <f t="shared" si="41"/>
-        <v>6.358230422999437E-3</v>
+        <v>7.5109994452142665E-4</v>
       </c>
       <c r="V85">
         <f t="shared" si="42"/>
-        <v>5.2894757543300542E-3</v>
+        <v>7.2594502279270043E-4</v>
       </c>
       <c r="W85" s="3">
         <f t="shared" si="43"/>
-        <v>1.1647706177329492E-2</v>
+        <v>1.4770449673141271E-3</v>
       </c>
       <c r="X85">
         <f t="shared" si="44"/>
-        <v>-5.4674290106962919E-4</v>
+        <v>-1.2623879013956742E-4</v>
       </c>
       <c r="Y85">
         <f t="shared" si="45"/>
-        <v>-1.0934858021392584E-3</v>
+        <v>-2.5247758027913483E-4</v>
       </c>
       <c r="Z85">
         <f t="shared" si="46"/>
-        <v>-5.493363887680324E-4</v>
+        <v>-1.2703890414670743E-4</v>
       </c>
       <c r="AA85">
         <f t="shared" si="47"/>
-        <v>-1.0986727775360648E-3</v>
+        <v>-2.5407780829341485E-4</v>
       </c>
       <c r="AB85">
         <f t="shared" si="48"/>
-        <v>6.2206626103172395E-3</v>
+        <v>9.3102034662352173E-4</v>
       </c>
       <c r="AC85">
         <f t="shared" si="49"/>
-        <v>6.2658529185838354E-3</v>
+        <v>9.3776211520267582E-4</v>
       </c>
       <c r="AD85">
         <f t="shared" si="50"/>
-        <v>-5.2745997874038145E-3</v>
+        <v>-9.0363135201669434E-4</v>
       </c>
       <c r="AE85">
         <f t="shared" si="51"/>
-        <v>-5.3129173759482199E-3</v>
+        <v>-9.1017478952400382E-4</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -12366,111 +12419,111 @@
       </c>
       <c r="E86">
         <f t="shared" si="29"/>
-        <v>0.23664319991948346</v>
+        <v>0.32798752547676474</v>
       </c>
       <c r="F86">
         <f t="shared" si="30"/>
-        <v>0.37328639983896694</v>
+        <v>0.55597505095352939</v>
       </c>
       <c r="G86">
         <f t="shared" si="31"/>
-        <v>0.33623260134296179</v>
+        <v>0.42809545613664307</v>
       </c>
       <c r="H86">
         <f t="shared" si="32"/>
-        <v>0.47246520268592374</v>
+        <v>0.65619091227328619</v>
       </c>
       <c r="I86">
         <f t="shared" si="33"/>
-        <v>4.916079997987087E-2</v>
+        <v>7.1996881369191176E-2</v>
       </c>
       <c r="J86">
         <f t="shared" si="7"/>
-        <v>0.51228772536287825</v>
+        <v>0.51799144938078301</v>
       </c>
       <c r="K86">
         <f t="shared" si="34"/>
-        <v>6.4058150335740471E-2</v>
+        <v>8.7023864034160778E-2</v>
       </c>
       <c r="L86">
         <f t="shared" si="9"/>
-        <v>0.51600906359679632</v>
+        <v>0.52174224629381971</v>
       </c>
       <c r="M86">
         <f t="shared" si="35"/>
-        <v>-1.9415920097724861</v>
+        <v>-2.8801919544113228</v>
       </c>
       <c r="N86">
         <f t="shared" si="36"/>
-        <v>-1.9087452021336202</v>
+        <v>-2.854180535574856</v>
       </c>
       <c r="O86">
         <f t="shared" si="37"/>
-        <v>1.9854820163826303</v>
+        <v>2.8468369957265072</v>
       </c>
       <c r="P86">
         <f t="shared" si="38"/>
-        <v>2.0463556114891288</v>
+        <v>2.9139745932045562</v>
       </c>
       <c r="Q86">
         <f t="shared" si="39"/>
-        <v>-1.9795835786669334</v>
+        <v>-2.9810613689193142</v>
       </c>
       <c r="R86">
         <f t="shared" si="15"/>
-        <v>0.12136323564679126</v>
+        <v>4.8288827978296242E-2</v>
       </c>
       <c r="S86">
         <f t="shared" si="40"/>
-        <v>2.0730761087921135</v>
+        <v>2.9949808714688722</v>
       </c>
       <c r="T86">
         <f t="shared" si="17"/>
-        <v>0.88825864615535777</v>
+        <v>0.95234686360303034</v>
       </c>
       <c r="U86">
         <f t="shared" si="41"/>
-        <v>6.2008851268613805E-3</v>
+        <v>7.3301717397578048E-4</v>
       </c>
       <c r="V86">
         <f t="shared" si="42"/>
-        <v>5.1756515410703472E-3</v>
+        <v>7.0887934026440046E-4</v>
       </c>
       <c r="W86" s="3">
         <f t="shared" si="43"/>
-        <v>1.1376536667931727E-2</v>
+        <v>1.4418965142401811E-3</v>
       </c>
       <c r="X86">
         <f t="shared" si="44"/>
-        <v>-5.385092019853056E-4</v>
+        <v>-1.2399847385875302E-4</v>
       </c>
       <c r="Y86">
         <f t="shared" si="45"/>
-        <v>-1.0770184039706112E-3</v>
+        <v>-2.4799694771750604E-4</v>
       </c>
       <c r="Z86">
         <f t="shared" si="46"/>
-        <v>-5.4108765462300738E-4</v>
+        <v>-1.2478474224535897E-4</v>
       </c>
       <c r="AA86">
         <f t="shared" si="47"/>
-        <v>-1.0821753092460148E-3</v>
+        <v>-2.4956948449071794E-4</v>
       </c>
       <c r="AB86">
         <f t="shared" si="48"/>
-        <v>6.0834831405732741E-3</v>
+        <v>9.1147864027332792E-4</v>
       </c>
       <c r="AC86">
         <f t="shared" si="49"/>
-        <v>6.1276745144547683E-3</v>
+        <v>9.180786937574597E-4</v>
       </c>
       <c r="AD86">
         <f t="shared" si="50"/>
-        <v>-5.1732663015058499E-3</v>
+        <v>-8.8513679388639143E-4</v>
       </c>
       <c r="AE86">
         <f t="shared" si="51"/>
-        <v>-5.2108457177770413E-3</v>
+        <v>-8.9154610500164833E-4</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
@@ -12488,111 +12541,111 @@
       </c>
       <c r="E87">
         <f t="shared" si="29"/>
-        <v>0.23772021832345408</v>
+        <v>0.32922751021535229</v>
       </c>
       <c r="F87">
         <f t="shared" si="30"/>
-        <v>0.37544043664690818</v>
+        <v>0.5584550204307045</v>
       </c>
       <c r="G87">
         <f t="shared" si="31"/>
-        <v>0.33731477665220783</v>
+        <v>0.42934330355909667</v>
       </c>
       <c r="H87">
         <f t="shared" si="32"/>
-        <v>0.47462955330441575</v>
+        <v>0.65868660711819338</v>
       </c>
       <c r="I87">
         <f t="shared" si="33"/>
-        <v>4.9430054580863525E-2</v>
+        <v>7.2306877553838078E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="7"/>
-        <v>0.51235499813588015</v>
+        <v>0.51806884765129035</v>
       </c>
       <c r="K87">
         <f t="shared" si="34"/>
-        <v>6.4328694163051967E-2</v>
+        <v>8.7335825889774177E-2</v>
       </c>
       <c r="L87">
         <f t="shared" si="9"/>
-        <v>0.51607662992286274</v>
+        <v>0.52182008875685204</v>
       </c>
       <c r="M87">
         <f t="shared" si="35"/>
-        <v>-1.9537589760536327</v>
+        <v>-2.8893067408140563</v>
       </c>
       <c r="N87">
         <f t="shared" si="36"/>
-        <v>-1.9210005511625297</v>
+        <v>-2.8633613225124304</v>
       </c>
       <c r="O87">
         <f t="shared" si="37"/>
-        <v>1.995828548985642</v>
+        <v>2.8556883636653709</v>
       </c>
       <c r="P87">
         <f t="shared" si="38"/>
-        <v>2.056777302924683</v>
+        <v>2.9228900542545726</v>
       </c>
       <c r="Q87">
         <f t="shared" si="39"/>
-        <v>-1.9924016670578384</v>
+        <v>-2.991019273181017</v>
       </c>
       <c r="R87">
         <f t="shared" si="15"/>
-        <v>0.12000300938256674</v>
+        <v>4.7833245421124555E-2</v>
       </c>
       <c r="S87">
         <f t="shared" si="40"/>
-        <v>2.0840274314902807</v>
+        <v>3.004665927352959</v>
       </c>
       <c r="T87">
         <f t="shared" si="17"/>
-        <v>0.88934100917318448</v>
+        <v>0.95278447326920468</v>
       </c>
       <c r="U87">
         <f t="shared" si="41"/>
-        <v>6.0503310366105331E-3</v>
+        <v>7.1567722954752103E-4</v>
       </c>
       <c r="V87">
         <f t="shared" si="42"/>
-        <v>5.066116217136464E-3</v>
+        <v>6.9249771492527017E-4</v>
       </c>
       <c r="W87" s="3">
         <f t="shared" si="43"/>
-        <v>1.1116447253746997E-2</v>
+        <v>1.4081749444727911E-3</v>
       </c>
       <c r="X87">
         <f t="shared" si="44"/>
-        <v>-5.3051433394505786E-4</v>
+        <v>-1.2183550995833283E-4</v>
       </c>
       <c r="Y87">
         <f t="shared" si="45"/>
-        <v>-1.0610286678901157E-3</v>
+        <v>-2.4367101991666567E-4</v>
       </c>
       <c r="Z87">
         <f t="shared" si="46"/>
-        <v>-5.3307715688162701E-4</v>
+        <v>-1.2260839005189079E-4</v>
       </c>
       <c r="AA87">
         <f t="shared" si="47"/>
-        <v>-1.066154313763254E-3</v>
+        <v>-2.4521678010378157E-4</v>
       </c>
       <c r="AB87">
         <f t="shared" si="48"/>
-        <v>5.9518073835825459E-3</v>
+        <v>8.9269671741485984E-4</v>
       </c>
       <c r="AC87">
         <f t="shared" si="49"/>
-        <v>5.9950399774468177E-3</v>
+        <v>8.9916056992471113E-4</v>
       </c>
       <c r="AD87">
         <f t="shared" si="50"/>
-        <v>-5.0754969762127882E-3</v>
+        <v>-8.6734356071656554E-4</v>
       </c>
       <c r="AE87">
         <f t="shared" si="51"/>
-        <v>-5.1123642478313582E-3</v>
+        <v>-8.7362383568842451E-4</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
@@ -12610,111 +12663,111 @@
       </c>
       <c r="E88">
         <f t="shared" si="29"/>
-        <v>0.2387812469913442</v>
+        <v>0.33044586531493564</v>
       </c>
       <c r="F88">
         <f t="shared" si="30"/>
-        <v>0.37756249398268843</v>
+        <v>0.56089173062987119</v>
       </c>
       <c r="G88">
         <f t="shared" si="31"/>
-        <v>0.33838093096597111</v>
+        <v>0.43056938745961559</v>
       </c>
       <c r="H88">
         <f t="shared" si="32"/>
-        <v>0.47676186193194225</v>
+        <v>0.66113877491923123</v>
       </c>
       <c r="I88">
         <f t="shared" si="33"/>
-        <v>4.9695311747836056E-2</v>
+        <v>7.2611466328733901E-2</v>
       </c>
       <c r="J88">
         <f t="shared" si="7"/>
-        <v>0.51242127171959961</v>
+        <v>0.51814489498275984</v>
       </c>
       <c r="K88">
         <f t="shared" si="34"/>
-        <v>6.4595232741492786E-2</v>
+        <v>8.7642346864903908E-2</v>
       </c>
       <c r="L88">
         <f t="shared" si="9"/>
-        <v>0.51614319539280717</v>
+        <v>0.52189657254886357</v>
       </c>
       <c r="M88">
         <f t="shared" si="35"/>
-        <v>-1.9656625908207979</v>
+        <v>-2.8982337079882048</v>
       </c>
       <c r="N88">
         <f t="shared" si="36"/>
-        <v>-1.9329906311174232</v>
+        <v>-2.8723529282116775</v>
       </c>
       <c r="O88">
         <f t="shared" si="37"/>
-        <v>2.0059795429380674</v>
+        <v>2.8643617992725368</v>
       </c>
       <c r="P88">
         <f t="shared" si="38"/>
-        <v>2.0670020314203459</v>
+        <v>2.9316262926114569</v>
       </c>
       <c r="Q88">
         <f t="shared" si="39"/>
-        <v>-2.004947285569342</v>
+        <v>-3.0007761486454094</v>
       </c>
       <c r="R88">
         <f t="shared" si="15"/>
-        <v>0.1186844665540575</v>
+        <v>4.7390821688426281E-2</v>
       </c>
       <c r="S88">
         <f t="shared" si="40"/>
-        <v>2.0947756218165465</v>
+        <v>3.0141601577847488</v>
       </c>
       <c r="T88">
         <f t="shared" si="17"/>
-        <v>0.89039435894122132</v>
+        <v>0.95320975141808739</v>
       </c>
       <c r="U88">
         <f t="shared" si="41"/>
-        <v>5.9061566350700218E-3</v>
+        <v>6.990367732678445E-4</v>
       </c>
       <c r="V88">
         <f t="shared" si="42"/>
-        <v>4.9606418653651277E-3</v>
+        <v>6.7676119535946104E-4</v>
       </c>
       <c r="W88" s="3">
         <f t="shared" si="43"/>
-        <v>1.0866798500435149E-2</v>
+        <v>1.3757979686273055E-3</v>
       </c>
       <c r="X88">
         <f t="shared" si="44"/>
-        <v>-5.2274846968604078E-4</v>
+        <v>-1.1974593299655116E-4</v>
       </c>
       <c r="Y88">
         <f t="shared" si="45"/>
-        <v>-1.0454969393720816E-3</v>
+        <v>-2.3949186599310233E-4</v>
       </c>
       <c r="Z88">
         <f t="shared" si="46"/>
-        <v>-5.2529515594731231E-4</v>
+        <v>-1.2050585997136904E-4</v>
       </c>
       <c r="AA88">
         <f t="shared" si="47"/>
-        <v>-1.0505903118946246E-3</v>
+        <v>-2.4101171994273809E-4</v>
       </c>
       <c r="AB88">
         <f t="shared" si="48"/>
-        <v>5.8253219806956311E-3</v>
+        <v>8.7463173908025507E-4</v>
       </c>
       <c r="AC88">
         <f t="shared" si="49"/>
-        <v>5.8676336585681138E-3</v>
+        <v>8.8096459366568695E-4</v>
       </c>
       <c r="AD88">
         <f t="shared" si="50"/>
-        <v>-4.9811129671989895E-3</v>
+        <v>-8.502130660718902E-4</v>
       </c>
       <c r="AE88">
         <f t="shared" si="51"/>
-        <v>-5.0172928123668617E-3</v>
+        <v>-8.5636911492478166E-4</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -12732,111 +12785,111 @@
       </c>
       <c r="E89">
         <f t="shared" si="29"/>
-        <v>0.23982674393071629</v>
+        <v>0.33164332464490115</v>
       </c>
       <c r="F89">
         <f t="shared" si="30"/>
-        <v>0.3796534878614326</v>
+        <v>0.56328664928980221</v>
       </c>
       <c r="G89">
         <f t="shared" si="31"/>
-        <v>0.33943152127786574</v>
+        <v>0.4317744460593293</v>
       </c>
       <c r="H89">
         <f t="shared" si="32"/>
-        <v>0.47886304255573148</v>
+        <v>0.66354889211865864</v>
       </c>
       <c r="I89">
         <f t="shared" si="33"/>
-        <v>4.9956685982679078E-2</v>
+        <v>7.2910831161225292E-2</v>
       </c>
       <c r="J89">
         <f t="shared" si="7"/>
-        <v>0.51248657473902015</v>
+        <v>0.51821963722228548</v>
       </c>
       <c r="K89">
         <f t="shared" si="34"/>
-        <v>6.4857880319466432E-2</v>
+        <v>8.7943611514832334E-2</v>
       </c>
       <c r="L89">
         <f t="shared" si="9"/>
-        <v>0.51620878856212726</v>
+        <v>0.5219717437705822</v>
       </c>
       <c r="M89">
         <f t="shared" si="35"/>
-        <v>-1.9773132347821891</v>
+        <v>-2.9069800253790072</v>
       </c>
       <c r="N89">
         <f t="shared" si="36"/>
-        <v>-1.9447258984345595</v>
+        <v>-2.8811625741483344</v>
       </c>
       <c r="O89">
         <f t="shared" si="37"/>
-        <v>2.0159417688724655</v>
+        <v>2.8728639299332555</v>
       </c>
       <c r="P89">
         <f t="shared" si="38"/>
-        <v>2.0770366170450796</v>
+        <v>2.9401899837607046</v>
       </c>
       <c r="Q89">
         <f t="shared" si="39"/>
-        <v>-2.0172310869959542</v>
+        <v>-3.010339587079085</v>
       </c>
       <c r="R89">
         <f t="shared" si="15"/>
-        <v>0.11740560606212144</v>
+        <v>4.6960944911426654E-2</v>
       </c>
       <c r="S89">
         <f t="shared" si="40"/>
-        <v>2.1053276478867908</v>
+        <v>3.0234705963993758</v>
       </c>
       <c r="T89">
         <f t="shared" si="17"/>
-        <v>0.89141992058218522</v>
+        <v>0.95362325774653833</v>
       </c>
       <c r="U89">
         <f t="shared" si="41"/>
-        <v>5.7679821067858099E-3</v>
+        <v>6.8305572437275786E-4</v>
       </c>
       <c r="V89">
         <f t="shared" si="42"/>
-        <v>4.859016029011334E-3</v>
+        <v>6.6163368848739135E-4</v>
       </c>
       <c r="W89" s="3">
         <f t="shared" si="43"/>
-        <v>1.0626998135797143E-2</v>
+        <v>1.3446894128601493E-3</v>
       </c>
       <c r="X89">
         <f t="shared" si="44"/>
-        <v>-5.152022780749219E-4</v>
+        <v>-1.1772604521080583E-4</v>
       </c>
       <c r="Y89">
         <f t="shared" si="45"/>
-        <v>-1.0304045561498438E-3</v>
+        <v>-2.3545209042161167E-4</v>
       </c>
       <c r="Z89">
         <f t="shared" si="46"/>
-        <v>-5.1773239873840972E-4</v>
+        <v>-1.1847343348514992E-4</v>
       </c>
       <c r="AA89">
         <f t="shared" si="47"/>
-        <v>-1.0354647974768194E-3</v>
+        <v>-2.3694686697029984E-4</v>
       </c>
       <c r="AB89">
         <f t="shared" si="48"/>
-        <v>5.7037363488530489E-3</v>
+        <v>8.5724400472249101E-4</v>
       </c>
       <c r="AC89">
         <f t="shared" si="49"/>
-        <v>5.7451628511801991E-3</v>
+        <v>8.6345077616181351E-4</v>
       </c>
       <c r="AD89">
         <f t="shared" si="50"/>
-        <v>-4.8899469398026906E-3</v>
+        <v>-8.3370948330740275E-4</v>
       </c>
       <c r="AE89">
         <f t="shared" si="51"/>
-        <v>-4.9254628518104601E-3</v>
+        <v>-8.3974585589347863E-4</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -12862,6 +12915,11 @@
       </c>
       <c r="Z112" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
